--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-mj10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F09876C-7011-400D-B5D5-E2CD7DEB9ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56686472-65CE-4D6B-85D0-1BE0CEE785D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{144B5B72-8DAC-483D-A27B-21B4A0F8B5D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
+    <sheet name="Unidades" sheetId="2" r:id="rId2"/>
+    <sheet name="Fisica" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="155">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -108,16 +107,427 @@
   </si>
   <si>
     <t>100BaseT 100BaseTX 100baseCX 100BaseLX</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>sigla</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Kilobyte</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>10^3</t>
+  </si>
+  <si>
+    <t>Megabyte</t>
+  </si>
+  <si>
+    <t>Gigabyte</t>
+  </si>
+  <si>
+    <t>Terabyte</t>
+  </si>
+  <si>
+    <t>Petabyte</t>
+  </si>
+  <si>
+    <t>Exabyte</t>
+  </si>
+  <si>
+    <t>Zetabyte</t>
+  </si>
+  <si>
+    <t>BrontoByte</t>
+  </si>
+  <si>
+    <t>SanganByte</t>
+  </si>
+  <si>
+    <t>YotaByte</t>
+  </si>
+  <si>
+    <t>Mb</t>
+  </si>
+  <si>
+    <t>Gb</t>
+  </si>
+  <si>
+    <t>Tb</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Zb</t>
+  </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>GeopByte</t>
+  </si>
+  <si>
+    <t>Xb</t>
+  </si>
+  <si>
+    <t>Yb</t>
+  </si>
+  <si>
+    <t>Bb</t>
+  </si>
+  <si>
+    <t>Geb</t>
+  </si>
+  <si>
+    <t>Sb</t>
+  </si>
+  <si>
+    <t>10^9</t>
+  </si>
+  <si>
+    <t>10^12</t>
+  </si>
+  <si>
+    <t>10^15</t>
+  </si>
+  <si>
+    <t>10^18</t>
+  </si>
+  <si>
+    <t>10^21</t>
+  </si>
+  <si>
+    <t>10^24</t>
+  </si>
+  <si>
+    <t>10^27</t>
+  </si>
+  <si>
+    <t>10^30</t>
+  </si>
+  <si>
+    <t>10^33</t>
+  </si>
+  <si>
+    <t>8 Bits</t>
+  </si>
+  <si>
+    <t>kilobit</t>
+  </si>
+  <si>
+    <t>megabit</t>
+  </si>
+  <si>
+    <t>gigabit</t>
+  </si>
+  <si>
+    <t>terabit</t>
+  </si>
+  <si>
+    <t>bps</t>
+  </si>
+  <si>
+    <t>kbps</t>
+  </si>
+  <si>
+    <t>mbps</t>
+  </si>
+  <si>
+    <t>gbps</t>
+  </si>
+  <si>
+    <t>tbps</t>
+  </si>
+  <si>
+    <t>hertz</t>
+  </si>
+  <si>
+    <t>hz</t>
+  </si>
+  <si>
+    <t>1 ciclo/s</t>
+  </si>
+  <si>
+    <t>1 bit/s</t>
+  </si>
+  <si>
+    <t>kilohertz</t>
+  </si>
+  <si>
+    <t>megahertz</t>
+  </si>
+  <si>
+    <t>gigahertz</t>
+  </si>
+  <si>
+    <t>khz</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
+    <t>ghz</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>RFI</t>
+  </si>
+  <si>
+    <t>Amplitud Modulada</t>
+  </si>
+  <si>
+    <t>Frecuencia Modulada</t>
+  </si>
+  <si>
+    <t>Fase Modulada</t>
+  </si>
+  <si>
+    <t>TIA-568B</t>
+  </si>
+  <si>
+    <t>TIA-568A</t>
+  </si>
+  <si>
+    <t>TELECOMUNICATIONS INTERNATIONAL ASSOCIATION</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>b.naraja</t>
+  </si>
+  <si>
+    <t>b.verde</t>
+  </si>
+  <si>
+    <t>azul</t>
+  </si>
+  <si>
+    <t>b.azul</t>
+  </si>
+  <si>
+    <t>naranja</t>
+  </si>
+  <si>
+    <t>b.marron</t>
+  </si>
+  <si>
+    <t>marron</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Half Duplex</t>
+  </si>
+  <si>
+    <t>Full Duplex</t>
+  </si>
+  <si>
+    <t>El dispositivo envia o recibe</t>
+  </si>
+  <si>
+    <t>El dispositivo envia y recibe</t>
+  </si>
+  <si>
+    <t>MDIX</t>
+  </si>
+  <si>
+    <t>Media Detection Interface Cross</t>
+  </si>
+  <si>
+    <t>Significado</t>
+  </si>
+  <si>
+    <t>Multimodo</t>
+  </si>
+  <si>
+    <t>Monomodo</t>
+  </si>
+  <si>
+    <t>100mts</t>
+  </si>
+  <si>
+    <t>100km</t>
+  </si>
+  <si>
+    <t>FTTH</t>
+  </si>
+  <si>
+    <t>Servidores</t>
+  </si>
+  <si>
+    <t>60 micrones</t>
+  </si>
+  <si>
+    <t>9 micrones</t>
+  </si>
+  <si>
+    <t>Almacenamiento</t>
+  </si>
+  <si>
+    <t>Ancho de Banda</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>binary digit</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>terahertz</t>
+  </si>
+  <si>
+    <t>thz</t>
+  </si>
+  <si>
+    <t>Fibra optica</t>
+  </si>
+  <si>
+    <t>Colision</t>
+  </si>
+  <si>
+    <t>cruce de señales no intensionado dentro del mismo medio que producen interferencia</t>
+  </si>
+  <si>
+    <t>interferencia electromagnetica causada por la cercania de cables o luces fluorescentes</t>
+  </si>
+  <si>
+    <t>interferencia por radiofrecuencia causada por la superposicion de señales inalambricas</t>
+  </si>
+  <si>
+    <t>CrossTalk</t>
+  </si>
+  <si>
+    <t>alteracion de una señal debido al intercambio no deseado de bits producto de una interferencia</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>Alcance</t>
+  </si>
+  <si>
+    <t>Usos</t>
+  </si>
+  <si>
+    <t>Nucleo</t>
+  </si>
+  <si>
+    <t>economico</t>
+  </si>
+  <si>
+    <t>electronico</t>
+  </si>
+  <si>
+    <t>rendimiento</t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t>TIPOS DE CONECTORES</t>
+  </si>
+  <si>
+    <t>SC (Suscriptor Connector)</t>
+  </si>
+  <si>
+    <t>LC (Lucent Connector)</t>
+  </si>
+  <si>
+    <t>FC (Ferrule Connector)</t>
+  </si>
+  <si>
+    <t>ST (Straight Connector)</t>
+  </si>
+  <si>
+    <t>TERMINACIONES</t>
+  </si>
+  <si>
+    <t>PC  (Physical Contact)</t>
+  </si>
+  <si>
+    <t>UPC (Ultra Physical Contact)</t>
+  </si>
+  <si>
+    <t>APC (Angled Physical Contact)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caracteristica </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,18 +540,66 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -151,48 +609,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -200,58 +694,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="Millares 2" xfId="2" xr:uid="{DB09EFA3-B074-44EB-A1DF-CC03BBF45C66}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFF9900"/>
-      <color rgb="FFFF6600"/>
-      <color rgb="FFFF3300"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -261,6 +1008,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7C18E3B8-449D-4B28-A761-D1E8060686DE}" name="Tabla15" displayName="Tabla15" ref="A2:C15" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="A2:C15" xr:uid="{7C18E3B8-449D-4B28-A761-D1E8060686DE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{67BF2936-920E-4B1D-A8E5-6768780384C4}" name="unidad" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7011A7A5-DA44-475D-AF7B-843EF68D4E7C}" name="sigla" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{B8E9F466-7BBB-4D6D-BC25-57BDA3CF2A61}" name="decimal" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D31AA4B4-CC65-493C-8A5A-84FCDFEC21E5}" name="Tabla26" displayName="Tabla26" ref="E2:G7" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="E2:G7" xr:uid="{D31AA4B4-CC65-493C-8A5A-84FCDFEC21E5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8BD4EE2A-1F28-4C60-8C03-C7CB5FB71177}" name="unidad" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FF8F1830-7483-4B00-BD16-253C514B2DCE}" name="sigla" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{34178275-F57B-4497-9459-5BD414118E84}" name="decimal" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7CA7B198-DBC8-4058-AF3A-90E94E04D438}" name="Tabla37" displayName="Tabla37" ref="E10:G15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="E10:G15" xr:uid="{7CA7B198-DBC8-4058-AF3A-90E94E04D438}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{21560A1F-A046-4B7B-813A-48BB83D9FAF8}" name="unidad" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DB9DB6B4-C6A7-406E-9227-A41314FAB7E3}" name="sigla" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D7964F9F-8381-4798-AEA6-4FBC04622E6D}" name="decimal" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FBBB1C41-7D85-4AF2-BC43-56D9FDA26622}" name="Tabla7" displayName="Tabla7" ref="E3:G9" totalsRowShown="0">
+  <autoFilter ref="E3:G9" xr:uid="{FBBB1C41-7D85-4AF2-BC43-56D9FDA26622}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3EE4B95A-2F6E-4453-A773-BCD5DF5F3D46}" name="caracteristica "/>
+    <tableColumn id="2" xr3:uid="{FAFDA1B8-87D9-4577-9AA6-9A826B4CCC06}" name="Multimodo"/>
+    <tableColumn id="3" xr3:uid="{36CAD5B6-1C44-4720-925E-12085088D199}" name="Monomodo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,118 +1354,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA01AF63-E01D-4601-8371-12529FBB26E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="A2:D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -679,7 +1474,646 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E9:G9"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25505"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56686472-65CE-4D6B-85D0-1BE0CEE785D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE482011-CD1E-4739-8CA3-C0C7031FB728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="163">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -304,24 +304,12 @@
     <t>RFI</t>
   </si>
   <si>
-    <t>Amplitud Modulada</t>
-  </si>
-  <si>
-    <t>Frecuencia Modulada</t>
-  </si>
-  <si>
-    <t>Fase Modulada</t>
-  </si>
-  <si>
     <t>TIA-568B</t>
   </si>
   <si>
     <t>TIA-568A</t>
   </si>
   <si>
-    <t>TELECOMUNICATIONS INTERNATIONAL ASSOCIATION</t>
-  </si>
-  <si>
     <t>verde</t>
   </si>
   <si>
@@ -424,21 +412,9 @@
     <t>Colision</t>
   </si>
   <si>
-    <t>cruce de señales no intensionado dentro del mismo medio que producen interferencia</t>
-  </si>
-  <si>
-    <t>interferencia electromagnetica causada por la cercania de cables o luces fluorescentes</t>
-  </si>
-  <si>
-    <t>interferencia por radiofrecuencia causada por la superposicion de señales inalambricas</t>
-  </si>
-  <si>
     <t>CrossTalk</t>
   </si>
   <si>
-    <t>alteracion de una señal debido al intercambio no deseado de bits producto de una interferencia</t>
-  </si>
-  <si>
     <t>Luz</t>
   </si>
   <si>
@@ -457,18 +433,6 @@
     <t>Nucleo</t>
   </si>
   <si>
-    <t>economico</t>
-  </si>
-  <si>
-    <t>electronico</t>
-  </si>
-  <si>
-    <t>rendimiento</t>
-  </si>
-  <si>
-    <t>costo</t>
-  </si>
-  <si>
     <t>TIPOS DE CONECTORES</t>
   </si>
   <si>
@@ -496,7 +460,67 @@
     <t>APC (Angled Physical Contact)</t>
   </si>
   <si>
-    <t xml:space="preserve">caracteristica </t>
+    <t>Función</t>
+  </si>
+  <si>
+    <t>100Gbps</t>
+  </si>
+  <si>
+    <t>10Gbps</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributo </t>
+  </si>
+  <si>
+    <t>Ventaja</t>
+  </si>
+  <si>
+    <t>Contra</t>
+  </si>
+  <si>
+    <t>economica</t>
+  </si>
+  <si>
+    <t>electronica</t>
+  </si>
+  <si>
+    <t>Problema</t>
+  </si>
+  <si>
+    <t>Definicion</t>
+  </si>
+  <si>
+    <t>Cruce de señales no intensionado dentro del mismo medio que producen interferencia</t>
+  </si>
+  <si>
+    <t>Interferencia electromagnetica causada por la cercania de cables o luces fluorescentes</t>
+  </si>
+  <si>
+    <t>Interferencia por radiofrecuencia causada por la superposicion de señales inalambricas</t>
+  </si>
+  <si>
+    <t>alteracion de una señal debido al Intercambio no deseado de bits producto de una interferencia</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Onda modificada por una señal de entrada</t>
+  </si>
+  <si>
+    <t>Frecuencia Modulada (cantidad de ciclos/s)</t>
+  </si>
+  <si>
+    <t>Amplitud Modulada (longitud de la onda)</t>
+  </si>
+  <si>
+    <t>Fase Modulada (carrier + moduladora)</t>
+  </si>
+  <si>
+    <t>TELECOMUNICATIONS INTERNATIONAL ASSOCIATION / AMERICAN NATIONAL STANDARD INSTITUTE</t>
   </si>
 </sst>
 </file>
@@ -504,7 +528,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -686,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -726,56 +750,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color theme="0"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -789,13 +769,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -837,84 +915,108 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -934,13 +1036,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -948,6 +1043,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1035,7 +1137,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7CA7B198-DBC8-4058-AF3A-90E94E04D438}" name="Tabla37" displayName="Tabla37" ref="E10:G15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7CA7B198-DBC8-4058-AF3A-90E94E04D438}" name="Tabla37" displayName="Tabla37" ref="E10:G15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="E10:G15" xr:uid="{7CA7B198-DBC8-4058-AF3A-90E94E04D438}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{21560A1F-A046-4B7B-813A-48BB83D9FAF8}" name="unidad" dataDxfId="2"/>
@@ -1047,14 +1149,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FBBB1C41-7D85-4AF2-BC43-56D9FDA26622}" name="Tabla7" displayName="Tabla7" ref="E3:G9" totalsRowShown="0">
-  <autoFilter ref="E3:G9" xr:uid="{FBBB1C41-7D85-4AF2-BC43-56D9FDA26622}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FBBB1C41-7D85-4AF2-BC43-56D9FDA26622}" name="Tabla7" displayName="Tabla7" ref="E3:G10" totalsRowShown="0">
+  <autoFilter ref="E3:G10" xr:uid="{FBBB1C41-7D85-4AF2-BC43-56D9FDA26622}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3EE4B95A-2F6E-4453-A773-BCD5DF5F3D46}" name="caracteristica "/>
+    <tableColumn id="1" xr3:uid="{3EE4B95A-2F6E-4453-A773-BCD5DF5F3D46}" name="Atributo "/>
     <tableColumn id="2" xr3:uid="{FAFDA1B8-87D9-4577-9AA6-9A826B4CCC06}" name="Multimodo"/>
     <tableColumn id="3" xr3:uid="{36CAD5B6-1C44-4720-925E-12085088D199}" name="Monomodo"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1358,7 +1460,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,13 +1489,13 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1401,17 +1503,17 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1451,7 +1553,7 @@
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1465,7 +1567,7 @@
       <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1484,7 +1586,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G15"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,23 +1594,23 @@
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="E1" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1518,7 +1620,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1527,7 +1629,7 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1538,7 +1640,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="14" t="s">
@@ -1652,11 +1754,11 @@
       <c r="C9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="E9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -1675,7 +1777,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1769,10 +1871,10 @@
         <v>63</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>56</v>
@@ -1797,319 +1899,361 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="45" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="E12" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="29" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
+  <mergeCells count="11">
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-mj10\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE482011-CD1E-4739-8CA3-C0C7031FB728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B79068F-F4A5-49AF-9AC1-72353756A69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
     <sheet name="Unidades" sheetId="2" r:id="rId2"/>
     <sheet name="Fisica" sheetId="3" r:id="rId3"/>
+    <sheet name="Sistemas" sheetId="4" r:id="rId4"/>
+    <sheet name="IPv4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="271">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -521,16 +523,537 @@
   </si>
   <si>
     <t>TELECOMUNICATIONS INTERNATIONAL ASSOCIATION / AMERICAN NATIONAL STANDARD INSTITUTE</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>0x0</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>0x2</t>
+  </si>
+  <si>
+    <t>0x3</t>
+  </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>0x5</t>
+  </si>
+  <si>
+    <t>0x6</t>
+  </si>
+  <si>
+    <t>0x7</t>
+  </si>
+  <si>
+    <t>0x8</t>
+  </si>
+  <si>
+    <t>0x9</t>
+  </si>
+  <si>
+    <t>0xA</t>
+  </si>
+  <si>
+    <t>0xB</t>
+  </si>
+  <si>
+    <t>0xC</t>
+  </si>
+  <si>
+    <t>0xD</t>
+  </si>
+  <si>
+    <t>0xE</t>
+  </si>
+  <si>
+    <t>0xF</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>0x63</t>
+  </si>
+  <si>
+    <t>0x64</t>
+  </si>
+  <si>
+    <t>0xFA</t>
+  </si>
+  <si>
+    <t>0xFF</t>
+  </si>
+  <si>
+    <t>10^0</t>
+  </si>
+  <si>
+    <t>10^1</t>
+  </si>
+  <si>
+    <t>10^2</t>
+  </si>
+  <si>
+    <t>BINARIO</t>
+  </si>
+  <si>
+    <t>2^0</t>
+  </si>
+  <si>
+    <t>2^1</t>
+  </si>
+  <si>
+    <t>2^7</t>
+  </si>
+  <si>
+    <t>2^6</t>
+  </si>
+  <si>
+    <t>2^5</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>2^3</t>
+  </si>
+  <si>
+    <t>2^2</t>
+  </si>
+  <si>
+    <t>16^0</t>
+  </si>
+  <si>
+    <t>16^1</t>
+  </si>
+  <si>
+    <t>16^2</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>6E</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>0x1000000</t>
+  </si>
+  <si>
+    <t>0x0ffffff</t>
+  </si>
+  <si>
+    <t>Ipv4</t>
+  </si>
+  <si>
+    <t>32 bits</t>
+  </si>
+  <si>
+    <t>clase</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>privado</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>Publico</t>
+  </si>
+  <si>
+    <t>ini</t>
+  </si>
+  <si>
+    <t>binario</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>128.0.0.0</t>
+  </si>
+  <si>
+    <t>192.0.0.0</t>
+  </si>
+  <si>
+    <t>224.0.0.0</t>
+  </si>
+  <si>
+    <t>240.0.0.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <t>10.0.0.0</t>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>172.31.255.255</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>Multicast</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>subnets</t>
+  </si>
+  <si>
+    <t>hosts</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>/8</t>
+  </si>
+  <si>
+    <t>/16</t>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>00001010</t>
+  </si>
+  <si>
+    <t>10101100.
+00010000</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+00000000</t>
+  </si>
+  <si>
+    <t>10101100.
+00011111</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+11111111</t>
+  </si>
+  <si>
+    <t>Subredes</t>
+  </si>
+  <si>
+    <t>sunet mask</t>
+  </si>
+  <si>
+    <t>network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,8 +1093,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,8 +1245,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -867,13 +1427,276 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -931,6 +1754,201 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="22" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="22" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -941,86 +1959,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="Millares" xfId="3" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="2" xr:uid="{DB09EFA3-B074-44EB-A1DF-CC03BBF45C66}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1489,13 +2472,13 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="94" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1503,17 +2486,17 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="4" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1553,7 +2536,7 @@
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="95" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1567,7 +2550,7 @@
       <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1601,16 +2584,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="E1" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1754,11 +2737,11 @@
       <c r="C9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -1899,9 +2882,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1915,42 +2898,42 @@
     <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="41" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -1965,15 +2948,15 @@
       <c r="G3" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="42" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -1988,15 +2971,15 @@
       <c r="G4" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="28" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="43" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -2011,15 +2994,15 @@
       <c r="G5" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="21" t="s">
         <v>95</v>
       </c>
@@ -2032,15 +3015,15 @@
       <c r="G6" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="30" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="16" t="s">
         <v>96</v>
       </c>
@@ -2053,15 +3036,15 @@
       <c r="G7" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="42" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -2080,11 +3063,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="15" t="s">
         <v>98</v>
       </c>
@@ -2101,11 +3084,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="19" t="s">
         <v>99</v>
       </c>
@@ -2122,95 +3105,94 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="E12" s="44" t="s">
+      <c r="C12" s="31"/>
+      <c r="E12" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="102" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -2243,8 +3225,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:H14"/>
@@ -2254,10 +3234,1684 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4936916B-2C2F-4639-BAF5-EC74858E805F}">
+  <dimension ref="A1:AH32"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="26" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.7109375" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45">
+        <v>1</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="10">
+        <v>128</v>
+      </c>
+      <c r="G3" s="10">
+        <v>64</v>
+      </c>
+      <c r="H3" s="10">
+        <v>32</v>
+      </c>
+      <c r="I3" s="50">
+        <v>16</v>
+      </c>
+      <c r="J3" s="10">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10">
+        <v>4</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <f>16^2</f>
+        <v>256</v>
+      </c>
+      <c r="AB3">
+        <f>16^1</f>
+        <v>16</v>
+      </c>
+      <c r="AC3">
+        <f>16^0</f>
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1000</v>
+      </c>
+      <c r="AF3">
+        <v>100</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="50">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>128</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="45">
+        <v>11</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>64</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="50">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="51">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>40</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>101</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="50">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>255</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>110</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="50">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="R8" s="47">
+        <v>172</v>
+      </c>
+      <c r="S8" s="48">
+        <v>2</v>
+      </c>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="AA8" s="10">
+        <v>172</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="45">
+        <v>111</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="50">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>192</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="R9" s="49">
+        <v>0</v>
+      </c>
+      <c r="S9" s="47">
+        <v>86</v>
+      </c>
+      <c r="T9" s="48">
+        <v>2</v>
+      </c>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="AA9" s="10">
+        <v>12</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="50">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>168</v>
+      </c>
+      <c r="O10" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="R10" s="47"/>
+      <c r="S10" s="49">
+        <v>0</v>
+      </c>
+      <c r="T10" s="47">
+        <v>43</v>
+      </c>
+      <c r="U10" s="48">
+        <v>2</v>
+      </c>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="AA10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB10" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1001</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="48">
+        <v>1</v>
+      </c>
+      <c r="G11" s="48">
+        <v>0</v>
+      </c>
+      <c r="H11" s="48">
+        <v>1</v>
+      </c>
+      <c r="I11" s="52">
+        <v>0</v>
+      </c>
+      <c r="J11" s="48">
+        <v>1</v>
+      </c>
+      <c r="K11" s="48">
+        <v>1</v>
+      </c>
+      <c r="L11" s="48">
+        <v>0</v>
+      </c>
+      <c r="M11" s="48">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
+        <v>172</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="49">
+        <v>1</v>
+      </c>
+      <c r="U11" s="47">
+        <v>21</v>
+      </c>
+      <c r="V11" s="48">
+        <v>2</v>
+      </c>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="50">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>16</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="26">
+        <v>10</v>
+      </c>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="49">
+        <v>1</v>
+      </c>
+      <c r="V12" s="47">
+        <v>10</v>
+      </c>
+      <c r="W12" s="48">
+        <v>2</v>
+      </c>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="50">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>224</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="49">
+        <v>0</v>
+      </c>
+      <c r="W13" s="47">
+        <v>5</v>
+      </c>
+      <c r="X13" s="48">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="48"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1100</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="50">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>240</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="49">
+        <v>1</v>
+      </c>
+      <c r="X14" s="47">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1101</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="50">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>109</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1110</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="50">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>110</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1111</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="50">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
+        <v>127</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="50">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>131</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" s="26">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>1100011</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="I19" s="50">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>247</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>1100100</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="50">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>133</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" s="26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>109</v>
+      </c>
+      <c r="B21">
+        <v>1101101</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="50">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
+        <v>200</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>110</v>
+      </c>
+      <c r="B22">
+        <v>1101110</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="50">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10">
+        <v>1</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>150</v>
+      </c>
+      <c r="O22" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P22" s="26">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>250</v>
+      </c>
+      <c r="B23">
+        <v>11111010</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>255</v>
+      </c>
+      <c r="B24">
+        <v>11111111</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104">
+        <v>7</v>
+      </c>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F25" s="53">
+        <v>1</v>
+      </c>
+      <c r="G25" s="54">
+        <v>0</v>
+      </c>
+      <c r="H25" s="54">
+        <v>1</v>
+      </c>
+      <c r="I25" s="55">
+        <v>1</v>
+      </c>
+      <c r="J25" s="53">
+        <v>1</v>
+      </c>
+      <c r="K25" s="54">
+        <v>0</v>
+      </c>
+      <c r="L25" s="54">
+        <v>1</v>
+      </c>
+      <c r="M25" s="55">
+        <v>1</v>
+      </c>
+      <c r="N25" s="53">
+        <v>0</v>
+      </c>
+      <c r="O25" s="54">
+        <v>1</v>
+      </c>
+      <c r="P25" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F26" s="59">
+        <v>2048</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
+        <v>512</v>
+      </c>
+      <c r="I26" s="50">
+        <v>256</v>
+      </c>
+      <c r="J26" s="59">
+        <v>128</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10">
+        <v>32</v>
+      </c>
+      <c r="M26" s="50">
+        <v>16</v>
+      </c>
+      <c r="N26" s="59"/>
+      <c r="O26" s="10">
+        <v>4</v>
+      </c>
+      <c r="P26" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="50">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <f>SUM(F26:Q26)</f>
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F27" s="57">
+        <v>8</v>
+      </c>
+      <c r="G27" s="56">
+        <v>4</v>
+      </c>
+      <c r="H27" s="56">
+        <v>2</v>
+      </c>
+      <c r="I27" s="58">
+        <v>1</v>
+      </c>
+      <c r="J27" s="57">
+        <v>8</v>
+      </c>
+      <c r="K27" s="56">
+        <v>4</v>
+      </c>
+      <c r="L27" s="56">
+        <v>2</v>
+      </c>
+      <c r="M27" s="58">
+        <v>1</v>
+      </c>
+      <c r="N27" s="57">
+        <v>8</v>
+      </c>
+      <c r="O27" s="56">
+        <v>4</v>
+      </c>
+      <c r="P27" s="56">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F30" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10">
+        <f>16^3</f>
+        <v>4096</v>
+      </c>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>168</v>
+      </c>
+      <c r="M32" t="s">
+        <v>168</v>
+      </c>
+      <c r="N32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="N24:Q24"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF0F4A8-E75B-4488-84C4-D72FBE534267}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="60"/>
+    <col min="4" max="4" width="15.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="60"/>
+    <col min="7" max="7" width="10.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="60"/>
+    <col min="10" max="10" width="13.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="60" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61"/>
+      <c r="B1" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="110"/>
+      <c r="F2" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="110"/>
+      <c r="J2" s="108" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="110"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="M3" s="79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="68">
+        <v>127255255255</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="68">
+        <v>10255255255</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4" s="66">
+        <v>1</v>
+      </c>
+      <c r="M4" s="91">
+        <f>2^24-2</f>
+        <v>16777214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="72">
+        <v>191255255255</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="I5" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="L5" s="70">
+        <v>16</v>
+      </c>
+      <c r="M5" s="92">
+        <f>2^16-2</f>
+        <v>65534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="77">
+        <v>223255255255</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="77">
+        <v>192168255255</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="K6" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="L6" s="75">
+        <v>256</v>
+      </c>
+      <c r="M6" s="93">
+        <f>2^8-2</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="72">
+        <v>239255255255</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="89"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="85">
+        <v>255255255255</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="90"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="60">
+        <f>2^32</f>
+        <v>4294967296</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B79068F-F4A5-49AF-9AC1-72353756A69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621E3D57-7806-4D21-8213-2DC5A519A442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="306">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -1043,6 +1043,111 @@
   </si>
   <si>
     <t>network</t>
+  </si>
+  <si>
+    <t>Rangos</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>uso</t>
+  </si>
+  <si>
+    <t>127.0.0.0</t>
+  </si>
+  <si>
+    <t>LoopBack</t>
+  </si>
+  <si>
+    <t>A.P.I.P.A</t>
+  </si>
+  <si>
+    <t>169.254.0.0</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>byte 1</t>
+  </si>
+  <si>
+    <t>byte 2</t>
+  </si>
+  <si>
+    <t>byte 3</t>
+  </si>
+  <si>
+    <t>byte 4</t>
+  </si>
+  <si>
+    <t>10.254.83.21</t>
+  </si>
+  <si>
+    <t>11111110</t>
+  </si>
+  <si>
+    <t>01010011</t>
+  </si>
+  <si>
+    <t>00010101</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>172.16.54.33</t>
+  </si>
+  <si>
+    <t>10101100</t>
+  </si>
+  <si>
+    <t>00010000</t>
+  </si>
+  <si>
+    <t>00111100</t>
+  </si>
+  <si>
+    <t>00100001</t>
+  </si>
+  <si>
+    <t>172.16.255.255</t>
+  </si>
+  <si>
+    <t>192.168.71.86</t>
+  </si>
+  <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <t>10101000</t>
+  </si>
+  <si>
+    <t>01000111</t>
+  </si>
+  <si>
+    <t>01010110</t>
+  </si>
+  <si>
+    <t>192.168.71.0</t>
+  </si>
+  <si>
+    <t>192.168.71.255</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1801,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1934,12 +2039,6 @@
     <xf numFmtId="49" fontId="0" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="22" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1998,6 +2097,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2472,13 +2598,13 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="92" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2486,17 +2612,17 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
     </row>
     <row r="5" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2536,7 +2662,7 @@
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="93" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2550,7 +2676,7 @@
       <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="95"/>
+      <c r="D8" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2584,16 +2710,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="E1" s="96" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="E1" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2737,11 +2863,11 @@
       <c r="C9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -2899,16 +3025,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -2920,11 +3046,11 @@
       <c r="C2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
       <c r="H2" s="31" t="s">
         <v>133</v>
       </c>
@@ -3116,83 +3242,83 @@
       <c r="E12" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="1"/>
       <c r="E13" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="97" t="s">
+      <c r="F13" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="100"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="1"/>
       <c r="E14" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="101"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="1"/>
       <c r="E15" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="F15" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="1"/>
       <c r="E16" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -4404,24 +4530,24 @@
       <c r="C24" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="104" t="s">
+      <c r="F24" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104" t="s">
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104">
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102">
         <v>7</v>
       </c>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F25" s="53">
@@ -4595,19 +4721,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF0F4A8-E75B-4488-84C4-D72FBE534267}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="60"/>
-    <col min="4" max="4" width="15.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="60"/>
+    <col min="2" max="2" width="11.42578125" style="60"/>
+    <col min="3" max="3" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="60" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="60" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="60" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="60"/>
@@ -4617,57 +4744,60 @@
     <col min="14" max="16384" width="11.42578125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="105" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="105" t="s">
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="108" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109" t="s">
+      <c r="G2" s="107"/>
+      <c r="H2" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="108" t="s">
+      <c r="I2" s="108"/>
+      <c r="J2" s="106" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109" t="s">
+      <c r="K2" s="107"/>
+      <c r="L2" s="107" t="s">
         <v>270</v>
       </c>
-      <c r="M2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="108"/>
+      <c r="N2" s="60" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
         <v>222</v>
       </c>
@@ -4707,8 +4837,14 @@
       <c r="M3" s="79" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
         <v>223</v>
       </c>
@@ -4745,12 +4881,18 @@
       <c r="L4" s="66">
         <v>1</v>
       </c>
-      <c r="M4" s="91">
+      <c r="M4" s="89">
         <f>2^24-2</f>
         <v>16777214</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N4" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>28</v>
       </c>
@@ -4787,12 +4929,18 @@
       <c r="L5" s="70">
         <v>16</v>
       </c>
-      <c r="M5" s="92">
+      <c r="M5" s="90">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N5" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>226</v>
       </c>
@@ -4829,12 +4977,12 @@
       <c r="L6" s="75">
         <v>256</v>
       </c>
-      <c r="M6" s="93">
+      <c r="M6" s="91">
         <f>2^8-2</f>
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>224</v>
       </c>
@@ -4850,18 +4998,24 @@
       <c r="E7" s="81" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="110" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="89"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="O7" s="60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>225</v>
       </c>
@@ -4877,34 +5031,339 @@
       <c r="E8" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="113" t="s">
         <v>253</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="90"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="115"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>227</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="109">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="117" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="116">
+        <v>10255255255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="117" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="117" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="117" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="E19" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="117" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="117" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" s="117" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="117" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" s="116" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="117" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" s="116" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="F8:M8"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B2:C2"/>

--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25522"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621E3D57-7806-4D21-8213-2DC5A519A442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7940335-FDA7-44B9-A54C-B2EAE3FC8B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Fisica" sheetId="3" r:id="rId3"/>
     <sheet name="Sistemas" sheetId="4" r:id="rId4"/>
     <sheet name="IPv4" sheetId="5" r:id="rId5"/>
+    <sheet name="IPv6" sheetId="6" r:id="rId6"/>
+    <sheet name="Subnetting" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="416">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -1149,6 +1151,497 @@
   <si>
     <t>192.168.71.255</t>
   </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>ACAD</t>
+  </si>
+  <si>
+    <t>0DB6</t>
+  </si>
+  <si>
+    <t>Global Address</t>
+  </si>
+  <si>
+    <t>Inteface ID</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>/64</t>
+  </si>
+  <si>
+    <t>Sn ID</t>
+  </si>
+  <si>
+    <t>ceros izq.</t>
+  </si>
+  <si>
+    <t>DB6</t>
+  </si>
+  <si>
+    <t>conjunto</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>2001:DB6:ACAD:1::1/64</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Link-local</t>
+  </si>
+  <si>
+    <t>ULA</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3FFF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0000.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.1111.1111.1111</t>
+    </r>
+  </si>
+  <si>
+    <t>Direcciones publicas</t>
+  </si>
+  <si>
+    <t>FE80</t>
+  </si>
+  <si>
+    <t>FC00</t>
+  </si>
+  <si>
+    <t>FF00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111.110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111.1110.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00.0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111.1111.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>APIPA</t>
+  </si>
+  <si>
+    <t>Direccion Privadas</t>
+  </si>
+  <si>
+    <t>1111.1110.1011.1111</t>
+  </si>
+  <si>
+    <t>1111.1101.1111.1111</t>
+  </si>
+  <si>
+    <t>1111.1111.1111.1111</t>
+  </si>
+  <si>
+    <t>FEBF</t>
+  </si>
+  <si>
+    <t>FDFF</t>
+  </si>
+  <si>
+    <t>FFFF</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>EUI-64</t>
+  </si>
+  <si>
+    <t>16 BITS</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>7 BIT</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <r>
+      <t>FE80::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15:5D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FF:FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F8:E575</t>
+    </r>
+  </si>
+  <si>
+    <t>Extended Unique Identifier</t>
+  </si>
+  <si>
+    <t>E575</t>
+  </si>
+  <si>
+    <t>5DF8</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Primer Direccion</t>
+  </si>
+  <si>
+    <t>Ultima Direccion</t>
+  </si>
+  <si>
+    <t>Equivalencia IPv4</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hex </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hex </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <t>Subnetting</t>
+  </si>
+  <si>
+    <t>Practica que consiste en modificar el tamaño de la mascara con clase con el objetivo que obtener mas subredes</t>
+  </si>
+  <si>
+    <t>2^n&gt;= subredes</t>
+  </si>
+  <si>
+    <t>red base</t>
+  </si>
+  <si>
+    <t>solicitado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posibles </t>
+  </si>
+  <si>
+    <t>mask + n</t>
+  </si>
+  <si>
+    <t>redes</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>/11</t>
+  </si>
+  <si>
+    <t>mascara</t>
+  </si>
+  <si>
+    <t>Mascara</t>
+  </si>
+  <si>
+    <t>255.224.0.0</t>
+  </si>
+  <si>
+    <t>256 / subredes</t>
+  </si>
+  <si>
+    <t>Salto</t>
+  </si>
+  <si>
+    <t>10.32.0.0</t>
+  </si>
+  <si>
+    <t>10.64.0.0</t>
+  </si>
+  <si>
+    <t>10.96.0.0</t>
+  </si>
+  <si>
+    <t>10.128.0.0</t>
+  </si>
+  <si>
+    <t>10.160.0.0</t>
+  </si>
+  <si>
+    <t>10.192.0.0</t>
+  </si>
+  <si>
+    <t>10.224.0.0</t>
+  </si>
+  <si>
+    <t>calculo</t>
+  </si>
+  <si>
+    <t>next hop</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>primer ip</t>
+  </si>
+  <si>
+    <t>ultima ip</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>10.31.255.255</t>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>10.32.0.1</t>
+  </si>
+  <si>
+    <t>10.64.0.1</t>
+  </si>
+  <si>
+    <t>10.96.0.1</t>
+  </si>
+  <si>
+    <t>10.128.0.1</t>
+  </si>
+  <si>
+    <t>10.160.0.1</t>
+  </si>
+  <si>
+    <t>10.192.0.1</t>
+  </si>
+  <si>
+    <t>10.224.0.1</t>
+  </si>
+  <si>
+    <t>10.31.255.254</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>impar</t>
+  </si>
+  <si>
+    <t>10.64.255.255</t>
+  </si>
+  <si>
+    <t>10.63.255.254</t>
+  </si>
+  <si>
+    <t>10.95.255.254</t>
+  </si>
+  <si>
+    <t>10.127.255.254</t>
+  </si>
+  <si>
+    <t>10.159.255.254</t>
+  </si>
+  <si>
+    <t>10.191.255.254</t>
+  </si>
+  <si>
+    <t>10.223.255.254</t>
+  </si>
+  <si>
+    <t>10.255.255.254</t>
+  </si>
 </sst>
 </file>
 
@@ -1158,7 +1651,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,6 +1703,34 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="28">
@@ -1375,7 +1896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1794,6 +2315,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1801,7 +2629,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2048,6 +2876,113 @@
     <xf numFmtId="164" fontId="0" fillId="22" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2057,6 +2992,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2075,9 +3013,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2100,7 +3035,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2120,12 +3055,72 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -2133,7 +3128,91 @@
     <cellStyle name="Millares 2" xfId="2" xr:uid="{DB09EFA3-B074-44EB-A1DF-CC03BBF45C66}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="39">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2222,36 +3301,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7C18E3B8-449D-4B28-A761-D1E8060686DE}" name="Tabla15" displayName="Tabla15" ref="A2:C15" totalsRowShown="0" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7C18E3B8-449D-4B28-A761-D1E8060686DE}" name="Tabla15" displayName="Tabla15" ref="A2:C15" totalsRowShown="0" dataDxfId="38">
   <autoFilter ref="A2:C15" xr:uid="{7C18E3B8-449D-4B28-A761-D1E8060686DE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{67BF2936-920E-4B1D-A8E5-6768780384C4}" name="unidad" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7011A7A5-DA44-475D-AF7B-843EF68D4E7C}" name="sigla" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{B8E9F466-7BBB-4D6D-BC25-57BDA3CF2A61}" name="decimal" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{67BF2936-920E-4B1D-A8E5-6768780384C4}" name="unidad" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{7011A7A5-DA44-475D-AF7B-843EF68D4E7C}" name="sigla" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{B8E9F466-7BBB-4D6D-BC25-57BDA3CF2A61}" name="decimal" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D31AA4B4-CC65-493C-8A5A-84FCDFEC21E5}" name="Tabla26" displayName="Tabla26" ref="E2:G7" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D31AA4B4-CC65-493C-8A5A-84FCDFEC21E5}" name="Tabla26" displayName="Tabla26" ref="E2:G7" totalsRowShown="0" dataDxfId="34">
   <autoFilter ref="E2:G7" xr:uid="{D31AA4B4-CC65-493C-8A5A-84FCDFEC21E5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8BD4EE2A-1F28-4C60-8C03-C7CB5FB71177}" name="unidad" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{FF8F1830-7483-4B00-BD16-253C514B2DCE}" name="sigla" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{34178275-F57B-4497-9459-5BD414118E84}" name="decimal" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{8BD4EE2A-1F28-4C60-8C03-C7CB5FB71177}" name="unidad" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{FF8F1830-7483-4B00-BD16-253C514B2DCE}" name="sigla" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{34178275-F57B-4497-9459-5BD414118E84}" name="decimal" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7CA7B198-DBC8-4058-AF3A-90E94E04D438}" name="Tabla37" displayName="Tabla37" ref="E10:G15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7CA7B198-DBC8-4058-AF3A-90E94E04D438}" name="Tabla37" displayName="Tabla37" ref="E10:G15" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="E10:G15" xr:uid="{7CA7B198-DBC8-4058-AF3A-90E94E04D438}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{21560A1F-A046-4B7B-813A-48BB83D9FAF8}" name="unidad" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{DB9DB6B4-C6A7-406E-9227-A41314FAB7E3}" name="sigla" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{D7964F9F-8381-4798-AEA6-4FBC04622E6D}" name="decimal" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{21560A1F-A046-4B7B-813A-48BB83D9FAF8}" name="unidad" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{DB9DB6B4-C6A7-406E-9227-A41314FAB7E3}" name="sigla" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{D7964F9F-8381-4798-AEA6-4FBC04622E6D}" name="decimal" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2264,6 +3343,51 @@
     <tableColumn id="1" xr3:uid="{3EE4B95A-2F6E-4453-A773-BCD5DF5F3D46}" name="Atributo "/>
     <tableColumn id="2" xr3:uid="{FAFDA1B8-87D9-4577-9AA6-9A826B4CCC06}" name="Multimodo"/>
     <tableColumn id="3" xr3:uid="{36CAD5B6-1C44-4720-925E-12085088D199}" name="Monomodo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B226BD3-B8B2-449D-B51D-FC7FADE068FA}" name="Tabla2" displayName="Tabla2" ref="A11:F15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A11:F15" xr:uid="{3B226BD3-B8B2-449D-B51D-FC7FADE068FA}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{88F67391-C377-4C52-A104-4B7CB2E5DB92}" name="AND" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{15147DC1-D9B3-4FA9-AD45-506CBC35D4BE}" name="byte 1" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{E13C3DE2-6864-488E-84DF-704D55478797}" name="byte 2" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{2778D0EC-C5D2-42D5-990A-E12A7AB4AC96}" name="byte 3" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{4FA3C4B6-C67D-4E4D-9DA6-27836396F12B}" name="byte 4" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{B73CFC82-7B7C-478C-A599-3147AFB5D8E3}" name="decimal" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA4CFED-EFD6-447F-9CC7-7FDC44437FD6}" name="Tabla3" displayName="Tabla3" ref="A17:F21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A17:F21" xr:uid="{5EA4CFED-EFD6-447F-9CC7-7FDC44437FD6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BC0F6C94-EECE-4A1D-B06A-740F4A4602BD}" name="AND" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B8E17965-B180-42C5-A10D-E580FE3DEC49}" name="byte 1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{1C842697-7807-4C54-9E98-1B7FB0DD8A98}" name="byte 2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{A208D00B-A75F-4423-8B61-7B4C6BF60090}" name="byte 3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{3412D076-A1FB-462B-94B9-DF011CF42161}" name="byte 4" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F03CD011-DDFC-4CC0-A90F-E0A9994C7CDC}" name="decimal" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D0E7C06E-3C4E-4A6F-B516-26246E3D6C2E}" name="Tabla8" displayName="Tabla8" ref="A23:F27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A23:F27" xr:uid="{D0E7C06E-3C4E-4A6F-B516-26246E3D6C2E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FE95F7C1-B7B7-4F38-AE1A-8853F88491D2}" name="AND" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7561B89B-5C74-47F4-93A1-3BD583CBA682}" name="byte 1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{8D7266CF-57AF-4ECF-813C-8222B5C247B6}" name="byte 2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D74A6685-7A22-457A-A6E4-5B00210A0D7E}" name="byte 3" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4B93E748-E6F9-494C-B7B6-5E4A02147929}" name="byte 4" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{EDC1C79C-F352-4A24-BACD-F1904D0536B7}" name="decimal" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2598,13 +3722,13 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="129" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2612,17 +3736,17 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
     </row>
     <row r="4" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
     </row>
     <row r="5" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2662,7 +3786,7 @@
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="130" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2676,7 +3800,7 @@
       <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="93"/>
+      <c r="D8" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2695,7 +3819,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,16 +3834,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="E1" s="94" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="E1" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2863,11 +3987,11 @@
       <c r="C9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -3025,16 +4149,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -3046,11 +4170,11 @@
       <c r="C2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
       <c r="H2" s="31" t="s">
         <v>133</v>
       </c>
@@ -3242,83 +4366,83 @@
       <c r="E12" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="100" t="s">
+      <c r="F12" s="138" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="99"/>
+      <c r="C13" s="137"/>
       <c r="D13" s="1"/>
       <c r="E13" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="98"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="1"/>
       <c r="E14" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="F14" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="99"/>
+      <c r="C15" s="137"/>
       <c r="D15" s="1"/>
       <c r="E15" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="95" t="s">
+      <c r="F15" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="136" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="98"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="1"/>
       <c r="E16" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -3375,10 +4499,10 @@
   <dimension ref="A1:AH32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4236,6 +5360,14 @@
       <c r="P16" s="26" t="s">
         <v>208</v>
       </c>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -4530,24 +5662,24 @@
       <c r="C24" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="102" t="s">
+      <c r="F24" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102" t="s">
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102">
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139">
         <v>7</v>
       </c>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="139"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F25" s="53">
@@ -4723,76 +5855,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF0F4A8-E75B-4488-84C4-D72FBE534267}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="60"/>
-    <col min="3" max="3" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="60"/>
-    <col min="10" max="10" width="13.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="60" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="60"/>
+    <col min="1" max="1" width="6.28515625" style="60" customWidth="1"/>
+    <col min="2" max="10" width="15.7109375" style="60" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="60" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61"/>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="140" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="103" t="s">
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="140" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="103" t="s">
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="140" t="s">
         <v>268</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="142"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="143" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="106" t="s">
+      <c r="E2" s="145"/>
+      <c r="F2" s="143" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107" t="s">
+      <c r="G2" s="144"/>
+      <c r="H2" s="144" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="108"/>
-      <c r="J2" s="106" t="s">
+      <c r="I2" s="145"/>
+      <c r="J2" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107" t="s">
+      <c r="K2" s="144"/>
+      <c r="L2" s="144" t="s">
         <v>270</v>
       </c>
-      <c r="M2" s="108"/>
+      <c r="M2" s="145"/>
       <c r="N2" s="60" t="s">
         <v>271</v>
       </c>
@@ -4998,16 +6124,16 @@
       <c r="E7" s="81" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="147" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="112"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="149"/>
       <c r="N7" s="60" t="s">
         <v>252</v>
       </c>
@@ -5031,16 +6157,16 @@
       <c r="E8" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="150" t="s">
         <v>253</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="115"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="152"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
@@ -5049,12 +6175,12 @@
       <c r="B9" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="146">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
@@ -5080,19 +6206,19 @@
       <c r="A12" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="E12" s="117" t="s">
+      <c r="E12" s="92" t="s">
         <v>290</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="60" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5100,19 +6226,19 @@
       <c r="A13" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="60" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5120,19 +6246,19 @@
       <c r="A14" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="117" t="s">
+      <c r="E14" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="60" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5140,19 +6266,19 @@
       <c r="A15" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="F15" s="116">
+      <c r="F15" s="126">
         <v>10255255255</v>
       </c>
     </row>
@@ -5180,19 +6306,19 @@
       <c r="A18" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="E18" s="117" t="s">
+      <c r="E18" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="60" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5200,19 +6326,19 @@
       <c r="A19" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D19" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5220,19 +6346,19 @@
       <c r="A20" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="D20" s="117" t="s">
+      <c r="D20" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="60" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5240,19 +6366,19 @@
       <c r="A21" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="117" t="s">
+      <c r="E21" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="F21" s="116" t="s">
+      <c r="F21" s="126" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5280,19 +6406,19 @@
       <c r="A24" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="E24" s="117" t="s">
+      <c r="E24" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="60" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5300,19 +6426,19 @@
       <c r="A25" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="E25" s="117" t="s">
+      <c r="E25" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="60" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5320,19 +6446,19 @@
       <c r="A26" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="E26" s="117" t="s">
+      <c r="E26" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="60" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5340,19 +6466,19 @@
       <c r="A27" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="E27" s="117" t="s">
+      <c r="E27" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="116" t="s">
+      <c r="F27" s="126" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5372,5 +6498,734 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98ABDFC-50EE-4382-9CD5-BD9B537C1A11}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="161" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="95" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="161" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="95" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" s="165" t="s">
+        <v>361</v>
+      </c>
+      <c r="M1" s="166" t="s">
+        <v>362</v>
+      </c>
+      <c r="N1" s="166" t="s">
+        <v>366</v>
+      </c>
+      <c r="O1" s="166" t="s">
+        <v>363</v>
+      </c>
+      <c r="P1" s="166" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q1" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="167" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="102">
+        <v>2001</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="I2" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" s="116" t="s">
+        <v>314</v>
+      </c>
+      <c r="L2" s="168" t="s">
+        <v>322</v>
+      </c>
+      <c r="M2" s="169" t="s">
+        <v>327</v>
+      </c>
+      <c r="N2" s="169" t="s">
+        <v>325</v>
+      </c>
+      <c r="O2" s="169" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="169" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q2" s="170">
+        <v>3</v>
+      </c>
+      <c r="R2" s="171" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="107">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="109">
+        <v>1</v>
+      </c>
+      <c r="F3" s="110">
+        <v>0</v>
+      </c>
+      <c r="G3" s="110">
+        <v>0</v>
+      </c>
+      <c r="H3" s="110">
+        <v>0</v>
+      </c>
+      <c r="I3" s="111">
+        <v>1</v>
+      </c>
+      <c r="J3" s="117" t="s">
+        <v>314</v>
+      </c>
+      <c r="L3" s="172" t="s">
+        <v>324</v>
+      </c>
+      <c r="M3" s="173" t="s">
+        <v>333</v>
+      </c>
+      <c r="N3" s="173" t="s">
+        <v>331</v>
+      </c>
+      <c r="O3" s="173" t="s">
+        <v>339</v>
+      </c>
+      <c r="P3" s="173" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q3" s="174">
+        <v>7</v>
+      </c>
+      <c r="R3" s="175" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="112">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="112" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="114">
+        <v>1</v>
+      </c>
+      <c r="F4" s="163" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="115">
+        <v>1</v>
+      </c>
+      <c r="J4" s="116" t="s">
+        <v>314</v>
+      </c>
+      <c r="L4" s="176" t="s">
+        <v>323</v>
+      </c>
+      <c r="M4" s="169" t="s">
+        <v>334</v>
+      </c>
+      <c r="N4" s="169" t="s">
+        <v>330</v>
+      </c>
+      <c r="O4" s="169" t="s">
+        <v>338</v>
+      </c>
+      <c r="P4" s="169" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q4" s="170">
+        <v>10</v>
+      </c>
+      <c r="R4" s="177" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="153" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="117" t="s">
+        <v>314</v>
+      </c>
+      <c r="L5" s="172" t="s">
+        <v>252</v>
+      </c>
+      <c r="M5" s="173" t="s">
+        <v>335</v>
+      </c>
+      <c r="N5" s="173" t="s">
+        <v>332</v>
+      </c>
+      <c r="O5" s="173" t="s">
+        <v>340</v>
+      </c>
+      <c r="P5" s="173" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q5" s="174">
+        <v>8</v>
+      </c>
+      <c r="R5" s="178" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L6" s="164" t="s">
+        <v>365</v>
+      </c>
+      <c r="M6" s="179">
+        <f>2^128</f>
+        <v>3.4028236692093846E+38</v>
+      </c>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="180"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="155" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="95" t="s">
+        <v>313</v>
+      </c>
+      <c r="O7" s="182">
+        <f>2^64</f>
+        <v>1.8446744073709552E+19</v>
+      </c>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="160">
+        <v>15</v>
+      </c>
+      <c r="C8" s="158"/>
+      <c r="D8" s="160" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="158" t="s">
+        <v>359</v>
+      </c>
+      <c r="I8" s="159"/>
+      <c r="J8" s="127" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="94" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="120" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="118" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="118" t="s">
+        <v>353</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9" s="121" t="s">
+        <v>350</v>
+      </c>
+      <c r="J9" s="117" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="96" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="125" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="124" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="123" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>350</v>
+      </c>
+      <c r="J10" s="116" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="153" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="128" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927FDF02-D6F7-411C-922D-CF4C142F6D70}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="181" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="181"/>
+      <c r="G5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+      <c r="H6" s="184">
+        <f>2^21-2</f>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="183" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="183"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="186" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="186" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="186" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="186" t="s">
+        <v>411</v>
+      </c>
+      <c r="D14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E14" t="s">
+        <v>380</v>
+      </c>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="186" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E15" t="s">
+        <v>380</v>
+      </c>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="186" t="s">
+        <v>413</v>
+      </c>
+      <c r="D16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="186" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" t="s">
+        <v>396</v>
+      </c>
+      <c r="E17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" t="s">
+        <v>404</v>
+      </c>
+      <c r="C18" s="186" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" t="s">
+        <v>408</v>
+      </c>
+      <c r="E18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25606"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84461147-7959-48B5-BFA7-44AF1409B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883B0A4-0473-4412-A1F8-582FE3F9A738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="609">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -2268,6 +2268,54 @@
   </si>
   <si>
     <t>10.0.1.63</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>10.0.1.62</t>
+  </si>
+  <si>
+    <t>10.0.1.96</t>
+  </si>
+  <si>
+    <t>10.0.1.65</t>
+  </si>
+  <si>
+    <t>10.0.1.95</t>
+  </si>
+  <si>
+    <t>10.0.1.94</t>
+  </si>
+  <si>
+    <t>10.0.1.160</t>
+  </si>
+  <si>
+    <t>10.0.1.159</t>
+  </si>
+  <si>
+    <t>10.0.1.191</t>
+  </si>
+  <si>
+    <t>10.0.1.192</t>
+  </si>
+  <si>
+    <t>10.0.1.158</t>
+  </si>
+  <si>
+    <t>10.0.1.190</t>
   </si>
 </sst>
 </file>
@@ -3256,7 +3304,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3630,6 +3678,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3702,29 +3751,11 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3744,10 +3775,28 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -4460,13 +4509,13 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="148" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4474,17 +4523,17 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
     </row>
     <row r="4" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
     </row>
     <row r="5" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -4524,7 +4573,7 @@
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="149" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4538,7 +4587,7 @@
       <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="148"/>
+      <c r="D8" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4572,16 +4621,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="E1" s="149" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="E1" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4725,11 +4774,11 @@
       <c r="C9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="150" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -4887,16 +4936,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -4908,11 +4957,11 @@
       <c r="C2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="153" t="s">
+      <c r="E2" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
       <c r="H2" s="31" t="s">
         <v>133</v>
       </c>
@@ -5104,83 +5153,83 @@
       <c r="E12" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="156" t="s">
+      <c r="F12" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="156" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="155"/>
+      <c r="C13" s="156"/>
       <c r="D13" s="1"/>
       <c r="E13" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="151" t="s">
+      <c r="F13" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="154"/>
+      <c r="C14" s="155"/>
       <c r="D14" s="1"/>
       <c r="E14" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="152" t="s">
+      <c r="F14" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="156" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="155"/>
+      <c r="C15" s="156"/>
       <c r="D15" s="1"/>
       <c r="E15" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="151" t="s">
+      <c r="F15" s="152" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="154"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="1"/>
       <c r="E16" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="152" t="s">
+      <c r="F16" s="153" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -6400,24 +6449,24 @@
       <c r="C24" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="157" t="s">
+      <c r="F24" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157" t="s">
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157">
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158">
         <v>7</v>
       </c>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157"/>
-      <c r="Q24" s="157"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="158"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F25" s="53">
@@ -6610,53 +6659,53 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61"/>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="158" t="s">
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="158" t="s">
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="159" t="s">
         <v>268</v>
       </c>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="161"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="162" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="163"/>
-      <c r="F2" s="161" t="s">
+      <c r="E2" s="164"/>
+      <c r="F2" s="162" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162" t="s">
+      <c r="G2" s="163"/>
+      <c r="H2" s="163" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="163"/>
-      <c r="J2" s="161" t="s">
+      <c r="I2" s="164"/>
+      <c r="J2" s="162" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162" t="s">
+      <c r="K2" s="163"/>
+      <c r="L2" s="163" t="s">
         <v>270</v>
       </c>
-      <c r="M2" s="163"/>
+      <c r="M2" s="164"/>
       <c r="N2" s="60" t="s">
         <v>271</v>
       </c>
@@ -6862,16 +6911,16 @@
       <c r="E7" s="81" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="168"/>
       <c r="N7" s="60" t="s">
         <v>252</v>
       </c>
@@ -6895,16 +6944,16 @@
       <c r="E8" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="168" t="s">
+      <c r="F8" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="171"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
@@ -6913,12 +6962,12 @@
       <c r="B9" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="164">
+      <c r="C9" s="165">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
@@ -7274,20 +7323,20 @@
       <c r="A1" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="181" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="175"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="182"/>
       <c r="E1" s="95" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="174" t="s">
+      <c r="F1" s="181" t="s">
         <v>312</v>
       </c>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="175"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="182"/>
       <c r="J1" s="95" t="s">
         <v>313</v>
       </c>
@@ -7435,11 +7484,11 @@
       <c r="E4" s="114">
         <v>1</v>
       </c>
-      <c r="F4" s="176" t="s">
+      <c r="F4" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
       <c r="I4" s="115">
         <v>1</v>
       </c>
@@ -7511,59 +7560,59 @@
       <c r="L6" s="129" t="s">
         <v>365</v>
       </c>
-      <c r="M6" s="177">
+      <c r="M6" s="184">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="178"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="185"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="97" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="174" t="s">
         <v>358</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="181"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="176"/>
       <c r="J7" s="95" t="s">
         <v>313</v>
       </c>
-      <c r="O7" s="171">
+      <c r="O7" s="180">
         <f>2^64</f>
         <v>1.8446744073709552E+19</v>
       </c>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
         <v>344</v>
       </c>
-      <c r="B8" s="184">
+      <c r="B8" s="179">
         <v>15</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="184" t="s">
+      <c r="C8" s="177"/>
+      <c r="D8" s="179" t="s">
         <v>360</v>
       </c>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="182" t="s">
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="177" t="s">
         <v>359</v>
       </c>
-      <c r="I8" s="183"/>
+      <c r="I8" s="178"/>
       <c r="J8" s="127" t="s">
         <v>314</v>
       </c>
@@ -7652,17 +7701,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="M6:R6"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7731,14 +7780,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="186" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185" t="s">
+      <c r="C5" s="186"/>
+      <c r="D5" s="186" t="s">
         <v>379</v>
       </c>
-      <c r="E5" s="185"/>
+      <c r="E5" s="186"/>
       <c r="G5" t="s">
         <v>420</v>
       </c>
@@ -7979,14 +8028,14 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="185" t="s">
+      <c r="B20" s="186" t="s">
         <v>375</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185" t="s">
+      <c r="C20" s="186"/>
+      <c r="D20" s="186" t="s">
         <v>379</v>
       </c>
-      <c r="E20" s="185"/>
+      <c r="E20" s="186"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -8091,7 +8140,7 @@
       <c r="E26" t="s">
         <v>422</v>
       </c>
-      <c r="F26" s="186" t="s">
+      <c r="F26" s="147" t="s">
         <v>429</v>
       </c>
       <c r="G26" t="s">
@@ -8114,7 +8163,7 @@
       <c r="E27" t="s">
         <v>422</v>
       </c>
-      <c r="F27" s="186" t="s">
+      <c r="F27" s="147" t="s">
         <v>430</v>
       </c>
       <c r="G27" t="s">
@@ -8137,7 +8186,7 @@
       <c r="E28" t="s">
         <v>422</v>
       </c>
-      <c r="F28" s="186" t="s">
+      <c r="F28" s="147" t="s">
         <v>431</v>
       </c>
       <c r="G28" t="s">
@@ -8160,7 +8209,7 @@
       <c r="E29" t="s">
         <v>422</v>
       </c>
-      <c r="F29" s="186" t="s">
+      <c r="F29" s="147" t="s">
         <v>432</v>
       </c>
       <c r="G29" t="s">
@@ -8168,17 +8217,17 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="186"/>
+      <c r="F30" s="147"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="185" t="s">
+      <c r="B31" s="186" t="s">
         <v>375</v>
       </c>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185" t="s">
+      <c r="C31" s="186"/>
+      <c r="D31" s="186" t="s">
         <v>379</v>
       </c>
-      <c r="E31" s="185"/>
+      <c r="E31" s="186"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -8276,7 +8325,7 @@
       <c r="E37" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F37" s="186" t="s">
+      <c r="F37" s="147" t="s">
         <v>523</v>
       </c>
       <c r="G37">
@@ -8299,7 +8348,7 @@
       <c r="E38" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F38" s="186" t="s">
+      <c r="F38" s="147" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8319,7 +8368,7 @@
       <c r="E39" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F39" s="186" t="s">
+      <c r="F39" s="147" t="s">
         <v>508</v>
       </c>
     </row>
@@ -8339,7 +8388,7 @@
       <c r="E40" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F40" s="186" t="s">
+      <c r="F40" s="147" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8359,7 +8408,7 @@
       <c r="E41" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F41" s="186" t="s">
+      <c r="F41" s="147" t="s">
         <v>510</v>
       </c>
     </row>
@@ -8379,7 +8428,7 @@
       <c r="E42" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F42" s="186" t="s">
+      <c r="F42" s="147" t="s">
         <v>511</v>
       </c>
     </row>
@@ -8399,7 +8448,7 @@
       <c r="E43" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F43" s="186" t="s">
+      <c r="F43" s="147" t="s">
         <v>512</v>
       </c>
     </row>
@@ -8419,7 +8468,7 @@
       <c r="E44" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F44" s="186" t="s">
+      <c r="F44" s="147" t="s">
         <v>513</v>
       </c>
     </row>
@@ -8439,7 +8488,7 @@
       <c r="E45" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F45" s="186" t="s">
+      <c r="F45" s="147" t="s">
         <v>514</v>
       </c>
     </row>
@@ -8459,7 +8508,7 @@
       <c r="E46" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F46" s="186" t="s">
+      <c r="F46" s="147" t="s">
         <v>515</v>
       </c>
     </row>
@@ -8479,7 +8528,7 @@
       <c r="E47" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F47" s="186" t="s">
+      <c r="F47" s="147" t="s">
         <v>516</v>
       </c>
     </row>
@@ -8499,7 +8548,7 @@
       <c r="E48" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F48" s="186" t="s">
+      <c r="F48" s="147" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8519,7 +8568,7 @@
       <c r="E49" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F49" s="186" t="s">
+      <c r="F49" s="147" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8539,7 +8588,7 @@
       <c r="E50" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F50" s="186" t="s">
+      <c r="F50" s="147" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8559,7 +8608,7 @@
       <c r="E51" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F51" s="186" t="s">
+      <c r="F51" s="147" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8579,7 +8628,7 @@
       <c r="E52" s="144">
         <v>255255255240</v>
       </c>
-      <c r="F52" s="186" t="s">
+      <c r="F52" s="147" t="s">
         <v>521</v>
       </c>
     </row>
@@ -8605,10 +8654,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F8F19C-83E6-42DA-84CC-C9C92B4AC97D}">
-  <dimension ref="A1:XEY39"/>
+  <dimension ref="A1:XEY50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="1" sqref="E41:E49 A41:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21557,11 +21608,11 @@
       <c r="G32">
         <v>64</v>
       </c>
-      <c r="H32" s="186" t="s">
+      <c r="H32" s="147" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>529</v>
       </c>
@@ -21577,11 +21628,11 @@
       <c r="G33">
         <v>128</v>
       </c>
-      <c r="H33" s="186" t="s">
+      <c r="H33" s="147" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>566</v>
       </c>
@@ -21597,11 +21648,11 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" s="186" t="s">
+      <c r="H34" s="147" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>570</v>
       </c>
@@ -21617,11 +21668,11 @@
       <c r="G35">
         <v>127</v>
       </c>
-      <c r="H35" s="186" t="s">
+      <c r="H35" s="147" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>10</v>
       </c>
@@ -21634,11 +21685,11 @@
       <c r="G37">
         <v>224</v>
       </c>
-      <c r="H37" s="186" t="s">
+      <c r="H37" s="147" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>255</v>
       </c>
@@ -21651,11 +21702,11 @@
       <c r="G38">
         <v>192</v>
       </c>
-      <c r="H38" s="186" t="s">
+      <c r="H38" s="147" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>10</v>
       </c>
@@ -21669,9 +21720,304 @@
         <v>192</v>
       </c>
     </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>597</v>
+      </c>
+      <c r="B40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" t="s">
+        <v>378</v>
+      </c>
+      <c r="D40" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" t="s">
+        <v>392</v>
+      </c>
+      <c r="F40" t="s">
+        <v>393</v>
+      </c>
+      <c r="G40" t="s">
+        <v>394</v>
+      </c>
+      <c r="H40" s="147" t="s">
+        <v>395</v>
+      </c>
+      <c r="I40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>442</v>
+      </c>
+      <c r="B41" s="187">
+        <v>60</v>
+      </c>
+      <c r="C41" s="144">
+        <v>255255255192</v>
+      </c>
+      <c r="D41" t="s">
+        <v>534</v>
+      </c>
+      <c r="E41" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" t="s">
+        <v>397</v>
+      </c>
+      <c r="G41" t="s">
+        <v>558</v>
+      </c>
+      <c r="H41" t="s">
+        <v>557</v>
+      </c>
+      <c r="I41">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="187">
+        <v>50</v>
+      </c>
+      <c r="C42" s="144">
+        <v>255255255192</v>
+      </c>
+      <c r="D42" t="s">
+        <v>534</v>
+      </c>
+      <c r="E42" t="s">
+        <v>559</v>
+      </c>
+      <c r="F42" t="s">
+        <v>560</v>
+      </c>
+      <c r="G42" t="s">
+        <v>533</v>
+      </c>
+      <c r="H42" s="147" t="s">
+        <v>532</v>
+      </c>
+      <c r="I42">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>594</v>
+      </c>
+      <c r="B43" s="187">
+        <v>45</v>
+      </c>
+      <c r="C43" s="144">
+        <v>255255255192</v>
+      </c>
+      <c r="D43" t="s">
+        <v>534</v>
+      </c>
+      <c r="E43" t="s">
+        <v>531</v>
+      </c>
+      <c r="F43" t="s">
+        <v>531</v>
+      </c>
+      <c r="G43" t="s">
+        <v>537</v>
+      </c>
+      <c r="H43" t="s">
+        <v>537</v>
+      </c>
+      <c r="I43">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>595</v>
+      </c>
+      <c r="B44" s="187">
+        <v>36</v>
+      </c>
+      <c r="C44" s="144">
+        <v>255255255192</v>
+      </c>
+      <c r="D44" t="s">
+        <v>534</v>
+      </c>
+      <c r="E44" t="s">
+        <v>536</v>
+      </c>
+      <c r="F44" t="s">
+        <v>536</v>
+      </c>
+      <c r="G44" s="147" t="s">
+        <v>542</v>
+      </c>
+      <c r="H44" s="147" t="s">
+        <v>542</v>
+      </c>
+      <c r="I44">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>593</v>
+      </c>
+      <c r="B45" s="187">
+        <v>32</v>
+      </c>
+      <c r="C45" s="144">
+        <v>255255255192</v>
+      </c>
+      <c r="D45" t="s">
+        <v>534</v>
+      </c>
+      <c r="E45" t="s">
+        <v>541</v>
+      </c>
+      <c r="F45" t="s">
+        <v>544</v>
+      </c>
+      <c r="G45" t="s">
+        <v>598</v>
+      </c>
+      <c r="H45" t="s">
+        <v>592</v>
+      </c>
+      <c r="I45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>596</v>
+      </c>
+      <c r="B46" s="187">
+        <v>27</v>
+      </c>
+      <c r="C46" s="144">
+        <v>255255255224</v>
+      </c>
+      <c r="D46" t="s">
+        <v>539</v>
+      </c>
+      <c r="E46" t="s">
+        <v>572</v>
+      </c>
+      <c r="F46" t="s">
+        <v>600</v>
+      </c>
+      <c r="G46" s="147" t="s">
+        <v>602</v>
+      </c>
+      <c r="H46" s="147" t="s">
+        <v>601</v>
+      </c>
+      <c r="I46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="187">
+        <v>24</v>
+      </c>
+      <c r="C47" s="144">
+        <v>255255255224</v>
+      </c>
+      <c r="D47" t="s">
+        <v>539</v>
+      </c>
+      <c r="E47" t="s">
+        <v>599</v>
+      </c>
+      <c r="F47" t="s">
+        <v>599</v>
+      </c>
+      <c r="G47" t="s">
+        <v>573</v>
+      </c>
+      <c r="H47" t="s">
+        <v>574</v>
+      </c>
+      <c r="I47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="187">
+        <v>20</v>
+      </c>
+      <c r="C48" s="144">
+        <v>255255255224</v>
+      </c>
+      <c r="D48" t="s">
+        <v>539</v>
+      </c>
+      <c r="E48" t="s">
+        <v>575</v>
+      </c>
+      <c r="F48" t="s">
+        <v>575</v>
+      </c>
+      <c r="G48" s="147" t="s">
+        <v>607</v>
+      </c>
+      <c r="H48" s="147" t="s">
+        <v>604</v>
+      </c>
+      <c r="I48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="187">
+        <v>17</v>
+      </c>
+      <c r="C49" s="144">
+        <v>255255255224</v>
+      </c>
+      <c r="D49" t="s">
+        <v>539</v>
+      </c>
+      <c r="E49" t="s">
+        <v>603</v>
+      </c>
+      <c r="F49" t="s">
+        <v>603</v>
+      </c>
+      <c r="G49" t="s">
+        <v>608</v>
+      </c>
+      <c r="H49" t="s">
+        <v>605</v>
+      </c>
+      <c r="I49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>606</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:B18">
-    <sortCondition ref="A13:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:B49">
+    <sortCondition descending="1" ref="B41:B49"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25606"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7883B0A4-0473-4412-A1F8-582FE3F9A738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98854155-AD90-4C31-A731-8C041680C964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="IPv6" sheetId="6" r:id="rId6"/>
     <sheet name="Subnetting" sheetId="7" r:id="rId7"/>
     <sheet name="vlsm" sheetId="8" r:id="rId8"/>
+    <sheet name="puertos" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="631">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -2316,6 +2317,72 @@
   </si>
   <si>
     <t>10.0.1.190</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>Caracteristicas</t>
+  </si>
+  <si>
+    <t>Confiable</t>
+  </si>
+  <si>
+    <t>SI. Envia acuse de recibo</t>
+  </si>
+  <si>
+    <t>NO. Maximo esfuerzo</t>
+  </si>
+  <si>
+    <t>Protocolos</t>
+  </si>
+  <si>
+    <t>http - ftp - pop - imap -smtp</t>
+  </si>
+  <si>
+    <t>dhcp - dns</t>
+  </si>
+  <si>
+    <t>funcionamiento</t>
+  </si>
+  <si>
+    <t>Ordena los segmentos antes de enviarlos a la capa superior (Aplicacion)</t>
+  </si>
+  <si>
+    <t>Envia los datagramas apenas son recibidos sin importar perdidas</t>
+  </si>
+  <si>
+    <t>Segmento</t>
+  </si>
+  <si>
+    <t>Datagrama</t>
+  </si>
+  <si>
+    <t>rango</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>conocidos</t>
+  </si>
+  <si>
+    <t>0-1023</t>
+  </si>
+  <si>
+    <t>reservados</t>
+  </si>
+  <si>
+    <t>1024-49151</t>
+  </si>
+  <si>
+    <t>dinamicos</t>
+  </si>
+  <si>
+    <t>49152-65535</t>
   </si>
 </sst>
 </file>
@@ -3304,7 +3371,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3751,11 +3818,29 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3775,28 +3860,15 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -7323,20 +7395,20 @@
       <c r="A1" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="175" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="182"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="176"/>
       <c r="E1" s="95" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="175" t="s">
         <v>312</v>
       </c>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="182"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="176"/>
       <c r="J1" s="95" t="s">
         <v>313</v>
       </c>
@@ -7484,11 +7556,11 @@
       <c r="E4" s="114">
         <v>1</v>
       </c>
-      <c r="F4" s="183" t="s">
+      <c r="F4" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
       <c r="I4" s="115">
         <v>1</v>
       </c>
@@ -7521,16 +7593,16 @@
       <c r="A5" s="101" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="173" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="174"/>
       <c r="J5" s="117" t="s">
         <v>314</v>
       </c>
@@ -7560,59 +7632,59 @@
       <c r="L6" s="129" t="s">
         <v>365</v>
       </c>
-      <c r="M6" s="184">
+      <c r="M6" s="178">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="N6" s="184"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="185"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="179"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="97" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="180" t="s">
         <v>358</v>
       </c>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="182"/>
       <c r="J7" s="95" t="s">
         <v>313</v>
       </c>
-      <c r="O7" s="180">
+      <c r="O7" s="172">
         <f>2^64</f>
         <v>1.8446744073709552E+19</v>
       </c>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="172"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
         <v>344</v>
       </c>
-      <c r="B8" s="179">
+      <c r="B8" s="185">
         <v>15</v>
       </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="179" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="185" t="s">
         <v>360</v>
       </c>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="177" t="s">
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="183" t="s">
         <v>359</v>
       </c>
-      <c r="I8" s="178"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="127" t="s">
         <v>314</v>
       </c>
@@ -7685,33 +7757,33 @@
       <c r="A11" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="173" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="174"/>
       <c r="J11" s="128" t="s">
         <v>314</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="M6:R6"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8656,7 +8728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F8F19C-83E6-42DA-84CC-C9C92B4AC97D}">
   <dimension ref="A1:XEY50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B40" sqref="B40"/>
       <selection pane="bottomLeft" activeCell="A41" activeCellId="1" sqref="E41:E49 A41:A49"/>
@@ -21753,7 +21825,7 @@
       <c r="A41" t="s">
         <v>442</v>
       </c>
-      <c r="B41" s="187">
+      <c r="B41">
         <v>60</v>
       </c>
       <c r="C41" s="144">
@@ -21782,7 +21854,7 @@
       <c r="A42" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="187">
+      <c r="B42">
         <v>50</v>
       </c>
       <c r="C42" s="144">
@@ -21811,7 +21883,7 @@
       <c r="A43" t="s">
         <v>594</v>
       </c>
-      <c r="B43" s="187">
+      <c r="B43">
         <v>45</v>
       </c>
       <c r="C43" s="144">
@@ -21840,7 +21912,7 @@
       <c r="A44" t="s">
         <v>595</v>
       </c>
-      <c r="B44" s="187">
+      <c r="B44">
         <v>36</v>
       </c>
       <c r="C44" s="144">
@@ -21869,7 +21941,7 @@
       <c r="A45" t="s">
         <v>593</v>
       </c>
-      <c r="B45" s="187">
+      <c r="B45">
         <v>32</v>
       </c>
       <c r="C45" s="144">
@@ -21898,7 +21970,7 @@
       <c r="A46" t="s">
         <v>596</v>
       </c>
-      <c r="B46" s="187">
+      <c r="B46">
         <v>27</v>
       </c>
       <c r="C46" s="144">
@@ -21927,7 +21999,7 @@
       <c r="A47" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="187">
+      <c r="B47">
         <v>24</v>
       </c>
       <c r="C47" s="144">
@@ -21956,7 +22028,7 @@
       <c r="A48" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="187">
+      <c r="B48">
         <v>20</v>
       </c>
       <c r="C48" s="144">
@@ -21985,7 +22057,7 @@
       <c r="A49" t="s">
         <v>168</v>
       </c>
-      <c r="B49" s="187">
+      <c r="B49">
         <v>17</v>
       </c>
       <c r="C49" s="144">
@@ -22027,4 +22099,106 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9753A59-7FDA-418B-862C-9435875FE19B}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="B4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B5" s="187" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>620</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0945D4-71F0-404B-8EC0-F43A73DB7BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC135490-EF2D-4B34-9A12-AE681D7ED859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
+    <sheet name="unidades" sheetId="3" r:id="rId2"/>
+    <sheet name="fisica" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="169">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -115,13 +117,439 @@
   </si>
   <si>
     <t>100BaseT - 100BaseTx - 10GBaseLx - 100BaseCx</t>
+  </si>
+  <si>
+    <t>ALMACENAMIENTO</t>
+  </si>
+  <si>
+    <t>ANCHO DE BANDA</t>
+  </si>
+  <si>
+    <t>FRECUENCIA</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>Unida Minima</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>8 bits</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Equivalencia</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>10^3</t>
+  </si>
+  <si>
+    <t>10^9</t>
+  </si>
+  <si>
+    <t>10^15</t>
+  </si>
+  <si>
+    <t>10^21</t>
+  </si>
+  <si>
+    <t>10^27</t>
+  </si>
+  <si>
+    <t>10^33</t>
+  </si>
+  <si>
+    <t>1000 Bytes</t>
+  </si>
+  <si>
+    <t>MegaByte</t>
+  </si>
+  <si>
+    <t>1000 KB</t>
+  </si>
+  <si>
+    <t>GigaByte</t>
+  </si>
+  <si>
+    <t>KiloByte</t>
+  </si>
+  <si>
+    <t>1000 MB</t>
+  </si>
+  <si>
+    <t>TeraByte</t>
+  </si>
+  <si>
+    <t>PetaByte</t>
+  </si>
+  <si>
+    <t>1000 GB</t>
+  </si>
+  <si>
+    <t>1000 TB</t>
+  </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>10^12</t>
+  </si>
+  <si>
+    <t>10^18</t>
+  </si>
+  <si>
+    <t>10^24</t>
+  </si>
+  <si>
+    <t>10^30</t>
+  </si>
+  <si>
+    <t>10^0</t>
+  </si>
+  <si>
+    <t>ExaByte</t>
+  </si>
+  <si>
+    <t>ZettaByte</t>
+  </si>
+  <si>
+    <t>YottaByte</t>
+  </si>
+  <si>
+    <t>1000 PB</t>
+  </si>
+  <si>
+    <t>1000 XB</t>
+  </si>
+  <si>
+    <t>1000 ZB</t>
+  </si>
+  <si>
+    <t>BrontoByte</t>
+  </si>
+  <si>
+    <t>1000 YB</t>
+  </si>
+  <si>
+    <t>GeopByte</t>
+  </si>
+  <si>
+    <t>1000 BB</t>
+  </si>
+  <si>
+    <t>1000 GeB</t>
+  </si>
+  <si>
+    <t>SaganByte</t>
+  </si>
+  <si>
+    <t>1000bps</t>
+  </si>
+  <si>
+    <t>1000Kbps</t>
+  </si>
+  <si>
+    <t>Megabit / second</t>
+  </si>
+  <si>
+    <t>Kilobit /second</t>
+  </si>
+  <si>
+    <t>bits / second</t>
+  </si>
+  <si>
+    <t>Gigabit / second</t>
+  </si>
+  <si>
+    <t>1000Mbps</t>
+  </si>
+  <si>
+    <t>Terabit / second</t>
+  </si>
+  <si>
+    <t>1000Gbps</t>
+  </si>
+  <si>
+    <t>Hertz</t>
+  </si>
+  <si>
+    <t>KiloHertz</t>
+  </si>
+  <si>
+    <t>MegaHertz</t>
+  </si>
+  <si>
+    <t>GigaHertz</t>
+  </si>
+  <si>
+    <t>TeraHertz</t>
+  </si>
+  <si>
+    <t>ciclos / s</t>
+  </si>
+  <si>
+    <t>1000Hz</t>
+  </si>
+  <si>
+    <t>1000KHz</t>
+  </si>
+  <si>
+    <t>1000MHz</t>
+  </si>
+  <si>
+    <t>1000GHz</t>
+  </si>
+  <si>
+    <t>Telecomunication International Asoc.</t>
+  </si>
+  <si>
+    <t>568-A</t>
+  </si>
+  <si>
+    <t>568-B</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>B.Verde</t>
+  </si>
+  <si>
+    <t>B.Naranja</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>B.Azul</t>
+  </si>
+  <si>
+    <t>Naranja</t>
+  </si>
+  <si>
+    <t>B.Marron</t>
+  </si>
+  <si>
+    <t>Marron</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Simplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half Duplex </t>
+  </si>
+  <si>
+    <t>Full Duplex</t>
+  </si>
+  <si>
+    <t>Full Full Duplex</t>
+  </si>
+  <si>
+    <t>Colision</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>RFI</t>
+  </si>
+  <si>
+    <t>Crosstalk</t>
+  </si>
+  <si>
+    <t>Choque de señales (tramas)</t>
+  </si>
+  <si>
+    <t>Interferencia electromagnetica</t>
+  </si>
+  <si>
+    <t>Interferencia por radiofrecuencia</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Señal Portadora</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Amplitud Modulada</t>
+  </si>
+  <si>
+    <t>Frecuencia Modulada</t>
+  </si>
+  <si>
+    <t>Fase Modulada</t>
+  </si>
+  <si>
+    <t>Caracteristica</t>
+  </si>
+  <si>
+    <t>MMF</t>
+  </si>
+  <si>
+    <t>SMF</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Multimodo</t>
+  </si>
+  <si>
+    <t>Monomodo</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>Distancia</t>
+  </si>
+  <si>
+    <t>100km</t>
+  </si>
+  <si>
+    <t>1km</t>
+  </si>
+  <si>
+    <t>Nucleo</t>
+  </si>
+  <si>
+    <t>Contras</t>
+  </si>
+  <si>
+    <t>Ventajas</t>
+  </si>
+  <si>
+    <t>Economica</t>
+  </si>
+  <si>
+    <t>Eléctronica</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+  <si>
+    <t>100Gbps</t>
+  </si>
+  <si>
+    <t>10Gbps</t>
+  </si>
+  <si>
+    <t>terminaciones</t>
+  </si>
+  <si>
+    <t>conectores</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Ferrule Connector</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Suscriber Connector</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Connector </t>
+  </si>
+  <si>
+    <t>Straight Connector</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Physical Contact</t>
+  </si>
+  <si>
+    <t>Ultra Pysical</t>
+  </si>
+  <si>
+    <t>Angled Physical</t>
+  </si>
+  <si>
+    <t>un host envia, otros reciben</t>
+  </si>
+  <si>
+    <t>un host envia o recibe datos</t>
+  </si>
+  <si>
+    <t>uno host envia y recibe datos</t>
+  </si>
+  <si>
+    <t>varios hosts envian y reciben</t>
+  </si>
+  <si>
+    <t>Fenomeno</t>
+  </si>
+  <si>
+    <t>Diafonia producida EMI/RFI</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Señal</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>1bps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +571,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +634,62 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -239,11 +728,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,47 +786,186 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -299,6 +973,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -308,6 +987,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BF814627-CF48-4A19-882C-D1855CA912B7}" name="Tabla5" displayName="Tabla5" ref="E1:G8" totalsRowShown="0">
+  <autoFilter ref="E1:G8" xr:uid="{BF814627-CF48-4A19-882C-D1855CA912B7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C0143735-BABE-4AC6-B04A-98DE6788045A}" name="Caracteristica"/>
+    <tableColumn id="2" xr3:uid="{8EBA924F-63B9-41C1-9548-C6CAAF4C264A}" name="MMF"/>
+    <tableColumn id="3" xr3:uid="{2D94CA56-0557-4D29-BE67-CEC36E31EF5D}" name="SMF"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{23B73BE4-0D8B-4B16-A1EA-10C26A5C6ADD}" name="Tabla6" displayName="Tabla6" ref="I11:J15" totalsRowShown="0">
+  <autoFilter ref="I11:J15" xr:uid="{23B73BE4-0D8B-4B16-A1EA-10C26A5C6ADD}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{540B80E8-94D1-45E9-BF4C-DCF29393FE61}" name="Señal"/>
+    <tableColumn id="2" xr3:uid="{5BDBA701-4DFC-439C-A950-68D61E2000A0}" name="Detalle"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900C8C41-E672-427A-9281-10D3E226525F}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -622,16 +1324,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -639,85 +1341,85 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -737,4 +1439,678 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E02E7-2ACD-4B21-BF91-3333E09E1BA2}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E10:G10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D55569-521A-4A5F-9E66-C15A98726FBD}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J9" sqref="I6:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="66"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="I9" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="E11" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="I11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="E12" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="E13" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="E14" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="E15" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC135490-EF2D-4B34-9A12-AE681D7ED859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F292F9-7869-4C40-983A-51C6BBAD7970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
     <sheet name="unidades" sheetId="3" r:id="rId2"/>
     <sheet name="fisica" sheetId="2" r:id="rId3"/>
+    <sheet name="sist" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="276">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -543,13 +545,429 @@
   </si>
   <si>
     <t>1bps</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>0x0</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>0x2</t>
+  </si>
+  <si>
+    <t>0x3</t>
+  </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>0x5</t>
+  </si>
+  <si>
+    <t>0x6</t>
+  </si>
+  <si>
+    <t>0x7</t>
+  </si>
+  <si>
+    <t>0x8</t>
+  </si>
+  <si>
+    <t>0x9</t>
+  </si>
+  <si>
+    <t>0xA</t>
+  </si>
+  <si>
+    <t>0xB</t>
+  </si>
+  <si>
+    <t>0xC</t>
+  </si>
+  <si>
+    <t>0xD</t>
+  </si>
+  <si>
+    <t>0xE</t>
+  </si>
+  <si>
+    <t>0xF</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>01100100</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>01100011</t>
+  </si>
+  <si>
+    <t>0x63</t>
+  </si>
+  <si>
+    <t>0x64</t>
+  </si>
+  <si>
+    <t>0xFF</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>00000100</t>
+  </si>
+  <si>
+    <t>00000101</t>
+  </si>
+  <si>
+    <t>00000110</t>
+  </si>
+  <si>
+    <t>00000111</t>
+  </si>
+  <si>
+    <t>00001000</t>
+  </si>
+  <si>
+    <t>00001001</t>
+  </si>
+  <si>
+    <t>00001010</t>
+  </si>
+  <si>
+    <t>00001011</t>
+  </si>
+  <si>
+    <t>00001100</t>
+  </si>
+  <si>
+    <t>00001101</t>
+  </si>
+  <si>
+    <t>00001110</t>
+  </si>
+  <si>
+    <t>00001111</t>
+  </si>
+  <si>
+    <t>00010000</t>
+  </si>
+  <si>
+    <t>10^2</t>
+  </si>
+  <si>
+    <t>10^1</t>
+  </si>
+  <si>
+    <t>VAL</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>2^0</t>
+  </si>
+  <si>
+    <t>2^1</t>
+  </si>
+  <si>
+    <t>2^2</t>
+  </si>
+  <si>
+    <t>2^7</t>
+  </si>
+  <si>
+    <t>2^6</t>
+  </si>
+  <si>
+    <t>2^5</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>2^3</t>
+  </si>
+  <si>
+    <t>16^3</t>
+  </si>
+  <si>
+    <t>16^2</t>
+  </si>
+  <si>
+    <t>16^1</t>
+  </si>
+  <si>
+    <t>16^0</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0xC0</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>0x5F</t>
+  </si>
+  <si>
+    <t>0x85</t>
+  </si>
+  <si>
+    <t>0x90</t>
+  </si>
+  <si>
+    <t>0xDC</t>
+  </si>
+  <si>
+    <t>0xAC</t>
+  </si>
+  <si>
+    <t>0x7F</t>
+  </si>
+  <si>
+    <t>0xF0</t>
+  </si>
+  <si>
+    <t>0xA8</t>
+  </si>
+  <si>
+    <t>0xCC</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>Publico</t>
+  </si>
+  <si>
+    <t>clase</t>
+  </si>
+  <si>
+    <t>privado</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>128.0.0.0</t>
+  </si>
+  <si>
+    <t>192.0.0.0</t>
+  </si>
+  <si>
+    <t>224.0.0.0</t>
+  </si>
+  <si>
+    <t>240.0.0.0</t>
+  </si>
+  <si>
+    <t>01111111</t>
+  </si>
+  <si>
+    <t>10111111</t>
+  </si>
+  <si>
+    <t>11011111</t>
+  </si>
+  <si>
+    <t>11101111</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <t>INI DEC</t>
+  </si>
+  <si>
+    <t>INI BIN</t>
+  </si>
+  <si>
+    <t>FIN DEC</t>
+  </si>
+  <si>
+    <t>FIN BIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +992,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -689,7 +1114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -774,11 +1199,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,18 +1298,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,116 +1333,225 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1007,6 +1587,32 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{540B80E8-94D1-45E9-BF4C-DCF29393FE61}" name="Señal"/>
     <tableColumn id="2" xr3:uid="{5BDBA701-4DFC-439C-A950-68D61E2000A0}" name="Detalle"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{348EE143-754B-4053-9C91-CD5ADCDC3C80}" name="Tabla8" displayName="Tabla8" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21" xr:uid="{348EE143-754B-4053-9C91-CD5ADCDC3C80}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{77C74CC8-6526-42F7-9351-E5D946B40836}" name="DEC" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2B452F18-D4FB-4B0C-8B91-18258870F2AE}" name="BIN" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{030F421C-063D-4ECA-9795-5D20CAD1E337}" name="HEX" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}" name="Tabla9" displayName="Tabla9" ref="A2:E7" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A2:E7" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EDAF67C7-E5E9-4608-A92E-CAFD3B4AB203}" name="clase"/>
+    <tableColumn id="2" xr3:uid="{E149126E-3CCC-4978-B68E-BF5AF0E03A51}" name="INI DEC" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F98B8A6E-C24A-41E9-AB76-9B306D524BDA}" name="INI BIN" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{CC3EC8AD-516A-47FD-93B2-E37468FD8EFB}" name="FIN DEC" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{52175556-F8D6-4D86-A5CF-5479EC5C3EC0}" name="FIN BIN" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1341,13 +1947,13 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="58" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1355,17 +1961,17 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1405,7 +2011,7 @@
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="57" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1419,7 +2025,7 @@
       <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1469,270 +2075,270 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="E3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="32" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1751,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D55569-521A-4A5F-9E66-C15A98726FBD}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J9" sqref="I6:J9"/>
+    <sheetView topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,11 +2372,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="48" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="48" t="s">
         <v>92</v>
       </c>
       <c r="E1" t="s">
@@ -1782,19 +2388,19 @@
       <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="52"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="43" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="37" t="s">
         <v>95</v>
       </c>
       <c r="E2" t="s">
@@ -1806,21 +2412,21 @@
       <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="49" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="36" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="40" t="s">
         <v>98</v>
       </c>
       <c r="E3" t="s">
@@ -1832,21 +2438,21 @@
       <c r="G3" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="50" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="37" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="43" t="s">
         <v>94</v>
       </c>
       <c r="E4" t="s">
@@ -1858,19 +2464,19 @@
       <c r="G4" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="51" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="38" t="s">
         <v>96</v>
       </c>
       <c r="E5" t="s">
@@ -1882,17 +2488,17 @@
       <c r="G5">
         <v>9</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="39" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="39" t="s">
         <v>97</v>
       </c>
       <c r="E6" t="s">
@@ -1904,21 +2510,21 @@
       <c r="G6" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="52" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="36" t="s">
         <v>93</v>
       </c>
       <c r="E7" t="s">
@@ -1930,19 +2536,19 @@
       <c r="G7" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="I7" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="53" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="41" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E8" t="s">
@@ -1954,48 +2560,48 @@
       <c r="G8" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="56" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="42" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="I9" s="69" t="s">
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="I9" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="54" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="E11" s="22" t="s">
+      <c r="C11" s="66"/>
+      <c r="E11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="52"/>
+      <c r="G11" s="66"/>
       <c r="I11" t="s">
         <v>166</v>
       </c>
@@ -2004,20 +2610,20 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="E12" s="25" t="s">
+      <c r="C12" s="70"/>
+      <c r="E12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="58"/>
+      <c r="G12" s="74"/>
       <c r="I12" t="s">
         <v>115</v>
       </c>
@@ -2026,20 +2632,20 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="E13" s="28" t="s">
+      <c r="C13" s="68"/>
+      <c r="E13" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="60"/>
+      <c r="G13" s="64"/>
       <c r="I13" t="s">
         <v>117</v>
       </c>
@@ -2048,20 +2654,20 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="E14" s="25" t="s">
+      <c r="C14" s="70"/>
+      <c r="E14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="58"/>
+      <c r="G14" s="74"/>
       <c r="I14" t="s">
         <v>118</v>
       </c>
@@ -2070,20 +2676,20 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="68"/>
+      <c r="E15" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="60"/>
+      <c r="G15" s="64"/>
       <c r="I15" t="s">
         <v>119</v>
       </c>
@@ -2093,6 +2699,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B15:C15"/>
@@ -2100,11 +2711,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2113,4 +2719,1288 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E27903-722B-4F14-9E0C-7C009F22E76C}">
+  <dimension ref="A1:AF21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="W1:AF1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="12" max="19" width="4.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="7.140625" customWidth="1"/>
+    <col min="23" max="32" width="4.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="M1" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="N1" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="O1" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q1" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="R1" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="22">
+        <v>100</v>
+      </c>
+      <c r="H2" s="22">
+        <v>10</v>
+      </c>
+      <c r="I2" s="23">
+        <v>1</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" s="90">
+        <v>128</v>
+      </c>
+      <c r="M2" s="90">
+        <v>64</v>
+      </c>
+      <c r="N2" s="90">
+        <v>32</v>
+      </c>
+      <c r="O2" s="90">
+        <v>16</v>
+      </c>
+      <c r="P2" s="90">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="90">
+        <v>4</v>
+      </c>
+      <c r="R2" s="90">
+        <v>2</v>
+      </c>
+      <c r="S2" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
+        <v>5</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L3" s="88">
+        <v>0</v>
+      </c>
+      <c r="M3" s="88">
+        <v>0</v>
+      </c>
+      <c r="N3" s="88">
+        <v>1</v>
+      </c>
+      <c r="O3" s="88">
+        <v>1</v>
+      </c>
+      <c r="P3" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="88">
+        <v>0</v>
+      </c>
+      <c r="R3" s="88">
+        <v>1</v>
+      </c>
+      <c r="S3" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="85">
+        <v>0</v>
+      </c>
+      <c r="G4" s="85">
+        <v>0</v>
+      </c>
+      <c r="H4" s="85">
+        <v>1</v>
+      </c>
+      <c r="I4" s="75">
+        <v>2</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="46">
+        <v>0</v>
+      </c>
+      <c r="M4" s="46">
+        <v>0</v>
+      </c>
+      <c r="N4" s="46">
+        <v>0</v>
+      </c>
+      <c r="O4" s="46">
+        <v>0</v>
+      </c>
+      <c r="P4" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="46">
+        <v>1</v>
+      </c>
+      <c r="R4" s="46">
+        <v>0</v>
+      </c>
+      <c r="S4" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="U6" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="22">
+        <v>4096</v>
+      </c>
+      <c r="G7" s="22">
+        <v>256</v>
+      </c>
+      <c r="H7" s="22">
+        <v>16</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
+      <c r="K7" s="92">
+        <v>192</v>
+      </c>
+      <c r="L7" s="93">
+        <v>1</v>
+      </c>
+      <c r="M7" s="90">
+        <v>1</v>
+      </c>
+      <c r="N7" s="93">
+        <v>0</v>
+      </c>
+      <c r="O7" s="90">
+        <v>0</v>
+      </c>
+      <c r="P7" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="90">
+        <v>0</v>
+      </c>
+      <c r="R7" s="93">
+        <v>0</v>
+      </c>
+      <c r="S7" s="90">
+        <v>0</v>
+      </c>
+      <c r="T7" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="W7">
+        <v>192</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>192</v>
+      </c>
+      <c r="AF7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="88">
+        <v>0</v>
+      </c>
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+      <c r="H8" s="88">
+        <v>3</v>
+      </c>
+      <c r="I8" s="89">
+        <v>2</v>
+      </c>
+      <c r="K8" s="93">
+        <v>204</v>
+      </c>
+      <c r="L8" s="92">
+        <v>1</v>
+      </c>
+      <c r="M8" s="88">
+        <v>1</v>
+      </c>
+      <c r="N8" s="92">
+        <v>0</v>
+      </c>
+      <c r="O8" s="88">
+        <v>0</v>
+      </c>
+      <c r="P8" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="88">
+        <v>1</v>
+      </c>
+      <c r="R8" s="92">
+        <v>0</v>
+      </c>
+      <c r="S8" s="88">
+        <v>0</v>
+      </c>
+      <c r="T8" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="W8" s="83">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>96</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="94"/>
+      <c r="F9" s="46">
+        <v>0</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="92">
+        <v>32</v>
+      </c>
+      <c r="L9" s="93">
+        <v>0</v>
+      </c>
+      <c r="M9" s="90">
+        <v>0</v>
+      </c>
+      <c r="N9" s="93">
+        <v>1</v>
+      </c>
+      <c r="O9" s="90">
+        <v>0</v>
+      </c>
+      <c r="P9" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="90">
+        <v>0</v>
+      </c>
+      <c r="R9" s="93">
+        <v>0</v>
+      </c>
+      <c r="S9" s="90">
+        <v>0</v>
+      </c>
+      <c r="T9" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="V9" s="82"/>
+      <c r="W9" s="84"/>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>48</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="K10" s="93">
+        <v>10</v>
+      </c>
+      <c r="L10" s="92">
+        <v>0</v>
+      </c>
+      <c r="M10" s="88">
+        <v>0</v>
+      </c>
+      <c r="N10" s="92">
+        <v>0</v>
+      </c>
+      <c r="O10" s="88">
+        <v>0</v>
+      </c>
+      <c r="P10" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="88">
+        <v>0</v>
+      </c>
+      <c r="R10" s="92">
+        <v>1</v>
+      </c>
+      <c r="S10" s="88">
+        <v>0</v>
+      </c>
+      <c r="T10" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="X10" s="81"/>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>24</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="92">
+        <v>64</v>
+      </c>
+      <c r="L11" s="93">
+        <v>0</v>
+      </c>
+      <c r="M11" s="90">
+        <v>1</v>
+      </c>
+      <c r="N11" s="93">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="90">
+        <v>0</v>
+      </c>
+      <c r="R11" s="93">
+        <v>0</v>
+      </c>
+      <c r="S11" s="90">
+        <v>0</v>
+      </c>
+      <c r="T11" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y11" s="81"/>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>12</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>64</v>
+      </c>
+      <c r="AF11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="I12" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="93">
+        <v>95</v>
+      </c>
+      <c r="L12" s="92">
+        <v>0</v>
+      </c>
+      <c r="M12" s="88">
+        <v>1</v>
+      </c>
+      <c r="N12" s="92">
+        <v>0</v>
+      </c>
+      <c r="O12" s="88">
+        <v>1</v>
+      </c>
+      <c r="P12" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="88">
+        <v>1</v>
+      </c>
+      <c r="R12" s="92">
+        <v>1</v>
+      </c>
+      <c r="S12" s="88">
+        <v>1</v>
+      </c>
+      <c r="T12" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="W12">
+        <v>45</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="81"/>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>6</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="88">
+        <v>32768</v>
+      </c>
+      <c r="G13" s="88">
+        <v>1024</v>
+      </c>
+      <c r="H13" s="88">
+        <v>16</v>
+      </c>
+      <c r="I13" s="89">
+        <v>2</v>
+      </c>
+      <c r="K13" s="92">
+        <v>133</v>
+      </c>
+      <c r="L13" s="93">
+        <v>1</v>
+      </c>
+      <c r="M13" s="90">
+        <v>0</v>
+      </c>
+      <c r="N13" s="93">
+        <v>0</v>
+      </c>
+      <c r="O13" s="90">
+        <v>0</v>
+      </c>
+      <c r="P13" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="90">
+        <v>1</v>
+      </c>
+      <c r="R13" s="93">
+        <v>0</v>
+      </c>
+      <c r="S13" s="90">
+        <v>1</v>
+      </c>
+      <c r="T13" s="93" t="s">
+        <v>246</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>22</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="81"/>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="90">
+        <v>8192</v>
+      </c>
+      <c r="G14" s="90">
+        <v>512</v>
+      </c>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+      <c r="K14" s="93">
+        <v>144</v>
+      </c>
+      <c r="L14" s="92">
+        <v>1</v>
+      </c>
+      <c r="M14" s="88">
+        <v>0</v>
+      </c>
+      <c r="N14" s="92">
+        <v>0</v>
+      </c>
+      <c r="O14" s="88">
+        <v>1</v>
+      </c>
+      <c r="P14" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="88">
+        <v>0</v>
+      </c>
+      <c r="R14" s="92">
+        <v>0</v>
+      </c>
+      <c r="S14" s="88">
+        <v>0</v>
+      </c>
+      <c r="T14" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>11</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="81"/>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="67">
+        <v>46610</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="K15" s="92">
+        <v>220</v>
+      </c>
+      <c r="L15" s="93">
+        <v>1</v>
+      </c>
+      <c r="M15" s="90">
+        <v>1</v>
+      </c>
+      <c r="N15" s="93">
+        <v>0</v>
+      </c>
+      <c r="O15" s="90">
+        <v>1</v>
+      </c>
+      <c r="P15" s="93">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="90">
+        <v>1</v>
+      </c>
+      <c r="R15" s="93">
+        <v>0</v>
+      </c>
+      <c r="S15" s="90">
+        <v>0</v>
+      </c>
+      <c r="T15" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="80"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" s="93">
+        <v>172</v>
+      </c>
+      <c r="L16" s="92">
+        <v>1</v>
+      </c>
+      <c r="M16" s="88">
+        <v>0</v>
+      </c>
+      <c r="N16" s="92">
+        <v>1</v>
+      </c>
+      <c r="O16" s="88">
+        <v>0</v>
+      </c>
+      <c r="P16" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="88">
+        <v>1</v>
+      </c>
+      <c r="R16" s="92">
+        <v>0</v>
+      </c>
+      <c r="S16" s="88">
+        <v>0</v>
+      </c>
+      <c r="T16" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AE16">
+        <v>172</v>
+      </c>
+      <c r="AF16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17" s="92">
+        <v>127</v>
+      </c>
+      <c r="L17" s="93">
+        <v>0</v>
+      </c>
+      <c r="M17" s="90">
+        <v>1</v>
+      </c>
+      <c r="N17" s="93">
+        <v>1</v>
+      </c>
+      <c r="O17" s="90">
+        <v>1</v>
+      </c>
+      <c r="P17" s="93">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="90">
+        <v>1</v>
+      </c>
+      <c r="R17" s="93">
+        <v>1</v>
+      </c>
+      <c r="S17" s="90">
+        <v>1</v>
+      </c>
+      <c r="T17" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>12</v>
+      </c>
+      <c r="AF17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K18" s="93">
+        <v>240</v>
+      </c>
+      <c r="L18" s="92">
+        <v>1</v>
+      </c>
+      <c r="M18" s="88">
+        <v>1</v>
+      </c>
+      <c r="N18" s="92">
+        <v>1</v>
+      </c>
+      <c r="O18" s="88">
+        <v>1</v>
+      </c>
+      <c r="P18" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="88">
+        <v>0</v>
+      </c>
+      <c r="R18" s="92">
+        <v>0</v>
+      </c>
+      <c r="S18" s="88">
+        <v>0</v>
+      </c>
+      <c r="T18" s="92" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>99</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="94">
+        <v>168</v>
+      </c>
+      <c r="L19" s="93">
+        <v>1</v>
+      </c>
+      <c r="M19" s="46">
+        <v>0</v>
+      </c>
+      <c r="N19" s="93">
+        <v>1</v>
+      </c>
+      <c r="O19" s="46">
+        <v>0</v>
+      </c>
+      <c r="P19" s="93">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>0</v>
+      </c>
+      <c r="R19" s="93">
+        <v>0</v>
+      </c>
+      <c r="S19" s="46">
+        <v>0</v>
+      </c>
+      <c r="T19" s="93" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>100</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>255</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="U6:AB6"/>
+    <mergeCell ref="F15:I15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAABD20-1661-4701-AEBF-370049248633}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="99">
+        <v>127255255255</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="99">
+        <v>191255255255</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" s="99">
+        <v>223255255255</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="99">
+        <v>239255255255</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="99">
+        <v>255255255255</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F292F9-7869-4C40-983A-51C6BBAD7970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D88E26-4729-48A9-91D1-F9D79CAA05DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="337">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -827,18 +827,6 @@
   </si>
   <si>
     <t>240.0.0.0</t>
-  </si>
-  <si>
-    <t>01111111</t>
-  </si>
-  <si>
-    <t>10111111</t>
-  </si>
-  <si>
-    <t>11011111</t>
-  </si>
-  <si>
-    <t>11101111</t>
   </si>
   <si>
     <r>
@@ -951,23 +939,407 @@
     </r>
   </si>
   <si>
-    <t>INI DEC</t>
-  </si>
-  <si>
-    <t>INI BIN</t>
-  </si>
-  <si>
-    <t>FIN DEC</t>
-  </si>
-  <si>
-    <t>FIN BIN</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <t>INI PUB BIN</t>
+  </si>
+  <si>
+    <t>INI PRIV DEC</t>
+  </si>
+  <si>
+    <t>INI PRIV BIN</t>
+  </si>
+  <si>
+    <t>INI PUB DEC</t>
+  </si>
+  <si>
+    <t>FIN PUB DEC</t>
+  </si>
+  <si>
+    <t>FIN PUB BIN</t>
+  </si>
+  <si>
+    <t>FIN PRIV DEC</t>
+  </si>
+  <si>
+    <t>FIN PRIV BIN</t>
+  </si>
+  <si>
+    <t>10.0.0.0</t>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>172.31.255.255</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>MULTICAST</t>
+  </si>
+  <si>
+    <t>RESEARCH</t>
+  </si>
+  <si>
+    <t>10101100</t>
+  </si>
+  <si>
+    <t>10101100.
+00010000</t>
+  </si>
+  <si>
+    <t>10101100.
+00011111</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+00000000</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+11111111</t>
+  </si>
+  <si>
+    <t>SUBNETTING</t>
+  </si>
+  <si>
+    <t>CIDR</t>
+  </si>
+  <si>
+    <t>MASK</t>
+  </si>
+  <si>
+    <t>/8</t>
+  </si>
+  <si>
+    <t>/16</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Hosts</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Byte 1</t>
+  </si>
+  <si>
+    <t>Byte 2</t>
+  </si>
+  <si>
+    <t>Byte 3</t>
+  </si>
+  <si>
+    <t>Byte 4</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>10.54.33.211</t>
+  </si>
+  <si>
+    <t>00110110</t>
+  </si>
+  <si>
+    <t>00100001</t>
+  </si>
+  <si>
+    <t>11010011</t>
+  </si>
+  <si>
+    <r>
+      <t>0000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>172.20.204.80</t>
+  </si>
+  <si>
+    <t>00010100</t>
+  </si>
+  <si>
+    <t>11001100</t>
+  </si>
+  <si>
+    <t>01010000</t>
+  </si>
+  <si>
+    <t>172.20.0.0</t>
+  </si>
+  <si>
+    <t>172.20.255.255</t>
+  </si>
+  <si>
+    <t>192.168.255.10</t>
+  </si>
+  <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <t>10101000</t>
+  </si>
+  <si>
+    <t>192.168.255.0</t>
+  </si>
+  <si>
+    <t>10.255.255.0</t>
+  </si>
+  <si>
+    <t>172.31.0.255</t>
+  </si>
+  <si>
+    <t>00011111</t>
+  </si>
+  <si>
+    <t>172.31.0.0</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>192.168.1.0</t>
+  </si>
+  <si>
+    <t>192.168.1.255</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,6 +1371,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1114,7 +1493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1235,15 +1614,6 @@
         <color indexed="64"/>
       </diagonal>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
@@ -1258,10 +1628,11 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1405,59 +1776,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1472,11 +1792,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1505,7 +1820,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1515,31 +1829,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1596,23 +2050,33 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{348EE143-754B-4053-9C91-CD5ADCDC3C80}" name="Tabla8" displayName="Tabla8" ref="A1:C21" totalsRowShown="0">
   <autoFilter ref="A1:C21" xr:uid="{348EE143-754B-4053-9C91-CD5ADCDC3C80}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{77C74CC8-6526-42F7-9351-E5D946B40836}" name="DEC" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{2B452F18-D4FB-4B0C-8B91-18258870F2AE}" name="BIN" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{030F421C-063D-4ECA-9795-5D20CAD1E337}" name="HEX" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{77C74CC8-6526-42F7-9351-E5D946B40836}" name="DEC" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{2B452F18-D4FB-4B0C-8B91-18258870F2AE}" name="BIN" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{030F421C-063D-4ECA-9795-5D20CAD1E337}" name="HEX" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}" name="Tabla9" displayName="Tabla9" ref="A2:E7" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A2:E7" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EDAF67C7-E5E9-4608-A92E-CAFD3B4AB203}" name="clase"/>
-    <tableColumn id="2" xr3:uid="{E149126E-3CCC-4978-B68E-BF5AF0E03A51}" name="INI DEC" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F98B8A6E-C24A-41E9-AB76-9B306D524BDA}" name="INI BIN" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{CC3EC8AD-516A-47FD-93B2-E37468FD8EFB}" name="FIN DEC" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{52175556-F8D6-4D86-A5CF-5479EC5C3EC0}" name="FIN BIN" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}" name="Tabla9" displayName="Tabla9" ref="A2:M7" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A2:M7" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{EDAF67C7-E5E9-4608-A92E-CAFD3B4AB203}" name="clase" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{E149126E-3CCC-4978-B68E-BF5AF0E03A51}" name="INI PUB DEC" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{F98B8A6E-C24A-41E9-AB76-9B306D524BDA}" name="INI PUB BIN" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{CC3EC8AD-516A-47FD-93B2-E37468FD8EFB}" name="FIN PUB DEC" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{52175556-F8D6-4D86-A5CF-5479EC5C3EC0}" name="FIN PUB BIN" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{1095EE25-3AC2-4D0C-A82C-D3988A8DF9D0}" name="INI PRIV DEC" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{4764509F-C144-4F47-A60F-5E1528FF07B2}" name="INI PRIV BIN" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{5061D034-8FBD-4551-B950-C590111E589C}" name="FIN PRIV DEC" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{33E5493C-FE47-4A0F-8295-C29A7811D21A}" name="FIN PRIV BIN" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{8614C845-DCDF-4A45-B65E-C2FA57B07B35}" name="CIDR" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{19891DE4-A391-46DB-93C7-38C3C1791C28}" name="MASK" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{B9347E90-A918-4C7F-9642-48CDF84B5E9F}" name="Red" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{BF9F29F7-44FA-4436-85F9-C1100522CDDF}" name="Hosts" dataDxfId="0">
+      <calculatedColumnFormula>2^24-2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1947,13 +2411,13 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="77" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1961,17 +2425,17 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="77"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2011,7 +2475,7 @@
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="76" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2025,7 +2489,7 @@
       <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="76"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2075,16 +2539,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="E3" s="61" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="E3" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -2216,11 +2680,11 @@
       <c r="C10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -2388,10 +2852,10 @@
       <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="66"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -2488,10 +2952,10 @@
       <c r="G5">
         <v>9</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="83"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
@@ -2575,11 +3039,11 @@
       <c r="C9" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
       <c r="I9" s="54" t="s">
         <v>150</v>
       </c>
@@ -2591,17 +3055,17 @@
       <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="85"/>
       <c r="E11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="85"/>
       <c r="I11" t="s">
         <v>166</v>
       </c>
@@ -2613,17 +3077,17 @@
       <c r="A12" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="93"/>
       <c r="E12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="87"/>
       <c r="I12" t="s">
         <v>115</v>
       </c>
@@ -2635,17 +3099,17 @@
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="91"/>
       <c r="E13" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="64"/>
+      <c r="G13" s="89"/>
       <c r="I13" t="s">
         <v>117</v>
       </c>
@@ -2657,17 +3121,17 @@
       <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="93"/>
       <c r="E14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="74"/>
+      <c r="G14" s="87"/>
       <c r="I14" t="s">
         <v>118</v>
       </c>
@@ -2679,17 +3143,17 @@
       <c r="A15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="91"/>
       <c r="E15" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="64"/>
+      <c r="G15" s="89"/>
       <c r="I15" t="s">
         <v>119</v>
       </c>
@@ -2699,11 +3163,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B15:C15"/>
@@ -2712,6 +3171,11 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -2723,17 +3187,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E27903-722B-4F14-9E0C-7C009F22E76C}">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="W1:AF1048576"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="2.42578125" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -2742,15 +3206,17 @@
     <col min="12" max="19" width="4.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.140625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="7.140625" customWidth="1"/>
-    <col min="23" max="32" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="57" customWidth="1"/>
+    <col min="24" max="29" width="4.5703125" style="57" customWidth="1"/>
+    <col min="30" max="31" width="5.42578125" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="59" t="s">
         <v>169</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -2774,36 +3240,36 @@
       <c r="K1" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="M1" s="86" t="s">
+      <c r="M1" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="86" t="s">
+      <c r="N1" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="86" t="s">
+      <c r="O1" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="P1" s="86" t="s">
+      <c r="P1" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="R1" s="86" t="s">
+      <c r="R1" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="S1" s="87" t="s">
+      <c r="S1" s="65" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>0</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="60" t="s">
         <v>205</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -2827,36 +3293,36 @@
       <c r="K2" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="L2" s="90">
+      <c r="L2" s="68">
         <v>128</v>
       </c>
-      <c r="M2" s="90">
+      <c r="M2" s="68">
         <v>64</v>
       </c>
-      <c r="N2" s="90">
+      <c r="N2" s="68">
         <v>32</v>
       </c>
-      <c r="O2" s="90">
+      <c r="O2" s="68">
         <v>16</v>
       </c>
-      <c r="P2" s="90">
+      <c r="P2" s="68">
         <v>8</v>
       </c>
-      <c r="Q2" s="90">
+      <c r="Q2" s="68">
         <v>4</v>
       </c>
-      <c r="R2" s="90">
+      <c r="R2" s="68">
         <v>2</v>
       </c>
-      <c r="S2" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S2" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="61" t="s">
         <v>206</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -2880,52 +3346,52 @@
       <c r="K3" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="L3" s="88">
-        <v>0</v>
-      </c>
-      <c r="M3" s="88">
-        <v>0</v>
-      </c>
-      <c r="N3" s="88">
-        <v>1</v>
-      </c>
-      <c r="O3" s="88">
-        <v>1</v>
-      </c>
-      <c r="P3" s="88">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="88">
-        <v>0</v>
-      </c>
-      <c r="R3" s="88">
-        <v>1</v>
-      </c>
-      <c r="S3" s="89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="L3" s="66">
+        <v>0</v>
+      </c>
+      <c r="M3" s="66">
+        <v>0</v>
+      </c>
+      <c r="N3" s="66">
+        <v>1</v>
+      </c>
+      <c r="O3" s="66">
+        <v>1</v>
+      </c>
+      <c r="P3" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="66">
+        <v>0</v>
+      </c>
+      <c r="R3" s="66">
+        <v>1</v>
+      </c>
+      <c r="S3" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="60" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>182</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="85">
-        <v>0</v>
-      </c>
-      <c r="G4" s="85">
-        <v>0</v>
-      </c>
-      <c r="H4" s="85">
-        <v>1</v>
-      </c>
-      <c r="I4" s="75">
+      <c r="F4" s="63">
+        <v>0</v>
+      </c>
+      <c r="G4" s="63">
+        <v>0</v>
+      </c>
+      <c r="H4" s="63">
+        <v>1</v>
+      </c>
+      <c r="I4" s="58">
         <v>2</v>
       </c>
       <c r="K4" s="14"/>
@@ -2954,22 +3420,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="61" t="s">
         <v>208</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W5" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD5" s="57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="60" t="s">
         <v>209</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -2993,42 +3465,61 @@
       <c r="K6" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
+      <c r="L6" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
       <c r="T6" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="U6" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V6" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="W6" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="X6" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y6" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z6" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA6" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB6" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC6" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD6" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE6" s="65" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="60" t="s">
         <v>210</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="70" t="s">
         <v>224</v>
       </c>
       <c r="F7" s="22">
@@ -3043,131 +3534,142 @@
       <c r="I7" s="23">
         <v>1</v>
       </c>
-      <c r="K7" s="92">
+      <c r="K7" s="70">
         <v>192</v>
       </c>
-      <c r="L7" s="93">
-        <v>1</v>
-      </c>
-      <c r="M7" s="90">
-        <v>1</v>
-      </c>
-      <c r="N7" s="93">
-        <v>0</v>
-      </c>
-      <c r="O7" s="90">
-        <v>0</v>
-      </c>
-      <c r="P7" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="90">
-        <v>0</v>
-      </c>
-      <c r="R7" s="93">
-        <v>0</v>
-      </c>
-      <c r="S7" s="90">
-        <v>0</v>
-      </c>
-      <c r="T7" s="93" t="s">
+      <c r="L7" s="71">
+        <v>1</v>
+      </c>
+      <c r="M7" s="68">
+        <v>1</v>
+      </c>
+      <c r="N7" s="71">
+        <v>0</v>
+      </c>
+      <c r="O7" s="68">
+        <v>0</v>
+      </c>
+      <c r="P7" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="68">
+        <v>0</v>
+      </c>
+      <c r="R7" s="71">
+        <v>0</v>
+      </c>
+      <c r="S7" s="68">
+        <v>0</v>
+      </c>
+      <c r="T7" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="W7">
+      <c r="V7" s="57">
         <v>192</v>
       </c>
-      <c r="X7">
+      <c r="W7" s="94">
         <v>2</v>
       </c>
-      <c r="AE7">
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="57">
         <v>192</v>
       </c>
-      <c r="AF7">
+      <c r="AE7" s="94">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="60" t="s">
         <v>211</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="88">
-        <v>0</v>
-      </c>
-      <c r="G8" s="88">
-        <v>0</v>
-      </c>
-      <c r="H8" s="88">
+      <c r="F8" s="66">
+        <v>0</v>
+      </c>
+      <c r="G8" s="66">
+        <v>0</v>
+      </c>
+      <c r="H8" s="66">
         <v>3</v>
       </c>
-      <c r="I8" s="89">
+      <c r="I8" s="67">
         <v>2</v>
       </c>
-      <c r="K8" s="93">
+      <c r="K8" s="71">
         <v>204</v>
       </c>
-      <c r="L8" s="92">
-        <v>1</v>
-      </c>
-      <c r="M8" s="88">
-        <v>1</v>
-      </c>
-      <c r="N8" s="92">
-        <v>0</v>
-      </c>
-      <c r="O8" s="88">
-        <v>0</v>
-      </c>
-      <c r="P8" s="92">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="88">
-        <v>1</v>
-      </c>
-      <c r="R8" s="92">
-        <v>0</v>
-      </c>
-      <c r="S8" s="88">
-        <v>0</v>
-      </c>
-      <c r="T8" s="92" t="s">
+      <c r="L8" s="70">
+        <v>1</v>
+      </c>
+      <c r="M8" s="66">
+        <v>1</v>
+      </c>
+      <c r="N8" s="70">
+        <v>0</v>
+      </c>
+      <c r="O8" s="66">
+        <v>0</v>
+      </c>
+      <c r="P8" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="66">
+        <v>1</v>
+      </c>
+      <c r="R8" s="70">
+        <v>0</v>
+      </c>
+      <c r="S8" s="66">
+        <v>0</v>
+      </c>
+      <c r="T8" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="W8" s="83">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="V8" s="95">
+        <v>0</v>
+      </c>
+      <c r="W8" s="57">
         <v>96</v>
       </c>
-      <c r="Y8">
+      <c r="X8" s="94">
         <v>2</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="57">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="57">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="61" t="s">
         <v>212</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="94"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="46">
         <v>0</v>
       </c>
@@ -3180,110 +3682,116 @@
       <c r="I9" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="K9" s="92">
+      <c r="K9" s="70">
         <v>32</v>
       </c>
-      <c r="L9" s="93">
-        <v>0</v>
-      </c>
-      <c r="M9" s="90">
-        <v>0</v>
-      </c>
-      <c r="N9" s="93">
-        <v>1</v>
-      </c>
-      <c r="O9" s="90">
-        <v>0</v>
-      </c>
-      <c r="P9" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="90">
-        <v>0</v>
-      </c>
-      <c r="R9" s="93">
-        <v>0</v>
-      </c>
-      <c r="S9" s="90">
-        <v>0</v>
-      </c>
-      <c r="T9" s="93" t="s">
+      <c r="L9" s="71">
+        <v>0</v>
+      </c>
+      <c r="M9" s="68">
+        <v>0</v>
+      </c>
+      <c r="N9" s="71">
+        <v>1</v>
+      </c>
+      <c r="O9" s="68">
+        <v>0</v>
+      </c>
+      <c r="P9" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="68">
+        <v>0</v>
+      </c>
+      <c r="R9" s="71">
+        <v>0</v>
+      </c>
+      <c r="S9" s="68">
+        <v>0</v>
+      </c>
+      <c r="T9" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="V9" s="82"/>
-      <c r="W9" s="84"/>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
+      <c r="V9" s="96"/>
+      <c r="W9" s="57">
+        <v>0</v>
+      </c>
+      <c r="X9" s="57">
         <v>48</v>
       </c>
-      <c r="Z9">
+      <c r="Y9" s="94">
         <v>2</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="57">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="62" t="s">
         <v>213</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="K10" s="93">
+      <c r="K10" s="71">
         <v>10</v>
       </c>
-      <c r="L10" s="92">
-        <v>0</v>
-      </c>
-      <c r="M10" s="88">
-        <v>0</v>
-      </c>
-      <c r="N10" s="92">
-        <v>0</v>
-      </c>
-      <c r="O10" s="88">
-        <v>0</v>
-      </c>
-      <c r="P10" s="92">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="88">
-        <v>0</v>
-      </c>
-      <c r="R10" s="92">
-        <v>1</v>
-      </c>
-      <c r="S10" s="88">
-        <v>0</v>
-      </c>
-      <c r="T10" s="92" t="s">
+      <c r="L10" s="70">
+        <v>0</v>
+      </c>
+      <c r="M10" s="66">
+        <v>0</v>
+      </c>
+      <c r="N10" s="70">
+        <v>0</v>
+      </c>
+      <c r="O10" s="66">
+        <v>0</v>
+      </c>
+      <c r="P10" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="66">
+        <v>0</v>
+      </c>
+      <c r="R10" s="70">
+        <v>1</v>
+      </c>
+      <c r="S10" s="66">
+        <v>0</v>
+      </c>
+      <c r="T10" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="X10" s="81"/>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
+      <c r="W10" s="97"/>
+      <c r="X10" s="57">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="57">
         <v>24</v>
       </c>
-      <c r="AA10">
+      <c r="Z10" s="94">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="60" t="s">
         <v>214</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -3292,554 +3800,557 @@
       <c r="E11" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="I11" s="87" t="s">
+      <c r="I11" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="K11" s="92">
+      <c r="K11" s="70">
         <v>64</v>
       </c>
-      <c r="L11" s="93">
-        <v>0</v>
-      </c>
-      <c r="M11" s="90">
-        <v>1</v>
-      </c>
-      <c r="N11" s="93">
-        <v>0</v>
-      </c>
-      <c r="O11" s="90">
-        <v>0</v>
-      </c>
-      <c r="P11" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="90">
-        <v>0</v>
-      </c>
-      <c r="R11" s="93">
-        <v>0</v>
-      </c>
-      <c r="S11" s="90">
-        <v>0</v>
-      </c>
-      <c r="T11" s="93" t="s">
+      <c r="L11" s="71">
+        <v>0</v>
+      </c>
+      <c r="M11" s="68">
+        <v>1</v>
+      </c>
+      <c r="N11" s="71">
+        <v>0</v>
+      </c>
+      <c r="O11" s="68">
+        <v>0</v>
+      </c>
+      <c r="P11" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="68">
+        <v>0</v>
+      </c>
+      <c r="R11" s="71">
+        <v>0</v>
+      </c>
+      <c r="S11" s="68">
+        <v>0</v>
+      </c>
+      <c r="T11" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" s="81"/>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
+      <c r="X11" s="97"/>
+      <c r="Y11" s="57">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="57">
         <v>12</v>
       </c>
-      <c r="AB11">
+      <c r="AA11" s="94">
         <v>2</v>
       </c>
-      <c r="AE11">
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="57">
         <v>64</v>
       </c>
-      <c r="AF11">
+      <c r="AE11" s="94">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="60" t="s">
         <v>215</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="H12" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="I12" s="97" t="s">
+      <c r="I12" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="K12" s="93">
+      <c r="K12" s="71">
         <v>95</v>
       </c>
-      <c r="L12" s="92">
-        <v>0</v>
-      </c>
-      <c r="M12" s="88">
-        <v>1</v>
-      </c>
-      <c r="N12" s="92">
-        <v>0</v>
-      </c>
-      <c r="O12" s="88">
-        <v>1</v>
-      </c>
-      <c r="P12" s="92">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="88">
-        <v>1</v>
-      </c>
-      <c r="R12" s="92">
-        <v>1</v>
-      </c>
-      <c r="S12" s="88">
-        <v>1</v>
-      </c>
-      <c r="T12" s="92" t="s">
+      <c r="L12" s="70">
+        <v>0</v>
+      </c>
+      <c r="M12" s="66">
+        <v>1</v>
+      </c>
+      <c r="N12" s="70">
+        <v>0</v>
+      </c>
+      <c r="O12" s="66">
+        <v>1</v>
+      </c>
+      <c r="P12" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="66">
+        <v>1</v>
+      </c>
+      <c r="R12" s="70">
+        <v>1</v>
+      </c>
+      <c r="S12" s="66">
+        <v>1</v>
+      </c>
+      <c r="T12" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="W12">
+      <c r="V12" s="57">
         <v>45</v>
       </c>
-      <c r="X12">
+      <c r="W12" s="57">
         <v>2</v>
       </c>
-      <c r="Z12" s="81"/>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="57">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="57">
         <v>6</v>
       </c>
-      <c r="AC12">
+      <c r="AB12" s="94">
         <v>2</v>
       </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="57">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="60" t="s">
         <v>216</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="66">
         <v>32768</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="66">
         <v>1024</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="66">
         <v>16</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="67">
         <v>2</v>
       </c>
-      <c r="K13" s="92">
+      <c r="K13" s="70">
         <v>133</v>
       </c>
-      <c r="L13" s="93">
-        <v>1</v>
-      </c>
-      <c r="M13" s="90">
-        <v>0</v>
-      </c>
-      <c r="N13" s="93">
-        <v>0</v>
-      </c>
-      <c r="O13" s="90">
-        <v>0</v>
-      </c>
-      <c r="P13" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="90">
-        <v>1</v>
-      </c>
-      <c r="R13" s="93">
-        <v>0</v>
-      </c>
-      <c r="S13" s="90">
-        <v>1</v>
-      </c>
-      <c r="T13" s="93" t="s">
+      <c r="L13" s="71">
+        <v>1</v>
+      </c>
+      <c r="M13" s="68">
+        <v>0</v>
+      </c>
+      <c r="N13" s="71">
+        <v>0</v>
+      </c>
+      <c r="O13" s="68">
+        <v>0</v>
+      </c>
+      <c r="P13" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="68">
+        <v>1</v>
+      </c>
+      <c r="R13" s="71">
+        <v>0</v>
+      </c>
+      <c r="S13" s="68">
+        <v>1</v>
+      </c>
+      <c r="T13" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
+      <c r="V13" s="57">
+        <v>1</v>
+      </c>
+      <c r="W13" s="57">
         <v>22</v>
       </c>
-      <c r="Y13">
+      <c r="X13" s="57">
         <v>2</v>
       </c>
-      <c r="AA13" s="81"/>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="57">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="57">
         <v>3</v>
       </c>
-      <c r="AD13">
+      <c r="AC13" s="94">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="60" t="s">
         <v>217</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F14" s="68">
         <v>8192</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="68">
         <v>512</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
-      <c r="K14" s="93">
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="K14" s="71">
         <v>144</v>
       </c>
-      <c r="L14" s="92">
-        <v>1</v>
-      </c>
-      <c r="M14" s="88">
-        <v>0</v>
-      </c>
-      <c r="N14" s="92">
-        <v>0</v>
-      </c>
-      <c r="O14" s="88">
-        <v>1</v>
-      </c>
-      <c r="P14" s="92">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="88">
-        <v>0</v>
-      </c>
-      <c r="R14" s="92">
-        <v>0</v>
-      </c>
-      <c r="S14" s="88">
-        <v>0</v>
-      </c>
-      <c r="T14" s="92" t="s">
+      <c r="L14" s="70">
+        <v>1</v>
+      </c>
+      <c r="M14" s="66">
+        <v>0</v>
+      </c>
+      <c r="N14" s="70">
+        <v>0</v>
+      </c>
+      <c r="O14" s="66">
+        <v>1</v>
+      </c>
+      <c r="P14" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="66">
+        <v>0</v>
+      </c>
+      <c r="R14" s="70">
+        <v>0</v>
+      </c>
+      <c r="S14" s="66">
+        <v>0</v>
+      </c>
+      <c r="T14" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
+      <c r="W14" s="57">
+        <v>0</v>
+      </c>
+      <c r="X14" s="57">
         <v>11</v>
       </c>
-      <c r="Z14">
+      <c r="Y14" s="57">
         <v>2</v>
       </c>
-      <c r="AB14" s="81"/>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="57">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="60" t="s">
         <v>218</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="90">
         <v>46610</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
-      <c r="K15" s="92">
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="K15" s="70">
         <v>220</v>
       </c>
-      <c r="L15" s="93">
-        <v>1</v>
-      </c>
-      <c r="M15" s="90">
-        <v>1</v>
-      </c>
-      <c r="N15" s="93">
-        <v>0</v>
-      </c>
-      <c r="O15" s="90">
-        <v>1</v>
-      </c>
-      <c r="P15" s="93">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="90">
-        <v>1</v>
-      </c>
-      <c r="R15" s="93">
-        <v>0</v>
-      </c>
-      <c r="S15" s="90">
-        <v>0</v>
-      </c>
-      <c r="T15" s="93" t="s">
+      <c r="L15" s="71">
+        <v>1</v>
+      </c>
+      <c r="M15" s="68">
+        <v>1</v>
+      </c>
+      <c r="N15" s="71">
+        <v>0</v>
+      </c>
+      <c r="O15" s="68">
+        <v>1</v>
+      </c>
+      <c r="P15" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>1</v>
+      </c>
+      <c r="R15" s="71">
+        <v>0</v>
+      </c>
+      <c r="S15" s="68">
+        <v>0</v>
+      </c>
+      <c r="T15" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
+      <c r="X15" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="57">
         <v>5</v>
       </c>
-      <c r="AA15">
+      <c r="Z15" s="57">
         <v>2</v>
       </c>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="80"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="98"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="60" t="s">
         <v>219</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="K16" s="93">
+      <c r="K16" s="71">
         <v>172</v>
       </c>
-      <c r="L16" s="92">
-        <v>1</v>
-      </c>
-      <c r="M16" s="88">
-        <v>0</v>
-      </c>
-      <c r="N16" s="92">
-        <v>1</v>
-      </c>
-      <c r="O16" s="88">
-        <v>0</v>
-      </c>
-      <c r="P16" s="92">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="88">
-        <v>1</v>
-      </c>
-      <c r="R16" s="92">
-        <v>0</v>
-      </c>
-      <c r="S16" s="88">
-        <v>0</v>
-      </c>
-      <c r="T16" s="92" t="s">
+      <c r="L16" s="70">
+        <v>1</v>
+      </c>
+      <c r="M16" s="66">
+        <v>0</v>
+      </c>
+      <c r="N16" s="70">
+        <v>1</v>
+      </c>
+      <c r="O16" s="66">
+        <v>0</v>
+      </c>
+      <c r="P16" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="66">
+        <v>1</v>
+      </c>
+      <c r="R16" s="70">
+        <v>0</v>
+      </c>
+      <c r="S16" s="66">
+        <v>0</v>
+      </c>
+      <c r="T16" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
+      <c r="Y16" s="57">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="57">
         <v>2</v>
       </c>
-      <c r="AB16">
+      <c r="AA16" s="57">
         <v>2</v>
       </c>
-      <c r="AE16">
+      <c r="AD16" s="57">
         <v>172</v>
       </c>
-      <c r="AF16">
+      <c r="AE16" s="57">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="61" t="s">
         <v>220</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="K17" s="92">
+      <c r="K17" s="70">
         <v>127</v>
       </c>
-      <c r="L17" s="93">
-        <v>0</v>
-      </c>
-      <c r="M17" s="90">
-        <v>1</v>
-      </c>
-      <c r="N17" s="93">
-        <v>1</v>
-      </c>
-      <c r="O17" s="90">
-        <v>1</v>
-      </c>
-      <c r="P17" s="93">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="90">
-        <v>1</v>
-      </c>
-      <c r="R17" s="93">
-        <v>1</v>
-      </c>
-      <c r="S17" s="90">
-        <v>1</v>
-      </c>
-      <c r="T17" s="93" t="s">
+      <c r="L17" s="71">
+        <v>0</v>
+      </c>
+      <c r="M17" s="68">
+        <v>1</v>
+      </c>
+      <c r="N17" s="71">
+        <v>1</v>
+      </c>
+      <c r="O17" s="68">
+        <v>1</v>
+      </c>
+      <c r="P17" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="68">
+        <v>1</v>
+      </c>
+      <c r="R17" s="71">
+        <v>1</v>
+      </c>
+      <c r="S17" s="68">
+        <v>1</v>
+      </c>
+      <c r="T17" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
+      <c r="Z17" s="57">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="57">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="57">
         <v>12</v>
       </c>
-      <c r="AF17">
+      <c r="AE17" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>16</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="59" t="s">
         <v>221</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K18" s="93">
+      <c r="K18" s="71">
         <v>240</v>
       </c>
-      <c r="L18" s="92">
-        <v>1</v>
-      </c>
-      <c r="M18" s="88">
-        <v>1</v>
-      </c>
-      <c r="N18" s="92">
-        <v>1</v>
-      </c>
-      <c r="O18" s="88">
-        <v>1</v>
-      </c>
-      <c r="P18" s="92">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="88">
-        <v>0</v>
-      </c>
-      <c r="R18" s="92">
-        <v>0</v>
-      </c>
-      <c r="S18" s="88">
-        <v>0</v>
-      </c>
-      <c r="T18" s="92" t="s">
+      <c r="L18" s="70">
+        <v>1</v>
+      </c>
+      <c r="M18" s="66">
+        <v>1</v>
+      </c>
+      <c r="N18" s="70">
+        <v>1</v>
+      </c>
+      <c r="O18" s="66">
+        <v>1</v>
+      </c>
+      <c r="P18" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="66">
+        <v>0</v>
+      </c>
+      <c r="R18" s="70">
+        <v>0</v>
+      </c>
+      <c r="S18" s="66">
+        <v>0</v>
+      </c>
+      <c r="T18" s="70" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>99</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="59" t="s">
         <v>201</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="K19" s="94">
+      <c r="K19" s="72">
         <v>168</v>
       </c>
-      <c r="L19" s="93">
+      <c r="L19" s="71">
         <v>1</v>
       </c>
       <c r="M19" s="46">
         <v>0</v>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="71">
         <v>1</v>
       </c>
       <c r="O19" s="46">
         <v>0</v>
       </c>
-      <c r="P19" s="93">
+      <c r="P19" s="71">
         <v>1</v>
       </c>
       <c r="Q19" s="46">
         <v>0</v>
       </c>
-      <c r="R19" s="93">
+      <c r="R19" s="71">
         <v>0</v>
       </c>
       <c r="S19" s="46">
         <v>0</v>
       </c>
-      <c r="T19" s="93" t="s">
+      <c r="T19" s="71" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>100</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="59" t="s">
         <v>199</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>255</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="59" t="s">
         <v>200</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3848,8 +4359,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="U6:AB6"/>
     <mergeCell ref="F15:I15"/>
+    <mergeCell ref="L6:S6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3861,141 +4372,810 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAABD20-1661-4701-AEBF-370049248633}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
         <v>273</v>
       </c>
       <c r="D2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" t="s">
         <v>274</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="99" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="101" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="102">
+        <v>127255255255</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="102">
+        <v>10255255255</v>
+      </c>
+      <c r="I3" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="K3" s="104" t="s">
+        <v>298</v>
+      </c>
+      <c r="L3" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="106">
+        <f t="shared" ref="M3" si="0">2^24-2</f>
+        <v>16777214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="102">
+        <v>191255255255</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" s="103" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>296</v>
+      </c>
+      <c r="K4" s="104" t="s">
+        <v>299</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>303</v>
+      </c>
+      <c r="M4" s="105">
+        <f>2^16-2</f>
+        <v>65534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="102">
+        <v>223255255255</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="100" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="102">
+        <v>192168255255</v>
+      </c>
+      <c r="I5" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" s="101" t="s">
+        <v>297</v>
+      </c>
+      <c r="K5" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="L5" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="M5" s="105">
+        <f>2^8-2</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="102">
+        <v>239255255255</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="101"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="105"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="99">
-        <v>127255255255</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="99">
-        <v>191255255255</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="99">
-        <v>223255255255</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="99">
-        <v>239255255255</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="99">
+      <c r="D7" s="102">
         <v>255255255255</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="101"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="105"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="73" t="s">
         <v>200</v>
       </c>
+      <c r="I10" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="107" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="109" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="110" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" s="110" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="112">
+        <v>10255255255</v>
+      </c>
+      <c r="G13" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="J13" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" s="112">
+        <v>10255255255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="107" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="G17" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="109" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="110" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="K18" s="110" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="112" t="s">
+        <v>325</v>
+      </c>
+      <c r="G19" s="111" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" s="111" t="s">
+        <v>332</v>
+      </c>
+      <c r="I19" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="J19" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" s="112" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="107" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>327</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" s="107" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="G23" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" s="109" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="110" t="s">
+        <v>329</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>327</v>
+      </c>
+      <c r="H24" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="I24" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="110" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" s="111" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="111" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="112">
+        <v>192168255255</v>
+      </c>
+      <c r="G25" s="111" t="s">
+        <v>327</v>
+      </c>
+      <c r="H25" s="111" t="s">
+        <v>328</v>
+      </c>
+      <c r="I25" s="111" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" s="112" t="s">
+        <v>336</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D88E26-4729-48A9-91D1-F9D79CAA05DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A4026-1C67-4904-835C-52A102274819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
   </bookViews>
@@ -1337,7 +1337,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1829,60 +1829,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1917,7 +1863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1937,6 +1883,60 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1958,9 +1958,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1994,6 +1991,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2059,18 +2059,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}" name="Tabla9" displayName="Tabla9" ref="A2:M7" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}" name="Tabla9" displayName="Tabla9" ref="A2:M7" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A2:M7" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{EDAF67C7-E5E9-4608-A92E-CAFD3B4AB203}" name="clase" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{E149126E-3CCC-4978-B68E-BF5AF0E03A51}" name="INI PUB DEC" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{F98B8A6E-C24A-41E9-AB76-9B306D524BDA}" name="INI PUB BIN" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{CC3EC8AD-516A-47FD-93B2-E37468FD8EFB}" name="FIN PUB DEC" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{52175556-F8D6-4D86-A5CF-5479EC5C3EC0}" name="FIN PUB BIN" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{1095EE25-3AC2-4D0C-A82C-D3988A8DF9D0}" name="INI PRIV DEC" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{4764509F-C144-4F47-A60F-5E1528FF07B2}" name="INI PRIV BIN" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{5061D034-8FBD-4551-B950-C590111E589C}" name="FIN PRIV DEC" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{33E5493C-FE47-4A0F-8295-C29A7811D21A}" name="FIN PRIV BIN" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{EDAF67C7-E5E9-4608-A92E-CAFD3B4AB203}" name="clase" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E149126E-3CCC-4978-B68E-BF5AF0E03A51}" name="INI PUB DEC" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F98B8A6E-C24A-41E9-AB76-9B306D524BDA}" name="INI PUB BIN" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{CC3EC8AD-516A-47FD-93B2-E37468FD8EFB}" name="FIN PUB DEC" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{52175556-F8D6-4D86-A5CF-5479EC5C3EC0}" name="FIN PUB BIN" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1095EE25-3AC2-4D0C-A82C-D3988A8DF9D0}" name="INI PRIV DEC" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{4764509F-C144-4F47-A60F-5E1528FF07B2}" name="INI PRIV BIN" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{5061D034-8FBD-4551-B950-C590111E589C}" name="FIN PRIV DEC" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{33E5493C-FE47-4A0F-8295-C29A7811D21A}" name="FIN PRIV BIN" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{8614C845-DCDF-4A45-B65E-C2FA57B07B35}" name="CIDR" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{19891DE4-A391-46DB-93C7-38C3C1791C28}" name="MASK" dataDxfId="2"/>
     <tableColumn id="12" xr3:uid="{B9347E90-A918-4C7F-9642-48CDF84B5E9F}" name="Red" dataDxfId="1"/>
@@ -2411,13 +2411,13 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="96" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2425,17 +2425,17 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="77"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="96"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="96"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2475,7 +2475,7 @@
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="95" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="76"/>
+      <c r="D8" s="95"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2539,16 +2539,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="E3" s="80" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="E3" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -2680,11 +2680,11 @@
       <c r="C10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -2852,10 +2852,10 @@
       <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="85"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -2952,10 +2952,10 @@
       <c r="G5">
         <v>9</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
@@ -3039,11 +3039,11 @@
       <c r="C9" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
       <c r="I9" s="54" t="s">
         <v>150</v>
       </c>
@@ -3055,17 +3055,17 @@
       <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="104"/>
       <c r="E11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="85"/>
+      <c r="G11" s="104"/>
       <c r="I11" t="s">
         <v>166</v>
       </c>
@@ -3077,17 +3077,17 @@
       <c r="A12" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="93"/>
+      <c r="C12" s="108"/>
       <c r="E12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="87"/>
+      <c r="G12" s="110"/>
       <c r="I12" t="s">
         <v>115</v>
       </c>
@@ -3099,17 +3099,17 @@
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="91"/>
+      <c r="C13" s="106"/>
       <c r="E13" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="89"/>
+      <c r="G13" s="102"/>
       <c r="I13" t="s">
         <v>117</v>
       </c>
@@ -3121,17 +3121,17 @@
       <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="93"/>
+      <c r="C14" s="108"/>
       <c r="E14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="87"/>
+      <c r="G14" s="110"/>
       <c r="I14" t="s">
         <v>118</v>
       </c>
@@ -3143,17 +3143,17 @@
       <c r="A15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="91"/>
+      <c r="C15" s="106"/>
       <c r="E15" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="89"/>
+      <c r="G15" s="102"/>
       <c r="I15" t="s">
         <v>119</v>
       </c>
@@ -3163,6 +3163,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B15:C15"/>
@@ -3171,11 +3176,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -3465,16 +3465,16 @@
       <c r="K6" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="103" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
       <c r="T6" s="20" t="s">
         <v>170</v>
       </c>
@@ -3567,19 +3567,19 @@
       <c r="V7" s="57">
         <v>192</v>
       </c>
-      <c r="W7" s="94">
+      <c r="W7" s="76">
         <v>2</v>
       </c>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
       <c r="AD7" s="57">
         <v>192</v>
       </c>
-      <c r="AE7" s="94">
+      <c r="AE7" s="76">
         <v>16</v>
       </c>
     </row>
@@ -3638,20 +3638,20 @@
       <c r="T8" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="V8" s="95">
+      <c r="V8" s="77">
         <v>0</v>
       </c>
       <c r="W8" s="57">
         <v>96</v>
       </c>
-      <c r="X8" s="94">
+      <c r="X8" s="76">
         <v>2</v>
       </c>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="94"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
       <c r="AD8" s="57">
         <v>0</v>
       </c>
@@ -3712,20 +3712,20 @@
       <c r="T9" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="V9" s="96"/>
+      <c r="V9" s="78"/>
       <c r="W9" s="57">
         <v>0</v>
       </c>
       <c r="X9" s="57">
         <v>48</v>
       </c>
-      <c r="Y9" s="94">
+      <c r="Y9" s="76">
         <v>2</v>
       </c>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="94"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
       <c r="AD9" s="57">
         <v>0</v>
       </c>
@@ -3773,19 +3773,19 @@
       <c r="T10" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="W10" s="97"/>
+      <c r="W10" s="79"/>
       <c r="X10" s="57">
         <v>0</v>
       </c>
       <c r="Y10" s="57">
         <v>24</v>
       </c>
-      <c r="Z10" s="94">
+      <c r="Z10" s="76">
         <v>2</v>
       </c>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -3842,22 +3842,22 @@
       <c r="T11" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="X11" s="97"/>
+      <c r="X11" s="79"/>
       <c r="Y11" s="57">
         <v>0</v>
       </c>
       <c r="Z11" s="57">
         <v>12</v>
       </c>
-      <c r="AA11" s="94">
+      <c r="AA11" s="76">
         <v>2</v>
       </c>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
       <c r="AD11" s="57">
         <v>64</v>
       </c>
-      <c r="AE11" s="94">
+      <c r="AE11" s="76">
         <v>16</v>
       </c>
     </row>
@@ -3922,17 +3922,17 @@
       <c r="W12" s="57">
         <v>2</v>
       </c>
-      <c r="Y12" s="97"/>
+      <c r="Y12" s="79"/>
       <c r="Z12" s="57">
         <v>0</v>
       </c>
       <c r="AA12" s="57">
         <v>6</v>
       </c>
-      <c r="AB12" s="94">
+      <c r="AB12" s="76">
         <v>2</v>
       </c>
-      <c r="AC12" s="94"/>
+      <c r="AC12" s="76"/>
       <c r="AD12" s="57">
         <v>0</v>
       </c>
@@ -4004,14 +4004,14 @@
       <c r="X13" s="57">
         <v>2</v>
       </c>
-      <c r="Z13" s="97"/>
+      <c r="Z13" s="79"/>
       <c r="AA13" s="57">
         <v>0</v>
       </c>
       <c r="AB13" s="57">
         <v>3</v>
       </c>
-      <c r="AC13" s="94">
+      <c r="AC13" s="76">
         <v>2</v>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       <c r="Y14" s="57">
         <v>2</v>
       </c>
-      <c r="AA14" s="97"/>
+      <c r="AA14" s="79"/>
       <c r="AB14" s="57">
         <v>1</v>
       </c>
@@ -4096,12 +4096,12 @@
       <c r="E15" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="90">
+      <c r="F15" s="105">
         <v>46610</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="106"/>
       <c r="K15" s="70">
         <v>220</v>
       </c>
@@ -4141,8 +4141,8 @@
       <c r="Z15" s="57">
         <v>2</v>
       </c>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="98"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="80"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -4375,10 +4375,10 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4389,9 +4389,9 @@
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="81" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="81" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -4402,24 +4402,24 @@
       <c r="A1" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80" t="s">
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4440,13 +4440,13 @@
       <c r="F2" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="81" t="s">
         <v>275</v>
       </c>
       <c r="H2" t="s">
         <v>279</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="81" t="s">
         <v>280</v>
       </c>
       <c r="J2" t="s">
@@ -4463,188 +4463,188 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="102">
+      <c r="D3" s="84">
         <v>127255255255</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="82" t="s">
         <v>281</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="H3" s="102">
+      <c r="H3" s="84">
         <v>10255255255</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="L3" s="101" t="s">
+      <c r="L3" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="106">
+      <c r="M3" s="88">
         <f t="shared" ref="M3" si="0">2^24-2</f>
         <v>16777214</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="102">
+      <c r="D4" s="84">
         <v>191255255255</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="82" t="s">
         <v>282</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="H4" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="J4" s="101" t="s">
+      <c r="J4" s="83" t="s">
         <v>296</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="L4" s="101" t="s">
+      <c r="L4" s="83" t="s">
         <v>303</v>
       </c>
-      <c r="M4" s="105">
+      <c r="M4" s="87">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="83" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="84">
         <v>223255255255</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="102">
+      <c r="H5" s="84">
         <v>192168255255</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="83" t="s">
         <v>297</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="L5" s="101" t="s">
+      <c r="L5" s="83" t="s">
         <v>304</v>
       </c>
-      <c r="M5" s="105">
+      <c r="M5" s="87">
         <f>2^8-2</f>
         <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="84">
         <v>239255255255</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101" t="s">
+      <c r="G6" s="83"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="105"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="84">
         <v>255255255255</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="82" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="105"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="87"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -4697,7 +4697,7 @@
       <c r="E10" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="89" t="s">
         <v>312</v>
       </c>
       <c r="G10" s="73" t="s">
@@ -4712,7 +4712,7 @@
       <c r="J10" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="107" t="s">
+      <c r="K10" s="89" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4720,34 +4720,34 @@
       <c r="A11" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="90" t="s">
         <v>317</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="G11" s="108" t="s">
+      <c r="G11" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="108" t="s">
+      <c r="H11" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="I11" s="108" t="s">
+      <c r="I11" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="K11" s="109" t="s">
+      <c r="K11" s="91" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       <c r="E12" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="92" t="s">
         <v>281</v>
       </c>
       <c r="G12" s="73" t="s">
@@ -4782,7 +4782,7 @@
       <c r="J12" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="K12" s="110" t="s">
+      <c r="K12" s="92" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4790,34 +4790,34 @@
       <c r="A13" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="93" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="111" t="s">
+      <c r="E13" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="94">
         <v>10255255255</v>
       </c>
-      <c r="G13" s="111" t="s">
+      <c r="G13" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="111" t="s">
+      <c r="H13" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="I13" s="111" t="s">
+      <c r="I13" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="J13" s="111" t="s">
+      <c r="J13" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="K13" s="112">
+      <c r="K13" s="94">
         <v>10255255255</v>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
       <c r="E16" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="F16" s="107" t="s">
+      <c r="F16" s="89" t="s">
         <v>320</v>
       </c>
       <c r="G16" s="73" t="s">
@@ -4887,7 +4887,7 @@
       <c r="J16" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="K16" s="107" t="s">
+      <c r="K16" s="89" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4895,34 +4895,34 @@
       <c r="A17" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="G17" s="108" t="s">
+      <c r="G17" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="I17" s="108" t="s">
+      <c r="I17" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="K17" s="109" t="s">
+      <c r="K17" s="91" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
       <c r="E18" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="110" t="s">
+      <c r="F18" s="92" t="s">
         <v>324</v>
       </c>
       <c r="G18" s="73" t="s">
@@ -4957,7 +4957,7 @@
       <c r="J18" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="K18" s="110" t="s">
+      <c r="K18" s="92" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4965,34 +4965,34 @@
       <c r="A19" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="93" t="s">
         <v>321</v>
       </c>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="E19" s="111" t="s">
+      <c r="E19" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="94" t="s">
         <v>325</v>
       </c>
-      <c r="G19" s="111" t="s">
+      <c r="G19" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="H19" s="111" t="s">
+      <c r="H19" s="93" t="s">
         <v>332</v>
       </c>
-      <c r="I19" s="111" t="s">
+      <c r="I19" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="J19" s="111" t="s">
+      <c r="J19" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="K19" s="112" t="s">
+      <c r="K19" s="94" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5047,7 +5047,7 @@
       <c r="E22" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="107" t="s">
+      <c r="F22" s="89" t="s">
         <v>326</v>
       </c>
       <c r="G22" s="73" t="s">
@@ -5062,7 +5062,7 @@
       <c r="J22" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="K22" s="107" t="s">
+      <c r="K22" s="89" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5070,34 +5070,34 @@
       <c r="A23" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="E23" s="108" t="s">
+      <c r="E23" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="F23" s="109" t="s">
+      <c r="F23" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="G23" s="108" t="s">
+      <c r="G23" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="108" t="s">
+      <c r="H23" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="108" t="s">
+      <c r="I23" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="108" t="s">
+      <c r="J23" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="K23" s="109" t="s">
+      <c r="K23" s="91" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
       <c r="E24" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="110" t="s">
+      <c r="F24" s="92" t="s">
         <v>329</v>
       </c>
       <c r="G24" s="73" t="s">
@@ -5132,7 +5132,7 @@
       <c r="J24" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="K24" s="110" t="s">
+      <c r="K24" s="92" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5140,34 +5140,34 @@
       <c r="A25" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="93" t="s">
         <v>327</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="93" t="s">
         <v>328</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="111" t="s">
+      <c r="E25" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="F25" s="112">
+      <c r="F25" s="94">
         <v>192168255255</v>
       </c>
-      <c r="G25" s="111" t="s">
+      <c r="G25" s="93" t="s">
         <v>327</v>
       </c>
-      <c r="H25" s="111" t="s">
+      <c r="H25" s="93" t="s">
         <v>328</v>
       </c>
-      <c r="I25" s="111" t="s">
+      <c r="I25" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="J25" s="111" t="s">
+      <c r="J25" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="K25" s="112" t="s">
+      <c r="K25" s="94" t="s">
         <v>336</v>
       </c>
     </row>

--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A4026-1C67-4904-835C-52A102274819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8EC39-2174-4874-A0BA-4B28015E6E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
     <sheet name="unidades" sheetId="3" r:id="rId2"/>
     <sheet name="fisica" sheetId="2" r:id="rId3"/>
     <sheet name="sist" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
+    <sheet name="ipv4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="337">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -1383,7 +1384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1491,6 +1492,16 @@
         <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="315">
+        <stop position="0">
+          <color theme="4" tint="-0.25098422193060094"/>
+        </stop>
+        <stop position="1">
+          <color theme="0"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="13">
@@ -1632,7 +1643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1838,9 +1849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1902,18 +1910,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1926,17 +1946,26 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2411,13 +2440,13 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2425,17 +2454,17 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="95"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="95"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2475,7 +2504,7 @@
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="94" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2489,7 +2518,7 @@
       <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="95"/>
+      <c r="D8" s="94"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2539,16 +2568,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="E3" s="99" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="E3" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -2680,11 +2709,11 @@
       <c r="C10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -2852,10 +2881,10 @@
       <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="104"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -2952,10 +2981,10 @@
       <c r="G5">
         <v>9</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="112"/>
+      <c r="J5" s="101"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
@@ -3039,11 +3068,11 @@
       <c r="C9" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
       <c r="I9" s="54" t="s">
         <v>150</v>
       </c>
@@ -3055,17 +3084,17 @@
       <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="104"/>
+      <c r="C11" s="103"/>
       <c r="E11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="104"/>
+      <c r="G11" s="103"/>
       <c r="I11" t="s">
         <v>166</v>
       </c>
@@ -3077,17 +3106,17 @@
       <c r="A12" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="108"/>
+      <c r="C12" s="111"/>
       <c r="E12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="110"/>
+      <c r="G12" s="105"/>
       <c r="I12" t="s">
         <v>115</v>
       </c>
@@ -3099,17 +3128,17 @@
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="106"/>
+      <c r="C13" s="109"/>
       <c r="E13" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="102"/>
+      <c r="G13" s="107"/>
       <c r="I13" t="s">
         <v>117</v>
       </c>
@@ -3121,17 +3150,17 @@
       <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="108"/>
+      <c r="C14" s="111"/>
       <c r="E14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="110"/>
+      <c r="G14" s="105"/>
       <c r="I14" t="s">
         <v>118</v>
       </c>
@@ -3143,17 +3172,17 @@
       <c r="A15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="106"/>
+      <c r="C15" s="109"/>
       <c r="E15" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="101" t="s">
+      <c r="F15" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="102"/>
+      <c r="G15" s="107"/>
       <c r="I15" t="s">
         <v>119</v>
       </c>
@@ -3163,11 +3192,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B15:C15"/>
@@ -3176,6 +3200,11 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -3189,9 +3218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E27903-722B-4F14-9E0C-7C009F22E76C}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F13:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3201,7 +3230,8 @@
     <col min="3" max="3" width="6.140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="2.42578125" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.140625" customWidth="1"/>
     <col min="11" max="11" width="6.140625" customWidth="1"/>
     <col min="12" max="19" width="4.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -3465,16 +3495,16 @@
       <c r="K6" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="103" t="s">
+      <c r="L6" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
       <c r="T6" s="20" t="s">
         <v>170</v>
       </c>
@@ -3773,7 +3803,7 @@
       <c r="T10" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="W10" s="79"/>
+      <c r="W10" s="112"/>
       <c r="X10" s="57">
         <v>0</v>
       </c>
@@ -3842,7 +3872,9 @@
       <c r="T11" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="X11" s="79"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="112"/>
       <c r="Y11" s="57">
         <v>0</v>
       </c>
@@ -3919,10 +3951,11 @@
       <c r="V12" s="57">
         <v>45</v>
       </c>
-      <c r="W12" s="57">
+      <c r="W12" s="76">
         <v>2</v>
       </c>
-      <c r="Y12" s="79"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="112"/>
       <c r="Z12" s="57">
         <v>0</v>
       </c>
@@ -3953,17 +3986,17 @@
       <c r="E13" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="113">
         <v>32768</v>
       </c>
-      <c r="G13" s="66">
-        <v>1024</v>
-      </c>
-      <c r="H13" s="66">
-        <v>16</v>
-      </c>
-      <c r="I13" s="67">
-        <v>2</v>
+      <c r="G13" s="113">
+        <v>0</v>
+      </c>
+      <c r="H13" s="113">
+        <v>0</v>
+      </c>
+      <c r="I13" s="114">
+        <v>0</v>
       </c>
       <c r="K13" s="70">
         <v>133</v>
@@ -4001,10 +4034,11 @@
       <c r="W13" s="57">
         <v>22</v>
       </c>
-      <c r="X13" s="57">
+      <c r="X13" s="76">
         <v>2</v>
       </c>
-      <c r="Z13" s="79"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="112"/>
       <c r="AA13" s="57">
         <v>0</v>
       </c>
@@ -4028,14 +4062,18 @@
       <c r="E14" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="68">
-        <v>8192</v>
-      </c>
-      <c r="G14" s="68">
-        <v>512</v>
-      </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
+      <c r="F14" s="115">
+        <v>0</v>
+      </c>
+      <c r="G14" s="115">
+        <v>1024</v>
+      </c>
+      <c r="H14" s="115">
+        <v>0</v>
+      </c>
+      <c r="I14" s="116">
+        <v>0</v>
+      </c>
       <c r="K14" s="71">
         <v>144</v>
       </c>
@@ -4072,10 +4110,11 @@
       <c r="X14" s="57">
         <v>11</v>
       </c>
-      <c r="Y14" s="57">
+      <c r="Y14" s="76">
         <v>2</v>
       </c>
-      <c r="AA14" s="79"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="112"/>
       <c r="AB14" s="57">
         <v>1</v>
       </c>
@@ -4093,15 +4132,21 @@
       <c r="C15" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="105">
-        <v>46610</v>
-      </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="106"/>
+      <c r="E15" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="113">
+        <v>8192</v>
+      </c>
+      <c r="G15" s="113">
+        <v>512</v>
+      </c>
+      <c r="H15" s="113">
+        <v>0</v>
+      </c>
+      <c r="I15" s="114">
+        <v>2</v>
+      </c>
       <c r="K15" s="70">
         <v>220</v>
       </c>
@@ -4138,11 +4183,12 @@
       <c r="Y15" s="57">
         <v>5</v>
       </c>
-      <c r="Z15" s="57">
+      <c r="Z15" s="76">
         <v>2</v>
       </c>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="80"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="112"/>
+      <c r="AC15" s="79"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -4154,6 +4200,21 @@
       <c r="C16" s="13" t="s">
         <v>194</v>
       </c>
+      <c r="E16" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="115">
+        <v>4096</v>
+      </c>
+      <c r="G16" s="115">
+        <v>0</v>
+      </c>
+      <c r="H16" s="115">
+        <v>16</v>
+      </c>
+      <c r="I16" s="116">
+        <v>0</v>
+      </c>
       <c r="K16" s="71">
         <v>172</v>
       </c>
@@ -4190,9 +4251,11 @@
       <c r="Z16" s="57">
         <v>2</v>
       </c>
-      <c r="AA16" s="57">
+      <c r="AA16" s="76">
         <v>2</v>
       </c>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
       <c r="AD16" s="57">
         <v>172</v>
       </c>
@@ -4210,6 +4273,16 @@
       <c r="C17" s="13" t="s">
         <v>195</v>
       </c>
+      <c r="E17" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="117">
+        <f>SUM(F13:I16)</f>
+        <v>46610</v>
+      </c>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="118"/>
       <c r="K17" s="70">
         <v>127</v>
       </c>
@@ -4359,7 +4432,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="L6:S6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4374,8 +4447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAABD20-1661-4701-AEBF-370049248633}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
@@ -4389,9 +4462,9 @@
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -4402,24 +4475,24 @@
       <c r="A1" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="98" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99" t="s">
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99" t="s">
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4440,13 +4513,13 @@
       <c r="F2" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="80" t="s">
         <v>275</v>
       </c>
       <c r="H2" t="s">
         <v>279</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="80" t="s">
         <v>280</v>
       </c>
       <c r="J2" t="s">
@@ -4463,188 +4536,188 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="83">
         <v>127255255255</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="H3" s="84">
+      <c r="H3" s="83">
         <v>10255255255</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="88">
+      <c r="M3" s="87">
         <f t="shared" ref="M3" si="0">2^24-2</f>
         <v>16777214</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="82" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="83">
         <v>191255255255</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="81" t="s">
         <v>282</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="82" t="s">
         <v>303</v>
       </c>
-      <c r="M4" s="87">
+      <c r="M4" s="86">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="83">
         <v>223255255255</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="82" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="83">
         <v>192168255255</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="82" t="s">
         <v>297</v>
       </c>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="85" t="s">
         <v>300</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="M5" s="87">
+      <c r="M5" s="86">
         <f>2^8-2</f>
         <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="83">
         <v>239255255255</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="82" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83" t="s">
+      <c r="G6" s="82"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="87"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="82" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="83">
         <v>255255255255</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="81" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83" t="s">
+      <c r="G7" s="82"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="87"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="86"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -4697,7 +4770,7 @@
       <c r="E10" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="88" t="s">
         <v>312</v>
       </c>
       <c r="G10" s="73" t="s">
@@ -4712,7 +4785,7 @@
       <c r="J10" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="88" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4720,34 +4793,34 @@
       <c r="A11" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="89" t="s">
         <v>317</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="90" t="s">
+      <c r="H11" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="I11" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="J11" s="90" t="s">
+      <c r="J11" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="90" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4767,7 +4840,7 @@
       <c r="E12" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="91" t="s">
         <v>281</v>
       </c>
       <c r="G12" s="73" t="s">
@@ -4782,7 +4855,7 @@
       <c r="J12" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="91" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4790,34 +4863,34 @@
       <c r="A13" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="92" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="93">
         <v>10255255255</v>
       </c>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="I13" s="93" t="s">
+      <c r="I13" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="J13" s="93" t="s">
+      <c r="J13" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="K13" s="94">
+      <c r="K13" s="93">
         <v>10255255255</v>
       </c>
     </row>
@@ -4872,7 +4945,7 @@
       <c r="E16" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="F16" s="89" t="s">
+      <c r="F16" s="88" t="s">
         <v>320</v>
       </c>
       <c r="G16" s="73" t="s">
@@ -4887,7 +4960,7 @@
       <c r="J16" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="K16" s="89" t="s">
+      <c r="K16" s="88" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4895,34 +4968,34 @@
       <c r="A17" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="91" t="s">
+      <c r="F17" s="90" t="s">
         <v>299</v>
       </c>
-      <c r="G17" s="90" t="s">
+      <c r="G17" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="I17" s="90" t="s">
+      <c r="I17" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="J17" s="90" t="s">
+      <c r="J17" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="K17" s="91" t="s">
+      <c r="K17" s="90" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4942,7 +5015,7 @@
       <c r="E18" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="92" t="s">
+      <c r="F18" s="91" t="s">
         <v>324</v>
       </c>
       <c r="G18" s="73" t="s">
@@ -4957,7 +5030,7 @@
       <c r="J18" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="K18" s="92" t="s">
+      <c r="K18" s="91" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4965,34 +5038,34 @@
       <c r="A19" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="92" t="s">
         <v>321</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="93" t="s">
         <v>325</v>
       </c>
-      <c r="G19" s="93" t="s">
+      <c r="G19" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="H19" s="93" t="s">
+      <c r="H19" s="92" t="s">
         <v>332</v>
       </c>
-      <c r="I19" s="93" t="s">
+      <c r="I19" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="J19" s="93" t="s">
+      <c r="J19" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="K19" s="94" t="s">
+      <c r="K19" s="93" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5047,7 +5120,7 @@
       <c r="E22" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="89" t="s">
+      <c r="F22" s="88" t="s">
         <v>326</v>
       </c>
       <c r="G22" s="73" t="s">
@@ -5062,7 +5135,7 @@
       <c r="J22" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="K22" s="89" t="s">
+      <c r="K22" s="88" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5070,34 +5143,34 @@
       <c r="A23" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="90" t="s">
+      <c r="D23" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="E23" s="90" t="s">
+      <c r="E23" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="F23" s="91" t="s">
+      <c r="F23" s="90" t="s">
         <v>300</v>
       </c>
-      <c r="G23" s="90" t="s">
+      <c r="G23" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="90" t="s">
+      <c r="H23" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="90" t="s">
+      <c r="I23" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="90" t="s">
+      <c r="J23" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="K23" s="91" t="s">
+      <c r="K23" s="90" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5117,7 +5190,7 @@
       <c r="E24" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="91" t="s">
         <v>329</v>
       </c>
       <c r="G24" s="73" t="s">
@@ -5132,7 +5205,7 @@
       <c r="J24" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="K24" s="92" t="s">
+      <c r="K24" s="91" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5140,34 +5213,34 @@
       <c r="A25" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="92" t="s">
         <v>327</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="92" t="s">
         <v>328</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="93">
         <v>192168255255</v>
       </c>
-      <c r="G25" s="93" t="s">
+      <c r="G25" s="92" t="s">
         <v>327</v>
       </c>
-      <c r="H25" s="93" t="s">
+      <c r="H25" s="92" t="s">
         <v>328</v>
       </c>
-      <c r="I25" s="93" t="s">
+      <c r="I25" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="J25" s="93" t="s">
+      <c r="J25" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="K25" s="94" t="s">
+      <c r="K25" s="93" t="s">
         <v>336</v>
       </c>
     </row>

--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8EC39-2174-4874-A0BA-4B28015E6E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06772B9-04BD-4412-BD4C-517541683158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="fisica" sheetId="2" r:id="rId3"/>
     <sheet name="sist" sheetId="4" r:id="rId4"/>
     <sheet name="ipv4" sheetId="5" r:id="rId5"/>
+    <sheet name="classic" sheetId="6" r:id="rId6"/>
+    <sheet name="vlsm" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="516">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -1331,6 +1332,771 @@
   <si>
     <t>192.168.1.255</t>
   </si>
+  <si>
+    <t>Subnetting Classic</t>
+  </si>
+  <si>
+    <t>Subnetting VLSM</t>
+  </si>
+  <si>
+    <t>Practica que consiste en la reduccion de la porcion de hosts con el objetivo de generar una mayor cantidad de subredes</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>Solicitado</t>
+  </si>
+  <si>
+    <t>2^n &gt;= S</t>
+  </si>
+  <si>
+    <t>mask + n</t>
+  </si>
+  <si>
+    <t>Next Hop</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>H = bits 0</t>
+  </si>
+  <si>
+    <t>32 - cidr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2^H - 2 </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>DEC CIDR</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 256 / X</t>
+  </si>
+  <si>
+    <t>subredes</t>
+  </si>
+  <si>
+    <t>255.224.0.0</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Primer IP</t>
+  </si>
+  <si>
+    <t>Ultima IP</t>
+  </si>
+  <si>
+    <t>/11</t>
+  </si>
+  <si>
+    <t>10.32.0.0</t>
+  </si>
+  <si>
+    <t>10.64.0.0</t>
+  </si>
+  <si>
+    <t>10.96.0.0</t>
+  </si>
+  <si>
+    <t>10.128.0.0</t>
+  </si>
+  <si>
+    <t>10.160.0.0</t>
+  </si>
+  <si>
+    <t>10.192.0.0</t>
+  </si>
+  <si>
+    <t>10.224.0.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>10.32.0.1</t>
+  </si>
+  <si>
+    <t>10.64.0.1</t>
+  </si>
+  <si>
+    <t>10.96.0.1</t>
+  </si>
+  <si>
+    <t>10.128.0.1</t>
+  </si>
+  <si>
+    <t>10.160.0.1</t>
+  </si>
+  <si>
+    <t>10.192.0.1</t>
+  </si>
+  <si>
+    <t>10.224.0.1</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>10.31.255.255</t>
+  </si>
+  <si>
+    <t>10.63.255.255</t>
+  </si>
+  <si>
+    <t>10.95.255.255</t>
+  </si>
+  <si>
+    <t>10.31.255.254</t>
+  </si>
+  <si>
+    <t>10.63.255.254</t>
+  </si>
+  <si>
+    <t>10.95.255.254</t>
+  </si>
+  <si>
+    <t>/18</t>
+  </si>
+  <si>
+    <t>255.224.0.1</t>
+  </si>
+  <si>
+    <t>255.224.0.2</t>
+  </si>
+  <si>
+    <t>255.224.0.3</t>
+  </si>
+  <si>
+    <t>255.224.0.4</t>
+  </si>
+  <si>
+    <t>255.224.0.5</t>
+  </si>
+  <si>
+    <t>255.224.0.6</t>
+  </si>
+  <si>
+    <t>255.224.0.7</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>impar</t>
+  </si>
+  <si>
+    <t>172.20.0.1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>17.20.255.255</t>
+  </si>
+  <si>
+    <t>255.255.192.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <t>172.20.64.0</t>
+  </si>
+  <si>
+    <t>172.20.128.0</t>
+  </si>
+  <si>
+    <t>172.20.192.0</t>
+  </si>
+  <si>
+    <t>172.20.64.1</t>
+  </si>
+  <si>
+    <t>172.20.128.1</t>
+  </si>
+  <si>
+    <t>172.20.192.1</t>
+  </si>
+  <si>
+    <t>172.20.63.255</t>
+  </si>
+  <si>
+    <t>172.20.127.255</t>
+  </si>
+  <si>
+    <t>172.20.191.255</t>
+  </si>
+  <si>
+    <t>172.20.63.254</t>
+  </si>
+  <si>
+    <t>172.20.127.254</t>
+  </si>
+  <si>
+    <t>172.20.191.254</t>
+  </si>
+  <si>
+    <t>17.20.255.254</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>192.168.0.32</t>
+  </si>
+  <si>
+    <t>192.168.0.64</t>
+  </si>
+  <si>
+    <t>192.168.0.96</t>
+  </si>
+  <si>
+    <t>192.168.0.128</t>
+  </si>
+  <si>
+    <t>192.168.0.160</t>
+  </si>
+  <si>
+    <t>192.168.0.192</t>
+  </si>
+  <si>
+    <t>192.168.0.224</t>
+  </si>
+  <si>
+    <t>192.168.0.33</t>
+  </si>
+  <si>
+    <t>192.168.0.65</t>
+  </si>
+  <si>
+    <t>192.168.0.97</t>
+  </si>
+  <si>
+    <t>192.168.0.129</t>
+  </si>
+  <si>
+    <t>192.168.0.161</t>
+  </si>
+  <si>
+    <t>192.168.0.193</t>
+  </si>
+  <si>
+    <t>192.168.0.225</t>
+  </si>
+  <si>
+    <t>192.168.0.30</t>
+  </si>
+  <si>
+    <t>192.168.0.31</t>
+  </si>
+  <si>
+    <t>192.168.0.62</t>
+  </si>
+  <si>
+    <t>192.168.0.63</t>
+  </si>
+  <si>
+    <t>192.168.0.94</t>
+  </si>
+  <si>
+    <t>192.168.0.126</t>
+  </si>
+  <si>
+    <t>192.168.0.158</t>
+  </si>
+  <si>
+    <t>192.168.0.190</t>
+  </si>
+  <si>
+    <t>192.168.0.222</t>
+  </si>
+  <si>
+    <t>192.168.0.254</t>
+  </si>
+  <si>
+    <t>192.168.0.95</t>
+  </si>
+  <si>
+    <t>192.168.0.127</t>
+  </si>
+  <si>
+    <t>192.168.0.159</t>
+  </si>
+  <si>
+    <t>192.168.0.191</t>
+  </si>
+  <si>
+    <t>192.168.0.223</t>
+  </si>
+  <si>
+    <t>192.168.0.255</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t>/28</t>
+  </si>
+  <si>
+    <t>Mascara de Subred de ancho variable  es un metodo que prioriza la cantidad de hosts en lugar de las subredes</t>
+  </si>
+  <si>
+    <t>hosts</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>2^H &gt;= h</t>
+  </si>
+  <si>
+    <t>32 - H</t>
+  </si>
+  <si>
+    <t>Depto</t>
+  </si>
+  <si>
+    <t>Cidr</t>
+  </si>
+  <si>
+    <t>max hosts</t>
+  </si>
+  <si>
+    <t>next hop</t>
+  </si>
+  <si>
+    <t>last bit 1</t>
+  </si>
+  <si>
+    <t>10.0.1.0</t>
+  </si>
+  <si>
+    <t>10.0.0.255</t>
+  </si>
+  <si>
+    <t>10.0.0.254</t>
+  </si>
+  <si>
+    <t>10.0.1.1</t>
+  </si>
+  <si>
+    <t>/25</t>
+  </si>
+  <si>
+    <t>10.0.1.128</t>
+  </si>
+  <si>
+    <t>10.0.1.129</t>
+  </si>
+  <si>
+    <t>10.0.1.127</t>
+  </si>
+  <si>
+    <t>10.0.1.126</t>
+  </si>
+  <si>
+    <t>/26</t>
+  </si>
+  <si>
+    <t>10.0.1.190</t>
+  </si>
+  <si>
+    <t>10.0.1.191</t>
+  </si>
+  <si>
+    <t>10.0.1.192</t>
+  </si>
+  <si>
+    <t>10.0.1.224</t>
+  </si>
+  <si>
+    <t>10.0.1.223</t>
+  </si>
+  <si>
+    <t>10.0.1.222</t>
+  </si>
+  <si>
+    <t>10.0.1.193</t>
+  </si>
+  <si>
+    <t>10.0.1.240</t>
+  </si>
+  <si>
+    <t>10.0.1.225</t>
+  </si>
+  <si>
+    <t>10.0.1.239</t>
+  </si>
+  <si>
+    <t>10.0.1.238</t>
+  </si>
+  <si>
+    <t>10.0.1.241</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>10.0.0.30</t>
+  </si>
+  <si>
+    <t>10.0.0.31</t>
+  </si>
+  <si>
+    <t>10.0.0.32</t>
+  </si>
+  <si>
+    <t>10.0.0.33</t>
+  </si>
+  <si>
+    <t>10.0.0.160</t>
+  </si>
+  <si>
+    <t>10.0.0.159</t>
+  </si>
+  <si>
+    <t>10.0.0.158</t>
+  </si>
+  <si>
+    <t>10.0.0.161</t>
+  </si>
+  <si>
+    <t>10.0.0.176</t>
+  </si>
+  <si>
+    <t>10.0.0.174</t>
+  </si>
+  <si>
+    <t>10.0.0.175</t>
+  </si>
+  <si>
+    <t>10.0.1.176</t>
+  </si>
+  <si>
+    <t>10.0.0.177</t>
+  </si>
+  <si>
+    <t>10.0.1.174</t>
+  </si>
+  <si>
+    <t>10.0.1.175</t>
+  </si>
+  <si>
+    <t>10.0.1.177</t>
+  </si>
+  <si>
+    <t>10.0.0.128</t>
+  </si>
+  <si>
+    <t>10.0.0.129</t>
+  </si>
+  <si>
+    <t>10.0.1.14</t>
+  </si>
+  <si>
+    <t>10.0.1.15</t>
+  </si>
+  <si>
+    <t>10.0.2.0</t>
+  </si>
+  <si>
+    <t>10.0.2.1</t>
+  </si>
+  <si>
+    <t>10.0.2.254</t>
+  </si>
+  <si>
+    <t>10.0.2.255</t>
+  </si>
+  <si>
+    <t>10.0.3.0</t>
+  </si>
+  <si>
+    <t>10.0.3.1</t>
+  </si>
+  <si>
+    <t>10.0.3.62</t>
+  </si>
+  <si>
+    <t>10.0.3.63</t>
+  </si>
+  <si>
+    <t>10.0.3.64</t>
+  </si>
 </sst>
 </file>
 
@@ -1340,7 +2106,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1379,6 +2145,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1643,7 +2438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1892,6 +2687,24 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1910,69 +2723,334 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2038,6 +3116,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF800000"/>
       <color rgb="FFCC0000"/>
     </mruColors>
   </colors>
@@ -2064,6 +3143,27 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AD7D8AAC-69A7-448A-8EDB-02F635ECC831}" name="Tabla71112" displayName="Tabla71112" ref="A24:I30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A24:I30" xr:uid="{AD7D8AAC-69A7-448A-8EDB-02F635ECC831}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:I29">
+    <sortCondition ref="A16:A21"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{67B2C356-8937-4C65-A41F-E9C0F2339573}" name="Depto" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{685A8300-6543-40DE-8662-81C86E1BFA53}" name="Hosts" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{17E04AA1-F0BD-4E59-8B5B-BC8833B4C383}" name="Red" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{FD310628-66B1-449E-B6B7-ACA99620088A}" name="Primer IP" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{64129FA4-3B58-4516-9C68-2FD59BBB690D}" name="Ultima IP" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{811CFF2D-B98F-4EBC-9473-16D7771AA5E9}" name="Broadcast" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5BC778E5-99FD-47A4-8274-4479460A5DEC}" name="Cidr" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{C88EC5E2-3B8C-4BE8-8698-20CF18FBBF41}" name="Mask" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{27612997-CD62-4FD9-9A85-69D83C258E99}" name="max hosts" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{23B73BE4-0D8B-4B16-A1EA-10C26A5C6ADD}" name="Tabla6" displayName="Tabla6" ref="I11:J15" totalsRowShown="0">
   <autoFilter ref="I11:J15" xr:uid="{23B73BE4-0D8B-4B16-A1EA-10C26A5C6ADD}"/>
@@ -2079,35 +3179,128 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{348EE143-754B-4053-9C91-CD5ADCDC3C80}" name="Tabla8" displayName="Tabla8" ref="A1:C21" totalsRowShown="0">
   <autoFilter ref="A1:C21" xr:uid="{348EE143-754B-4053-9C91-CD5ADCDC3C80}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{77C74CC8-6526-42F7-9351-E5D946B40836}" name="DEC" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{2B452F18-D4FB-4B0C-8B91-18258870F2AE}" name="BIN" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{030F421C-063D-4ECA-9795-5D20CAD1E337}" name="HEX" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{77C74CC8-6526-42F7-9351-E5D946B40836}" name="DEC" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{2B452F18-D4FB-4B0C-8B91-18258870F2AE}" name="BIN" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{030F421C-063D-4ECA-9795-5D20CAD1E337}" name="HEX" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}" name="Tabla9" displayName="Tabla9" ref="A2:M7" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}" name="Tabla9" displayName="Tabla9" ref="A2:M7" totalsRowShown="0" dataDxfId="54">
   <autoFilter ref="A2:M7" xr:uid="{9C3D4CAA-09BB-4141-88B0-BF4552179A19}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{EDAF67C7-E5E9-4608-A92E-CAFD3B4AB203}" name="clase" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E149126E-3CCC-4978-B68E-BF5AF0E03A51}" name="INI PUB DEC" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{F98B8A6E-C24A-41E9-AB76-9B306D524BDA}" name="INI PUB BIN" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{CC3EC8AD-516A-47FD-93B2-E37468FD8EFB}" name="FIN PUB DEC" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{52175556-F8D6-4D86-A5CF-5479EC5C3EC0}" name="FIN PUB BIN" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{1095EE25-3AC2-4D0C-A82C-D3988A8DF9D0}" name="INI PRIV DEC" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{4764509F-C144-4F47-A60F-5E1528FF07B2}" name="INI PRIV BIN" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{5061D034-8FBD-4551-B950-C590111E589C}" name="FIN PRIV DEC" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{33E5493C-FE47-4A0F-8295-C29A7811D21A}" name="FIN PRIV BIN" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{8614C845-DCDF-4A45-B65E-C2FA57B07B35}" name="CIDR" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{19891DE4-A391-46DB-93C7-38C3C1791C28}" name="MASK" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{B9347E90-A918-4C7F-9642-48CDF84B5E9F}" name="Red" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{BF9F29F7-44FA-4436-85F9-C1100522CDDF}" name="Hosts" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{EDAF67C7-E5E9-4608-A92E-CAFD3B4AB203}" name="clase" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{E149126E-3CCC-4978-B68E-BF5AF0E03A51}" name="INI PUB DEC" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{F98B8A6E-C24A-41E9-AB76-9B306D524BDA}" name="INI PUB BIN" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{CC3EC8AD-516A-47FD-93B2-E37468FD8EFB}" name="FIN PUB DEC" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{52175556-F8D6-4D86-A5CF-5479EC5C3EC0}" name="FIN PUB BIN" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{1095EE25-3AC2-4D0C-A82C-D3988A8DF9D0}" name="INI PRIV DEC" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{4764509F-C144-4F47-A60F-5E1528FF07B2}" name="INI PRIV BIN" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{5061D034-8FBD-4551-B950-C590111E589C}" name="FIN PRIV DEC" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{33E5493C-FE47-4A0F-8295-C29A7811D21A}" name="FIN PRIV BIN" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{8614C845-DCDF-4A45-B65E-C2FA57B07B35}" name="CIDR" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{19891DE4-A391-46DB-93C7-38C3C1791C28}" name="MASK" dataDxfId="43"/>
+    <tableColumn id="12" xr3:uid="{B9347E90-A918-4C7F-9642-48CDF84B5E9F}" name="Red" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{BF9F29F7-44FA-4436-85F9-C1100522CDDF}" name="Hosts" dataDxfId="41">
       <calculatedColumnFormula>2^24-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0E06427-0524-4462-A6F4-02FCDFA1E02D}" name="Tabla1" displayName="Tabla1" ref="A8:H16" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A8:H16" xr:uid="{B0E06427-0524-4462-A6F4-02FCDFA1E02D}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7C31CEE1-637A-41B4-8569-02AEB5DE578B}" name="Bin" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{5E57E2DE-01BD-4981-8801-13E3A67AD558}" name="Red" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{3011CEF8-86B7-4772-A8D5-20F2BFB630A1}" name="Primer IP" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{2DD9F808-8D28-4B29-8A7B-70820F124EBE}" name="Ultima IP" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{E0DBBB3A-1769-4E7C-ACF5-A1CA055730D5}" name="Broadcast" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{8A0BBCCE-3804-42E5-A8F2-54D5AC6E1244}" name="Hosts" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{B5623806-478F-4DD6-B313-1FBC544ADD18}" name="cidr" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{744F3338-6961-4BF2-9E25-3EE59BF7A8DF}" name="mask" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C20C4BC1-3509-4CB8-A82D-56E2DB78737E}" name="Tabla13" displayName="Tabla13" ref="A20:H24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A20:H24" xr:uid="{C20C4BC1-3509-4CB8-A82D-56E2DB78737E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7A683BF2-1E90-49A5-B076-273830551432}" name="Bin" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{7FE32772-2EA6-4857-B86E-72B1C60D6AED}" name="Red" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{E2025C8C-9F32-4111-AC14-6E6689F0A9F8}" name="Primer IP" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{182DFCFD-6F96-4463-859C-9AD63609C771}" name="Ultima IP" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{6E99F678-B4A6-458D-8315-A859E75E76A8}" name="Broadcast" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{23D225AB-384C-4E77-9E7F-8FF932817DB9}" name="Hosts" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{B87192DB-06DB-457A-B456-0D18ABCE42DA}" name="cidr" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{B3F060EB-FF39-4101-B438-86B74D6E6E25}" name="mask" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2D856B81-A894-4B25-9C3E-E5246494B68F}" name="Tabla15" displayName="Tabla15" ref="A28:H36" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A28:H36" xr:uid="{2D856B81-A894-4B25-9C3E-E5246494B68F}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{4EC5B98C-3CD1-4474-AF73-99ED3D5DB7A2}" name="Bin" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{EF84029A-2F11-4AE7-A061-41AD6DCF0B55}" name="Red" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{1EBBDC93-F69F-4B55-B850-BF1A997E5108}" name="Primer IP" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{748F7DB3-0AC5-4422-B075-73D87496F50C}" name="Ultima IP" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{1A1BA980-F224-4362-9A7D-B0B88ED3B36E}" name="Broadcast" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{A59735F6-C7C4-4732-B8D7-4BF7A53E01DB}" name="Hosts" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{6E0FDA56-995D-4515-85B5-A8CED7694DD3}" name="cidr" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{76FC5299-54DC-496C-B31D-00B971CADB30}" name="mask" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DC8F48E0-3896-4C52-9BF3-AF5FC0B0866E}" name="Tabla7" displayName="Tabla7" ref="A7:I13" totalsRowShown="0">
+  <autoFilter ref="A7:I13" xr:uid="{DC8F48E0-3896-4C52-9BF3-AF5FC0B0866E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:I13">
+    <sortCondition ref="A7:A13"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{701ADA1E-3CAE-4817-A7A6-44C01F5340AE}" name="Depto"/>
+    <tableColumn id="2" xr3:uid="{9AD2A2B9-F3A7-4E49-A58B-E9330DE54FDE}" name="Hosts"/>
+    <tableColumn id="3" xr3:uid="{1661B573-CB33-428B-840F-F92A218431DD}" name="Red"/>
+    <tableColumn id="4" xr3:uid="{BE23FDEE-B17B-435A-8308-8A844699FF55}" name="Primer IP"/>
+    <tableColumn id="5" xr3:uid="{7005FA76-CC41-43C7-AC5A-61117ACE7789}" name="Ultima IP"/>
+    <tableColumn id="6" xr3:uid="{929CFEB9-B8CB-450D-9158-61E082A9AE4C}" name="Broadcast"/>
+    <tableColumn id="7" xr3:uid="{B1A1B6C8-766A-4608-88B6-458ABA5B3593}" name="Cidr"/>
+    <tableColumn id="8" xr3:uid="{0616FECF-CF2D-45C8-BB61-5F92582093D4}" name="Mask"/>
+    <tableColumn id="9" xr3:uid="{C19263A3-FB2D-4218-A142-0FED7FAAB99D}" name="max hosts"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7D4BF41E-4D31-4C29-BCC5-3EF9C56162A0}" name="Tabla711" displayName="Tabla711" ref="A16:I22" totalsRowShown="0">
+  <autoFilter ref="A16:I22" xr:uid="{7D4BF41E-4D31-4C29-BCC5-3EF9C56162A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:I21">
+    <sortCondition ref="A16:A21"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BC288A90-A799-44CE-B070-8E2D976DC4BB}" name="Depto"/>
+    <tableColumn id="2" xr3:uid="{74FF4DCD-8F0E-4E81-8B69-2B88F30128DB}" name="Hosts"/>
+    <tableColumn id="3" xr3:uid="{1135D0DD-467A-46BF-B09C-E51BD3B4765D}" name="Red"/>
+    <tableColumn id="4" xr3:uid="{F4505F14-A1BA-42B4-9CF2-A9E587B00127}" name="Primer IP"/>
+    <tableColumn id="5" xr3:uid="{0E12EB0C-FC3D-41B7-B442-2C5AD0D2AAC7}" name="Ultima IP"/>
+    <tableColumn id="6" xr3:uid="{DB87F497-19AE-4A0E-B6D6-E672C00D8B2D}" name="Broadcast"/>
+    <tableColumn id="7" xr3:uid="{EE5D5868-33C6-4648-B89F-7B58C8EE4B1C}" name="Cidr"/>
+    <tableColumn id="8" xr3:uid="{418FDD4C-AF7F-466B-A197-2A07E86A52A1}" name="Mask"/>
+    <tableColumn id="9" xr3:uid="{769BFB65-6A40-4CA2-A9CB-EF01851F07FD}" name="max hosts"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2440,13 +3633,13 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="101" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2454,17 +3647,17 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="95"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="101"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="101"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2504,7 +3697,7 @@
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="100" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2518,7 +3711,7 @@
       <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="94"/>
+      <c r="D8" s="100"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2568,16 +3761,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="E3" s="98" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="E3" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -2709,11 +3902,11 @@
       <c r="C10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -2881,10 +4074,10 @@
       <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="103"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -2981,10 +4174,10 @@
       <c r="G5">
         <v>9</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
@@ -3068,11 +4261,11 @@
       <c r="C9" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
       <c r="I9" s="54" t="s">
         <v>150</v>
       </c>
@@ -3084,17 +4277,17 @@
       <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="109"/>
       <c r="E11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="103"/>
+      <c r="G11" s="109"/>
       <c r="I11" t="s">
         <v>166</v>
       </c>
@@ -3106,17 +4299,17 @@
       <c r="A12" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="111"/>
+      <c r="C12" s="113"/>
       <c r="E12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F12" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="105"/>
+      <c r="G12" s="115"/>
       <c r="I12" t="s">
         <v>115</v>
       </c>
@@ -3128,10 +4321,10 @@
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="109"/>
+      <c r="C13" s="111"/>
       <c r="E13" s="24" t="s">
         <v>109</v>
       </c>
@@ -3150,17 +4343,17 @@
       <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="111"/>
+      <c r="C14" s="113"/>
       <c r="E14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="F14" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="105"/>
+      <c r="G14" s="115"/>
       <c r="I14" t="s">
         <v>118</v>
       </c>
@@ -3172,10 +4365,10 @@
       <c r="A15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="109"/>
+      <c r="C15" s="111"/>
       <c r="E15" s="15" t="s">
         <v>111</v>
       </c>
@@ -3192,6 +4385,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B15:C15"/>
@@ -3200,11 +4398,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -3218,7 +4411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E27903-722B-4F14-9E0C-7C009F22E76C}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F17" sqref="F13:I17"/>
     </sheetView>
@@ -3495,16 +4688,16 @@
       <c r="K6" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
       <c r="T6" s="20" t="s">
         <v>170</v>
       </c>
@@ -3803,7 +4996,7 @@
       <c r="T10" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="W10" s="112"/>
+      <c r="W10" s="95"/>
       <c r="X10" s="57">
         <v>0</v>
       </c>
@@ -3874,7 +5067,7 @@
       </c>
       <c r="V11" s="76"/>
       <c r="W11" s="76"/>
-      <c r="X11" s="112"/>
+      <c r="X11" s="95"/>
       <c r="Y11" s="57">
         <v>0</v>
       </c>
@@ -3955,7 +5148,7 @@
         <v>2</v>
       </c>
       <c r="X12" s="76"/>
-      <c r="Y12" s="112"/>
+      <c r="Y12" s="95"/>
       <c r="Z12" s="57">
         <v>0</v>
       </c>
@@ -3986,16 +5179,16 @@
       <c r="E13" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="96">
         <v>32768</v>
       </c>
-      <c r="G13" s="113">
-        <v>0</v>
-      </c>
-      <c r="H13" s="113">
-        <v>0</v>
-      </c>
-      <c r="I13" s="114">
+      <c r="G13" s="96">
+        <v>0</v>
+      </c>
+      <c r="H13" s="96">
+        <v>0</v>
+      </c>
+      <c r="I13" s="97">
         <v>0</v>
       </c>
       <c r="K13" s="70">
@@ -4038,7 +5231,7 @@
         <v>2</v>
       </c>
       <c r="Y13" s="76"/>
-      <c r="Z13" s="112"/>
+      <c r="Z13" s="95"/>
       <c r="AA13" s="57">
         <v>0</v>
       </c>
@@ -4062,16 +5255,16 @@
       <c r="E14" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="115">
-        <v>0</v>
-      </c>
-      <c r="G14" s="115">
+      <c r="F14" s="98">
+        <v>0</v>
+      </c>
+      <c r="G14" s="98">
         <v>1024</v>
       </c>
-      <c r="H14" s="115">
-        <v>0</v>
-      </c>
-      <c r="I14" s="116">
+      <c r="H14" s="98">
+        <v>0</v>
+      </c>
+      <c r="I14" s="99">
         <v>0</v>
       </c>
       <c r="K14" s="71">
@@ -4114,7 +5307,7 @@
         <v>2</v>
       </c>
       <c r="Z14" s="76"/>
-      <c r="AA14" s="112"/>
+      <c r="AA14" s="95"/>
       <c r="AB14" s="57">
         <v>1</v>
       </c>
@@ -4135,16 +5328,16 @@
       <c r="E15" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="96">
         <v>8192</v>
       </c>
-      <c r="G15" s="113">
+      <c r="G15" s="96">
         <v>512</v>
       </c>
-      <c r="H15" s="113">
-        <v>0</v>
-      </c>
-      <c r="I15" s="114">
+      <c r="H15" s="96">
+        <v>0</v>
+      </c>
+      <c r="I15" s="97">
         <v>2</v>
       </c>
       <c r="K15" s="70">
@@ -4187,7 +5380,7 @@
         <v>2</v>
       </c>
       <c r="AA15" s="76"/>
-      <c r="AB15" s="112"/>
+      <c r="AB15" s="95"/>
       <c r="AC15" s="79"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4203,16 +5396,16 @@
       <c r="E16" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="98">
         <v>4096</v>
       </c>
-      <c r="G16" s="115">
-        <v>0</v>
-      </c>
-      <c r="H16" s="115">
+      <c r="G16" s="98">
+        <v>0</v>
+      </c>
+      <c r="H16" s="98">
         <v>16</v>
       </c>
-      <c r="I16" s="116">
+      <c r="I16" s="99">
         <v>0</v>
       </c>
       <c r="K16" s="71">
@@ -4276,13 +5469,13 @@
       <c r="E17" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="117">
+      <c r="F17" s="118">
         <f>SUM(F13:I16)</f>
         <v>46610</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
       <c r="K17" s="70">
         <v>127</v>
       </c>
@@ -4448,7 +5641,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
@@ -4475,24 +5668,24 @@
       <c r="A1" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98" t="s">
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5256,4 +6449,1508 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984AEE1A-7F66-4006-9A60-75F133FA17E3}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="59"/>
+    <col min="2" max="2" width="13.28515625" style="94" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="94" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" style="94" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="94"/>
+    <col min="7" max="7" width="10.7109375" style="94" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="94" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="94" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>353</v>
+      </c>
+      <c r="F5" s="94" t="s">
+        <v>348</v>
+      </c>
+      <c r="G5" s="94" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" s="94" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="94">
+        <v>8</v>
+      </c>
+      <c r="C6" s="94">
+        <v>3</v>
+      </c>
+      <c r="D6" s="94">
+        <v>11</v>
+      </c>
+      <c r="E6" s="94">
+        <v>32</v>
+      </c>
+      <c r="F6" s="94">
+        <v>21</v>
+      </c>
+      <c r="G6" s="120">
+        <v>2097150</v>
+      </c>
+      <c r="H6" s="94" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>383</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="H8" s="94" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>384</v>
+      </c>
+      <c r="F9" s="122">
+        <v>2097150</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>388</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="122">
+        <v>2097150</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>386</v>
+      </c>
+      <c r="F11" s="122">
+        <v>2097150</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11" s="94" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" s="122">
+        <v>10127255254</v>
+      </c>
+      <c r="E12" s="122">
+        <v>10127255255</v>
+      </c>
+      <c r="F12" s="122">
+        <v>2097150</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="H12" s="94" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="122">
+        <v>10159255254</v>
+      </c>
+      <c r="E13" s="122">
+        <v>10159255255</v>
+      </c>
+      <c r="F13" s="122">
+        <v>2097150</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="H13" s="94" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" s="122">
+        <v>10191255254</v>
+      </c>
+      <c r="E14" s="122">
+        <v>10191255255</v>
+      </c>
+      <c r="F14" s="122">
+        <v>2097150</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="H14" s="94" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>365</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" s="122">
+        <v>10223255254</v>
+      </c>
+      <c r="E15" s="122">
+        <v>10223255255</v>
+      </c>
+      <c r="F15" s="122">
+        <v>2097150</v>
+      </c>
+      <c r="G15" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="H15" s="94" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="122">
+        <v>10255255254</v>
+      </c>
+      <c r="E16" s="122">
+        <v>10255255255</v>
+      </c>
+      <c r="F16" s="122">
+        <v>2097150</v>
+      </c>
+      <c r="G16" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="H16" s="94" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="94">
+        <v>4</v>
+      </c>
+      <c r="C18" s="94">
+        <v>2</v>
+      </c>
+      <c r="D18" s="94">
+        <v>18</v>
+      </c>
+      <c r="E18" s="94">
+        <v>64</v>
+      </c>
+      <c r="F18" s="94">
+        <v>14</v>
+      </c>
+      <c r="G18" s="94">
+        <v>16382</v>
+      </c>
+      <c r="H18" s="94" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>358</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>383</v>
+      </c>
+      <c r="F20" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="H20" s="94" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>400</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" s="94" t="s">
+        <v>414</v>
+      </c>
+      <c r="F21" s="122">
+        <v>16382</v>
+      </c>
+      <c r="G21" s="94" t="s">
+        <v>390</v>
+      </c>
+      <c r="H21" s="94" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>411</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>418</v>
+      </c>
+      <c r="E22" s="94" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="122">
+        <v>16382</v>
+      </c>
+      <c r="G22" s="94" t="s">
+        <v>390</v>
+      </c>
+      <c r="H22" s="94" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" s="94" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>412</v>
+      </c>
+      <c r="D23" s="94" t="s">
+        <v>419</v>
+      </c>
+      <c r="E23" s="94" t="s">
+        <v>416</v>
+      </c>
+      <c r="F23" s="122">
+        <v>16382</v>
+      </c>
+      <c r="G23" s="94" t="s">
+        <v>390</v>
+      </c>
+      <c r="H23" s="94" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="B24" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>413</v>
+      </c>
+      <c r="D24" s="122" t="s">
+        <v>420</v>
+      </c>
+      <c r="E24" s="122" t="s">
+        <v>402</v>
+      </c>
+      <c r="F24" s="122">
+        <v>16382</v>
+      </c>
+      <c r="G24" s="94" t="s">
+        <v>390</v>
+      </c>
+      <c r="H24" s="94" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="94">
+        <v>8</v>
+      </c>
+      <c r="C26" s="94">
+        <v>3</v>
+      </c>
+      <c r="D26" s="122">
+        <v>27</v>
+      </c>
+      <c r="E26" s="122">
+        <v>32</v>
+      </c>
+      <c r="F26" s="122">
+        <v>5</v>
+      </c>
+      <c r="G26" s="94">
+        <v>30</v>
+      </c>
+      <c r="H26" s="122">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="D28" s="94" t="s">
+        <v>358</v>
+      </c>
+      <c r="E28" s="94" t="s">
+        <v>383</v>
+      </c>
+      <c r="F28" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="H28" s="94" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="B29" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="D29" s="94" t="s">
+        <v>436</v>
+      </c>
+      <c r="E29" s="94" t="s">
+        <v>437</v>
+      </c>
+      <c r="F29" s="94">
+        <v>30</v>
+      </c>
+      <c r="G29" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="H29" s="122">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="94" t="s">
+        <v>422</v>
+      </c>
+      <c r="C30" s="94" t="s">
+        <v>429</v>
+      </c>
+      <c r="D30" s="94" t="s">
+        <v>438</v>
+      </c>
+      <c r="E30" s="94" t="s">
+        <v>439</v>
+      </c>
+      <c r="F30" s="94">
+        <v>30</v>
+      </c>
+      <c r="G30" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="H30" s="122">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="B31" s="94" t="s">
+        <v>423</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="D31" s="94" t="s">
+        <v>440</v>
+      </c>
+      <c r="E31" s="94" t="s">
+        <v>446</v>
+      </c>
+      <c r="F31" s="94">
+        <v>30</v>
+      </c>
+      <c r="G31" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="H31" s="122">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" s="94" t="s">
+        <v>424</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>431</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>441</v>
+      </c>
+      <c r="E32" s="94" t="s">
+        <v>447</v>
+      </c>
+      <c r="F32" s="94">
+        <v>30</v>
+      </c>
+      <c r="G32" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="H32" s="122">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="B33" s="94" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>432</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>442</v>
+      </c>
+      <c r="E33" s="94" t="s">
+        <v>448</v>
+      </c>
+      <c r="F33" s="94">
+        <v>30</v>
+      </c>
+      <c r="G33" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="H33" s="122">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" s="94" t="s">
+        <v>426</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>433</v>
+      </c>
+      <c r="D34" s="94" t="s">
+        <v>443</v>
+      </c>
+      <c r="E34" s="94" t="s">
+        <v>449</v>
+      </c>
+      <c r="F34" s="94">
+        <v>30</v>
+      </c>
+      <c r="G34" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="H34" s="122">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="B35" s="94" t="s">
+        <v>427</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>434</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>444</v>
+      </c>
+      <c r="E35" s="94" t="s">
+        <v>450</v>
+      </c>
+      <c r="F35" s="94">
+        <v>30</v>
+      </c>
+      <c r="G35" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="H35" s="122">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="B36" s="94" t="s">
+        <v>428</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>435</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>445</v>
+      </c>
+      <c r="E36" s="94" t="s">
+        <v>451</v>
+      </c>
+      <c r="F36" s="122">
+        <v>30</v>
+      </c>
+      <c r="G36" s="94" t="s">
+        <v>452</v>
+      </c>
+      <c r="H36" s="122">
+        <v>255255255224</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D132760C-41E0-4C3D-BA18-DF483406F7CA}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>462</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="94" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E8" t="s">
+        <v>486</v>
+      </c>
+      <c r="F8" t="s">
+        <v>486</v>
+      </c>
+      <c r="G8" t="s">
+        <v>486</v>
+      </c>
+      <c r="H8" t="s">
+        <v>486</v>
+      </c>
+      <c r="I8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D9" t="s">
+        <v>480</v>
+      </c>
+      <c r="E9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F9" t="s">
+        <v>478</v>
+      </c>
+      <c r="G9" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" s="121">
+        <v>255255255224</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" t="s">
+        <v>467</v>
+      </c>
+      <c r="E10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F10" t="s">
+        <v>471</v>
+      </c>
+      <c r="G10" t="s">
+        <v>468</v>
+      </c>
+      <c r="H10" s="121">
+        <v>255255255128</v>
+      </c>
+      <c r="I10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D11" t="s">
+        <v>482</v>
+      </c>
+      <c r="E11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F11" t="s">
+        <v>483</v>
+      </c>
+      <c r="G11" t="s">
+        <v>453</v>
+      </c>
+      <c r="H11" s="121">
+        <v>255255255240</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" t="s">
+        <v>375</v>
+      </c>
+      <c r="E12" t="s">
+        <v>466</v>
+      </c>
+      <c r="F12" t="s">
+        <v>465</v>
+      </c>
+      <c r="G12" t="s">
+        <v>297</v>
+      </c>
+      <c r="H12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D13" t="s">
+        <v>470</v>
+      </c>
+      <c r="E13" t="s">
+        <v>474</v>
+      </c>
+      <c r="F13" t="s">
+        <v>475</v>
+      </c>
+      <c r="G13" t="s">
+        <v>473</v>
+      </c>
+      <c r="H13" s="121">
+        <v>255255255192</v>
+      </c>
+      <c r="I13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>459</v>
+      </c>
+      <c r="B16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" t="s">
+        <v>383</v>
+      </c>
+      <c r="G16" t="s">
+        <v>460</v>
+      </c>
+      <c r="H16" t="s">
+        <v>346</v>
+      </c>
+      <c r="I16" t="s">
+        <v>461</v>
+      </c>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" t="s">
+        <v>487</v>
+      </c>
+      <c r="F17" t="s">
+        <v>488</v>
+      </c>
+      <c r="G17" t="s">
+        <v>452</v>
+      </c>
+      <c r="H17" s="121">
+        <v>255255255224</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="121"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="123" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="123">
+        <v>70</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>489</v>
+      </c>
+      <c r="D18" s="123" t="s">
+        <v>490</v>
+      </c>
+      <c r="E18" s="123" t="s">
+        <v>493</v>
+      </c>
+      <c r="F18" s="123" t="s">
+        <v>492</v>
+      </c>
+      <c r="G18" s="123" t="s">
+        <v>468</v>
+      </c>
+      <c r="H18" s="124">
+        <v>255255255128</v>
+      </c>
+      <c r="I18" s="123">
+        <v>126</v>
+      </c>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>491</v>
+      </c>
+      <c r="D19" t="s">
+        <v>494</v>
+      </c>
+      <c r="E19" t="s">
+        <v>496</v>
+      </c>
+      <c r="F19" t="s">
+        <v>497</v>
+      </c>
+      <c r="G19" t="s">
+        <v>453</v>
+      </c>
+      <c r="H19" s="121">
+        <v>255255255240</v>
+      </c>
+      <c r="I19">
+        <v>14</v>
+      </c>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="123" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="123">
+        <v>130</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>495</v>
+      </c>
+      <c r="D20" s="123" t="s">
+        <v>499</v>
+      </c>
+      <c r="E20" s="123" t="s">
+        <v>500</v>
+      </c>
+      <c r="F20" s="123" t="s">
+        <v>501</v>
+      </c>
+      <c r="G20" s="123" t="s">
+        <v>297</v>
+      </c>
+      <c r="H20" s="123" t="s">
+        <v>300</v>
+      </c>
+      <c r="I20" s="123">
+        <v>254</v>
+      </c>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="123">
+        <v>50</v>
+      </c>
+      <c r="C21" s="123" t="s">
+        <v>498</v>
+      </c>
+      <c r="D21" s="123" t="s">
+        <v>502</v>
+      </c>
+      <c r="E21" s="123" t="s">
+        <v>484</v>
+      </c>
+      <c r="F21" s="123" t="s">
+        <v>483</v>
+      </c>
+      <c r="G21" s="123" t="s">
+        <v>473</v>
+      </c>
+      <c r="H21" s="124">
+        <v>255255255192</v>
+      </c>
+      <c r="I21" s="123">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>486</v>
+      </c>
+      <c r="B22" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" t="s">
+        <v>481</v>
+      </c>
+      <c r="D22" t="s">
+        <v>485</v>
+      </c>
+      <c r="E22" t="s">
+        <v>486</v>
+      </c>
+      <c r="F22" t="s">
+        <v>486</v>
+      </c>
+      <c r="G22" t="s">
+        <v>486</v>
+      </c>
+      <c r="H22" t="s">
+        <v>486</v>
+      </c>
+      <c r="I22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="125" t="s">
+        <v>459</v>
+      </c>
+      <c r="B24" s="125" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="125" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="125" t="s">
+        <v>357</v>
+      </c>
+      <c r="E24" s="125" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" s="125" t="s">
+        <v>383</v>
+      </c>
+      <c r="G24" s="125" t="s">
+        <v>460</v>
+      </c>
+      <c r="H24" s="125" t="s">
+        <v>346</v>
+      </c>
+      <c r="I24" s="125" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="125" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="125">
+        <v>25</v>
+      </c>
+      <c r="C25" s="125" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="125" t="s">
+        <v>375</v>
+      </c>
+      <c r="E25" s="125" t="s">
+        <v>487</v>
+      </c>
+      <c r="F25" s="125" t="s">
+        <v>488</v>
+      </c>
+      <c r="G25" s="125" t="s">
+        <v>452</v>
+      </c>
+      <c r="H25" s="126">
+        <v>255255255224</v>
+      </c>
+      <c r="I25" s="125">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="127">
+        <v>70</v>
+      </c>
+      <c r="C26" s="127" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26" s="127" t="s">
+        <v>504</v>
+      </c>
+      <c r="E26" s="127" t="s">
+        <v>466</v>
+      </c>
+      <c r="F26" s="127" t="s">
+        <v>465</v>
+      </c>
+      <c r="G26" s="127" t="s">
+        <v>468</v>
+      </c>
+      <c r="H26" s="128">
+        <v>255255255128</v>
+      </c>
+      <c r="I26" s="127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="125" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="125">
+        <v>10</v>
+      </c>
+      <c r="C27" s="125" t="s">
+        <v>464</v>
+      </c>
+      <c r="D27" s="125" t="s">
+        <v>467</v>
+      </c>
+      <c r="E27" s="125" t="s">
+        <v>505</v>
+      </c>
+      <c r="F27" s="125" t="s">
+        <v>506</v>
+      </c>
+      <c r="G27" s="125" t="s">
+        <v>453</v>
+      </c>
+      <c r="H27" s="126">
+        <v>255255255240</v>
+      </c>
+      <c r="I27" s="125">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="127">
+        <v>130</v>
+      </c>
+      <c r="C28" s="127" t="s">
+        <v>507</v>
+      </c>
+      <c r="D28" s="127" t="s">
+        <v>508</v>
+      </c>
+      <c r="E28" s="127" t="s">
+        <v>509</v>
+      </c>
+      <c r="F28" s="127" t="s">
+        <v>510</v>
+      </c>
+      <c r="G28" s="127" t="s">
+        <v>297</v>
+      </c>
+      <c r="H28" s="127" t="s">
+        <v>300</v>
+      </c>
+      <c r="I28" s="127">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="125" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="125">
+        <v>50</v>
+      </c>
+      <c r="C29" s="125" t="s">
+        <v>511</v>
+      </c>
+      <c r="D29" s="125" t="s">
+        <v>512</v>
+      </c>
+      <c r="E29" s="125" t="s">
+        <v>513</v>
+      </c>
+      <c r="F29" s="125" t="s">
+        <v>514</v>
+      </c>
+      <c r="G29" s="125" t="s">
+        <v>473</v>
+      </c>
+      <c r="H29" s="126">
+        <v>255255255192</v>
+      </c>
+      <c r="I29" s="125">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="B30" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="C30" s="125" t="s">
+        <v>515</v>
+      </c>
+      <c r="D30" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="E30" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="F30" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="G30" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="H30" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="I30" s="125" t="s">
+        <v>486</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06772B9-04BD-4412-BD4C-517541683158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460D5D94-AF42-4845-9D5F-24AD5A585FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
     <sheet name="unidades" sheetId="3" r:id="rId2"/>
     <sheet name="fisica" sheetId="2" r:id="rId3"/>
     <sheet name="sist" sheetId="4" r:id="rId4"/>
-    <sheet name="ipv4" sheetId="5" r:id="rId5"/>
+    <sheet name="IPv4" sheetId="5" r:id="rId5"/>
     <sheet name="classic" sheetId="6" r:id="rId6"/>
     <sheet name="vlsm" sheetId="7" r:id="rId7"/>
+    <sheet name="IPv6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="570">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -2097,6 +2098,221 @@
   <si>
     <t>10.0.3.64</t>
   </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>Global Address</t>
+  </si>
+  <si>
+    <t>SN ID</t>
+  </si>
+  <si>
+    <t>Interface ID</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>0DB6</t>
+  </si>
+  <si>
+    <t>ACAD</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>/64</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Ceros Izq.</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>DB6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Conjunto 0</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>2000:DB6:ACAD:1::1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>2000::</t>
+  </si>
+  <si>
+    <t>3FFF:</t>
+  </si>
+  <si>
+    <t>Enrutamiento WAN</t>
+  </si>
+  <si>
+    <t>IPv4 Publico</t>
+  </si>
+  <si>
+    <t>Link-Local</t>
+  </si>
+  <si>
+    <t>FE80::</t>
+  </si>
+  <si>
+    <t>FEBF:</t>
+  </si>
+  <si>
+    <t>Comunicación LAN</t>
+  </si>
+  <si>
+    <t>IPv4 APIPA</t>
+  </si>
+  <si>
+    <t>FC00::</t>
+  </si>
+  <si>
+    <t>FDFF::</t>
+  </si>
+  <si>
+    <t>Enrutamiento LAN</t>
+  </si>
+  <si>
+    <t>IPv4 Privado</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Multicast</t>
+  </si>
+  <si>
+    <t>FF00::</t>
+  </si>
+  <si>
+    <t>FFFF::</t>
+  </si>
+  <si>
+    <t>Difusion Grupal</t>
+  </si>
+  <si>
+    <t>IPv4 Multicast</t>
+  </si>
+  <si>
+    <t>EUI-64</t>
+  </si>
+  <si>
+    <t>Extended Unique Identifier</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>0A00</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>16 bits</t>
+  </si>
+  <si>
+    <r>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>!7bit</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>800:27FF:FE00:12</t>
+  </si>
 </sst>
 </file>
 
@@ -2106,7 +2322,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2174,6 +2390,27 @@
       <b/>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2438,7 +2675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2705,65 +2942,8 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2778,6 +2958,105 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2990,12 +3269,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3049,6 +3322,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3144,21 +3423,21 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AD7D8AAC-69A7-448A-8EDB-02F635ECC831}" name="Tabla71112" displayName="Tabla71112" ref="A24:I30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AD7D8AAC-69A7-448A-8EDB-02F635ECC831}" name="Tabla71112" displayName="Tabla71112" ref="A24:I30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A24:I30" xr:uid="{AD7D8AAC-69A7-448A-8EDB-02F635ECC831}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:I29">
     <sortCondition ref="A16:A21"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{67B2C356-8937-4C65-A41F-E9C0F2339573}" name="Depto" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{685A8300-6543-40DE-8662-81C86E1BFA53}" name="Hosts" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{17E04AA1-F0BD-4E59-8B5B-BC8833B4C383}" name="Red" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{FD310628-66B1-449E-B6B7-ACA99620088A}" name="Primer IP" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{64129FA4-3B58-4516-9C68-2FD59BBB690D}" name="Ultima IP" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{811CFF2D-B98F-4EBC-9473-16D7771AA5E9}" name="Broadcast" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{5BC778E5-99FD-47A4-8274-4479460A5DEC}" name="Cidr" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{C88EC5E2-3B8C-4BE8-8698-20CF18FBBF41}" name="Mask" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{27612997-CD62-4FD9-9A85-69D83C258E99}" name="max hosts" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{67B2C356-8937-4C65-A41F-E9C0F2339573}" name="Depto" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{685A8300-6543-40DE-8662-81C86E1BFA53}" name="Hosts" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{17E04AA1-F0BD-4E59-8B5B-BC8833B4C383}" name="Red" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{FD310628-66B1-449E-B6B7-ACA99620088A}" name="Primer IP" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{64129FA4-3B58-4516-9C68-2FD59BBB690D}" name="Ultima IP" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{811CFF2D-B98F-4EBC-9473-16D7771AA5E9}" name="Broadcast" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5BC778E5-99FD-47A4-8274-4479460A5DEC}" name="Cidr" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{C88EC5E2-3B8C-4BE8-8698-20CF18FBBF41}" name="Mask" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{27612997-CD62-4FD9-9A85-69D83C258E99}" name="max hosts" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3212,34 +3491,34 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0E06427-0524-4462-A6F4-02FCDFA1E02D}" name="Tabla1" displayName="Tabla1" ref="A8:H16" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0E06427-0524-4462-A6F4-02FCDFA1E02D}" name="Tabla1" displayName="Tabla1" ref="A8:H16" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A8:H16" xr:uid="{B0E06427-0524-4462-A6F4-02FCDFA1E02D}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7C31CEE1-637A-41B4-8569-02AEB5DE578B}" name="Bin" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{5E57E2DE-01BD-4981-8801-13E3A67AD558}" name="Red" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{3011CEF8-86B7-4772-A8D5-20F2BFB630A1}" name="Primer IP" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{2DD9F808-8D28-4B29-8A7B-70820F124EBE}" name="Ultima IP" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{E0DBBB3A-1769-4E7C-ACF5-A1CA055730D5}" name="Broadcast" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{8A0BBCCE-3804-42E5-A8F2-54D5AC6E1244}" name="Hosts" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{B5623806-478F-4DD6-B313-1FBC544ADD18}" name="cidr" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{744F3338-6961-4BF2-9E25-3EE59BF7A8DF}" name="mask" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{7C31CEE1-637A-41B4-8569-02AEB5DE578B}" name="Bin" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{5E57E2DE-01BD-4981-8801-13E3A67AD558}" name="Red" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{3011CEF8-86B7-4772-A8D5-20F2BFB630A1}" name="Primer IP" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{2DD9F808-8D28-4B29-8A7B-70820F124EBE}" name="Ultima IP" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{E0DBBB3A-1769-4E7C-ACF5-A1CA055730D5}" name="Broadcast" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{8A0BBCCE-3804-42E5-A8F2-54D5AC6E1244}" name="Hosts" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{B5623806-478F-4DD6-B313-1FBC544ADD18}" name="cidr" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{744F3338-6961-4BF2-9E25-3EE59BF7A8DF}" name="mask" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C20C4BC1-3509-4CB8-A82D-56E2DB78737E}" name="Tabla13" displayName="Tabla13" ref="A20:H24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C20C4BC1-3509-4CB8-A82D-56E2DB78737E}" name="Tabla13" displayName="Tabla13" ref="A20:H24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A20:H24" xr:uid="{C20C4BC1-3509-4CB8-A82D-56E2DB78737E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7A683BF2-1E90-49A5-B076-273830551432}" name="Bin" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{7FE32772-2EA6-4857-B86E-72B1C60D6AED}" name="Red" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{E2025C8C-9F32-4111-AC14-6E6689F0A9F8}" name="Primer IP" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{182DFCFD-6F96-4463-859C-9AD63609C771}" name="Ultima IP" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{6E99F678-B4A6-458D-8315-A859E75E76A8}" name="Broadcast" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{23D225AB-384C-4E77-9E7F-8FF932817DB9}" name="Hosts" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{B87192DB-06DB-457A-B456-0D18ABCE42DA}" name="cidr" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{B3F060EB-FF39-4101-B438-86B74D6E6E25}" name="mask" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{7A683BF2-1E90-49A5-B076-273830551432}" name="Bin" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{7FE32772-2EA6-4857-B86E-72B1C60D6AED}" name="Red" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{E2025C8C-9F32-4111-AC14-6E6689F0A9F8}" name="Primer IP" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{182DFCFD-6F96-4463-859C-9AD63609C771}" name="Ultima IP" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{6E99F678-B4A6-458D-8315-A859E75E76A8}" name="Broadcast" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{23D225AB-384C-4E77-9E7F-8FF932817DB9}" name="Hosts" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{B87192DB-06DB-457A-B456-0D18ABCE42DA}" name="cidr" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{B3F060EB-FF39-4101-B438-86B74D6E6E25}" name="mask" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3633,13 +3912,13 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="111" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3647,17 +3926,17 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="101"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="111"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="101"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="111"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3697,7 +3976,7 @@
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="110" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3711,7 +3990,7 @@
       <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="100"/>
+      <c r="D8" s="110"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -3761,16 +4040,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="E3" s="104" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="E3" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3902,11 +4181,11 @@
       <c r="C10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -4074,10 +4353,10 @@
       <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="109"/>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -4261,11 +4540,11 @@
       <c r="C9" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
       <c r="I9" s="54" t="s">
         <v>150</v>
       </c>
@@ -4277,17 +4556,17 @@
       <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="109"/>
+      <c r="C11" s="119"/>
       <c r="E11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="108" t="s">
+      <c r="F11" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="109"/>
+      <c r="G11" s="119"/>
       <c r="I11" t="s">
         <v>166</v>
       </c>
@@ -4299,17 +4578,17 @@
       <c r="A12" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="113"/>
+      <c r="C12" s="127"/>
       <c r="E12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="115"/>
+      <c r="G12" s="121"/>
       <c r="I12" t="s">
         <v>115</v>
       </c>
@@ -4321,17 +4600,17 @@
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="111"/>
+      <c r="C13" s="125"/>
       <c r="E13" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="107"/>
+      <c r="G13" s="123"/>
       <c r="I13" t="s">
         <v>117</v>
       </c>
@@ -4343,17 +4622,17 @@
       <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="113"/>
+      <c r="C14" s="127"/>
       <c r="E14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="115"/>
+      <c r="G14" s="121"/>
       <c r="I14" t="s">
         <v>118</v>
       </c>
@@ -4365,17 +4644,17 @@
       <c r="A15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="111"/>
+      <c r="C15" s="125"/>
       <c r="E15" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="106" t="s">
+      <c r="F15" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="107"/>
+      <c r="G15" s="123"/>
       <c r="I15" t="s">
         <v>119</v>
       </c>
@@ -4385,11 +4664,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B15:C15"/>
@@ -4398,6 +4672,11 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -4688,16 +4967,16 @@
       <c r="K6" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="108" t="s">
+      <c r="L6" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
       <c r="T6" s="20" t="s">
         <v>170</v>
       </c>
@@ -5469,13 +5748,13 @@
       <c r="E17" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="118">
+      <c r="F17" s="128">
         <f>SUM(F13:I16)</f>
         <v>46610</v>
       </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="K17" s="70">
         <v>127</v>
       </c>
@@ -5668,24 +5947,24 @@
       <c r="A1" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104" t="s">
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6553,7 +6832,7 @@
       <c r="F6" s="94">
         <v>21</v>
       </c>
-      <c r="G6" s="120">
+      <c r="G6" s="101">
         <v>2097150</v>
       </c>
       <c r="H6" s="94" t="s">
@@ -6602,7 +6881,7 @@
       <c r="E9" s="94" t="s">
         <v>384</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="103">
         <v>2097150</v>
       </c>
       <c r="G9" s="94" t="s">
@@ -6628,7 +6907,7 @@
       <c r="E10" s="94" t="s">
         <v>385</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="103">
         <v>2097150</v>
       </c>
       <c r="G10" s="94" t="s">
@@ -6654,7 +6933,7 @@
       <c r="E11" s="94" t="s">
         <v>386</v>
       </c>
-      <c r="F11" s="122">
+      <c r="F11" s="103">
         <v>2097150</v>
       </c>
       <c r="G11" s="94" t="s">
@@ -6674,13 +6953,13 @@
       <c r="C12" s="94" t="s">
         <v>378</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="103">
         <v>10127255254</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="103">
         <v>10127255255</v>
       </c>
-      <c r="F12" s="122">
+      <c r="F12" s="103">
         <v>2097150</v>
       </c>
       <c r="G12" s="94" t="s">
@@ -6700,13 +6979,13 @@
       <c r="C13" s="94" t="s">
         <v>379</v>
       </c>
-      <c r="D13" s="122">
+      <c r="D13" s="103">
         <v>10159255254</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="103">
         <v>10159255255</v>
       </c>
-      <c r="F13" s="122">
+      <c r="F13" s="103">
         <v>2097150</v>
       </c>
       <c r="G13" s="94" t="s">
@@ -6726,13 +7005,13 @@
       <c r="C14" s="94" t="s">
         <v>380</v>
       </c>
-      <c r="D14" s="122">
+      <c r="D14" s="103">
         <v>10191255254</v>
       </c>
-      <c r="E14" s="122">
+      <c r="E14" s="103">
         <v>10191255255</v>
       </c>
-      <c r="F14" s="122">
+      <c r="F14" s="103">
         <v>2097150</v>
       </c>
       <c r="G14" s="94" t="s">
@@ -6752,13 +7031,13 @@
       <c r="C15" s="94" t="s">
         <v>381</v>
       </c>
-      <c r="D15" s="122">
+      <c r="D15" s="103">
         <v>10223255254</v>
       </c>
-      <c r="E15" s="122">
+      <c r="E15" s="103">
         <v>10223255255</v>
       </c>
-      <c r="F15" s="122">
+      <c r="F15" s="103">
         <v>2097150</v>
       </c>
       <c r="G15" s="94" t="s">
@@ -6778,13 +7057,13 @@
       <c r="C16" s="94" t="s">
         <v>382</v>
       </c>
-      <c r="D16" s="122">
+      <c r="D16" s="103">
         <v>10255255254</v>
       </c>
-      <c r="E16" s="122">
+      <c r="E16" s="103">
         <v>10255255255</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F16" s="103">
         <v>2097150</v>
       </c>
       <c r="G16" s="94" t="s">
@@ -6862,7 +7141,7 @@
       <c r="E21" s="94" t="s">
         <v>414</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F21" s="103">
         <v>16382</v>
       </c>
       <c r="G21" s="94" t="s">
@@ -6888,7 +7167,7 @@
       <c r="E22" s="94" t="s">
         <v>415</v>
       </c>
-      <c r="F22" s="122">
+      <c r="F22" s="103">
         <v>16382</v>
       </c>
       <c r="G22" s="94" t="s">
@@ -6914,7 +7193,7 @@
       <c r="E23" s="94" t="s">
         <v>416</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="103">
         <v>16382</v>
       </c>
       <c r="G23" s="94" t="s">
@@ -6934,13 +7213,13 @@
       <c r="C24" s="94" t="s">
         <v>413</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="103" t="s">
         <v>420</v>
       </c>
-      <c r="E24" s="122" t="s">
+      <c r="E24" s="103" t="s">
         <v>402</v>
       </c>
-      <c r="F24" s="122">
+      <c r="F24" s="103">
         <v>16382</v>
       </c>
       <c r="G24" s="94" t="s">
@@ -6951,9 +7230,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
@@ -6965,26 +7244,26 @@
       <c r="C26" s="94">
         <v>3</v>
       </c>
-      <c r="D26" s="122">
+      <c r="D26" s="103">
         <v>27</v>
       </c>
-      <c r="E26" s="122">
+      <c r="E26" s="103">
         <v>32</v>
       </c>
-      <c r="F26" s="122">
+      <c r="F26" s="103">
         <v>5</v>
       </c>
       <c r="G26" s="94">
         <v>30</v>
       </c>
-      <c r="H26" s="122">
+      <c r="H26" s="103">
         <v>255255255224</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
@@ -7034,7 +7313,7 @@
       <c r="G29" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="H29" s="122">
+      <c r="H29" s="103">
         <v>255255255224</v>
       </c>
     </row>
@@ -7060,7 +7339,7 @@
       <c r="G30" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="H30" s="122">
+      <c r="H30" s="103">
         <v>255255255224</v>
       </c>
     </row>
@@ -7086,7 +7365,7 @@
       <c r="G31" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="H31" s="122">
+      <c r="H31" s="103">
         <v>255255255224</v>
       </c>
     </row>
@@ -7112,7 +7391,7 @@
       <c r="G32" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="H32" s="122">
+      <c r="H32" s="103">
         <v>255255255224</v>
       </c>
     </row>
@@ -7138,7 +7417,7 @@
       <c r="G33" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="H33" s="122">
+      <c r="H33" s="103">
         <v>255255255224</v>
       </c>
     </row>
@@ -7164,7 +7443,7 @@
       <c r="G34" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="H34" s="122">
+      <c r="H34" s="103">
         <v>255255255224</v>
       </c>
     </row>
@@ -7190,7 +7469,7 @@
       <c r="G35" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="H35" s="122">
+      <c r="H35" s="103">
         <v>255255255224</v>
       </c>
     </row>
@@ -7210,13 +7489,13 @@
       <c r="E36" s="94" t="s">
         <v>451</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F36" s="103">
         <v>30</v>
       </c>
       <c r="G36" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="H36" s="122">
+      <c r="H36" s="103">
         <v>255255255224</v>
       </c>
     </row>
@@ -7236,8 +7515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D132760C-41E0-4C3D-BA18-DF483406F7CA}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:O20"/>
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7394,7 +7673,7 @@
       <c r="G9" t="s">
         <v>452</v>
       </c>
-      <c r="H9" s="121">
+      <c r="H9" s="102">
         <v>255255255224</v>
       </c>
       <c r="I9">
@@ -7423,7 +7702,7 @@
       <c r="G10" t="s">
         <v>468</v>
       </c>
-      <c r="H10" s="121">
+      <c r="H10" s="102">
         <v>255255255128</v>
       </c>
       <c r="I10">
@@ -7452,7 +7731,7 @@
       <c r="G11" t="s">
         <v>453</v>
       </c>
-      <c r="H11" s="121">
+      <c r="H11" s="102">
         <v>255255255240</v>
       </c>
       <c r="I11">
@@ -7510,7 +7789,7 @@
       <c r="G13" t="s">
         <v>473</v>
       </c>
-      <c r="H13" s="121">
+      <c r="H13" s="102">
         <v>255255255192</v>
       </c>
       <c r="I13">
@@ -7572,7 +7851,7 @@
       <c r="G17" t="s">
         <v>452</v>
       </c>
-      <c r="H17" s="121">
+      <c r="H17" s="102">
         <v>255255255224</v>
       </c>
       <c r="I17">
@@ -7582,34 +7861,34 @@
       <c r="M17" s="80"/>
       <c r="N17" s="80"/>
       <c r="O17" s="80"/>
-      <c r="P17" s="121"/>
+      <c r="P17" s="102"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="123">
+      <c r="B18" s="104">
         <v>70</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="104" t="s">
         <v>489</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="104" t="s">
         <v>490</v>
       </c>
-      <c r="E18" s="123" t="s">
+      <c r="E18" s="104" t="s">
         <v>493</v>
       </c>
-      <c r="F18" s="123" t="s">
+      <c r="F18" s="104" t="s">
         <v>492</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="104" t="s">
         <v>468</v>
       </c>
-      <c r="H18" s="124">
+      <c r="H18" s="105">
         <v>255255255128</v>
       </c>
-      <c r="I18" s="123">
+      <c r="I18" s="104">
         <v>126</v>
       </c>
       <c r="L18" s="80"/>
@@ -7639,7 +7918,7 @@
       <c r="G19" t="s">
         <v>453</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="102">
         <v>255255255240</v>
       </c>
       <c r="I19">
@@ -7651,31 +7930,31 @@
       <c r="O19" s="80"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="B20" s="123">
+      <c r="B20" s="104">
         <v>130</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="104" t="s">
         <v>495</v>
       </c>
-      <c r="D20" s="123" t="s">
+      <c r="D20" s="104" t="s">
         <v>499</v>
       </c>
-      <c r="E20" s="123" t="s">
+      <c r="E20" s="104" t="s">
         <v>500</v>
       </c>
-      <c r="F20" s="123" t="s">
+      <c r="F20" s="104" t="s">
         <v>501</v>
       </c>
-      <c r="G20" s="123" t="s">
+      <c r="G20" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="H20" s="123" t="s">
+      <c r="H20" s="104" t="s">
         <v>300</v>
       </c>
-      <c r="I20" s="123">
+      <c r="I20" s="104">
         <v>254</v>
       </c>
       <c r="L20" s="80"/>
@@ -7687,28 +7966,28 @@
       <c r="A21" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="123">
+      <c r="B21" s="104">
         <v>50</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="104" t="s">
         <v>498</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="104" t="s">
         <v>502</v>
       </c>
-      <c r="E21" s="123" t="s">
+      <c r="E21" s="104" t="s">
         <v>484</v>
       </c>
-      <c r="F21" s="123" t="s">
+      <c r="F21" s="104" t="s">
         <v>483</v>
       </c>
-      <c r="G21" s="123" t="s">
+      <c r="G21" s="104" t="s">
         <v>473</v>
       </c>
-      <c r="H21" s="124">
+      <c r="H21" s="105">
         <v>255255255192</v>
       </c>
-      <c r="I21" s="123">
+      <c r="I21" s="104">
         <v>62</v>
       </c>
     </row>
@@ -7742,205 +8021,205 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="106" t="s">
         <v>459</v>
       </c>
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="106" t="s">
         <v>302</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="106" t="s">
         <v>301</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="D24" s="106" t="s">
         <v>357</v>
       </c>
-      <c r="E24" s="125" t="s">
+      <c r="E24" s="106" t="s">
         <v>358</v>
       </c>
-      <c r="F24" s="125" t="s">
+      <c r="F24" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="G24" s="125" t="s">
+      <c r="G24" s="106" t="s">
         <v>460</v>
       </c>
-      <c r="H24" s="125" t="s">
+      <c r="H24" s="106" t="s">
         <v>346</v>
       </c>
-      <c r="I24" s="125" t="s">
+      <c r="I24" s="106" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="125">
+      <c r="B25" s="106">
         <v>25</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="106" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="125" t="s">
+      <c r="D25" s="106" t="s">
         <v>375</v>
       </c>
-      <c r="E25" s="125" t="s">
+      <c r="E25" s="106" t="s">
         <v>487</v>
       </c>
-      <c r="F25" s="125" t="s">
+      <c r="F25" s="106" t="s">
         <v>488</v>
       </c>
-      <c r="G25" s="125" t="s">
+      <c r="G25" s="106" t="s">
         <v>452</v>
       </c>
-      <c r="H25" s="126">
+      <c r="H25" s="107">
         <v>255255255224</v>
       </c>
-      <c r="I25" s="125">
+      <c r="I25" s="106">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="127" t="s">
+      <c r="A26" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="127">
+      <c r="B26" s="108">
         <v>70</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="108" t="s">
         <v>503</v>
       </c>
-      <c r="D26" s="127" t="s">
+      <c r="D26" s="108" t="s">
         <v>504</v>
       </c>
-      <c r="E26" s="127" t="s">
+      <c r="E26" s="108" t="s">
         <v>466</v>
       </c>
-      <c r="F26" s="127" t="s">
+      <c r="F26" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="G26" s="127" t="s">
+      <c r="G26" s="108" t="s">
         <v>468</v>
       </c>
-      <c r="H26" s="128">
+      <c r="H26" s="109">
         <v>255255255128</v>
       </c>
-      <c r="I26" s="127">
+      <c r="I26" s="108">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="125" t="s">
+      <c r="A27" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="125">
+      <c r="B27" s="106">
         <v>10</v>
       </c>
-      <c r="C27" s="125" t="s">
+      <c r="C27" s="106" t="s">
         <v>464</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="106" t="s">
         <v>467</v>
       </c>
-      <c r="E27" s="125" t="s">
+      <c r="E27" s="106" t="s">
         <v>505</v>
       </c>
-      <c r="F27" s="125" t="s">
+      <c r="F27" s="106" t="s">
         <v>506</v>
       </c>
-      <c r="G27" s="125" t="s">
+      <c r="G27" s="106" t="s">
         <v>453</v>
       </c>
-      <c r="H27" s="126">
+      <c r="H27" s="107">
         <v>255255255240</v>
       </c>
-      <c r="I27" s="125">
+      <c r="I27" s="106">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="127" t="s">
+      <c r="A28" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="127">
+      <c r="B28" s="108">
         <v>130</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="108" t="s">
         <v>507</v>
       </c>
-      <c r="D28" s="127" t="s">
+      <c r="D28" s="108" t="s">
         <v>508</v>
       </c>
-      <c r="E28" s="127" t="s">
+      <c r="E28" s="108" t="s">
         <v>509</v>
       </c>
-      <c r="F28" s="127" t="s">
+      <c r="F28" s="108" t="s">
         <v>510</v>
       </c>
-      <c r="G28" s="127" t="s">
+      <c r="G28" s="108" t="s">
         <v>297</v>
       </c>
-      <c r="H28" s="127" t="s">
+      <c r="H28" s="108" t="s">
         <v>300</v>
       </c>
-      <c r="I28" s="127">
+      <c r="I28" s="108">
         <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="125">
+      <c r="B29" s="106">
         <v>50</v>
       </c>
-      <c r="C29" s="125" t="s">
+      <c r="C29" s="106" t="s">
         <v>511</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="106" t="s">
         <v>512</v>
       </c>
-      <c r="E29" s="125" t="s">
+      <c r="E29" s="106" t="s">
         <v>513</v>
       </c>
-      <c r="F29" s="125" t="s">
+      <c r="F29" s="106" t="s">
         <v>514</v>
       </c>
-      <c r="G29" s="125" t="s">
+      <c r="G29" s="106" t="s">
         <v>473</v>
       </c>
-      <c r="H29" s="126">
+      <c r="H29" s="107">
         <v>255255255192</v>
       </c>
-      <c r="I29" s="125">
+      <c r="I29" s="106">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="106" t="s">
         <v>515</v>
       </c>
-      <c r="D30" s="125" t="s">
+      <c r="D30" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="E30" s="125" t="s">
+      <c r="E30" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="F30" s="125" t="s">
+      <c r="F30" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="G30" s="125" t="s">
+      <c r="G30" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="H30" s="125" t="s">
+      <c r="H30" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="I30" s="125" t="s">
+      <c r="I30" s="106" t="s">
         <v>486</v>
       </c>
     </row>
@@ -7953,4 +8232,370 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9F6B2B-D7E8-4457-964E-61A98C299E01}">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="100" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="131" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="133" t="s">
+        <v>518</v>
+      </c>
+      <c r="F1" s="135" t="s">
+        <v>519</v>
+      </c>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" t="s">
+        <v>520</v>
+      </c>
+      <c r="L1" t="s">
+        <v>525</v>
+      </c>
+      <c r="M1" s="100" t="s">
+        <v>535</v>
+      </c>
+      <c r="N1" s="100" t="s">
+        <v>536</v>
+      </c>
+      <c r="O1" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2" s="132">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="132" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="132" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" s="134" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="136" t="s">
+        <v>523</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>523</v>
+      </c>
+      <c r="H2" s="136" t="s">
+        <v>523</v>
+      </c>
+      <c r="I2" s="136" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="L2" s="141" t="s">
+        <v>538</v>
+      </c>
+      <c r="M2" s="139" t="s">
+        <v>539</v>
+      </c>
+      <c r="N2" s="139" t="s">
+        <v>540</v>
+      </c>
+      <c r="O2" s="81">
+        <v>3</v>
+      </c>
+      <c r="P2" s="141" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q2" s="141" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="132" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" s="132" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="136" t="s">
+        <v>529</v>
+      </c>
+      <c r="G3" s="136" t="s">
+        <v>529</v>
+      </c>
+      <c r="H3" s="136" t="s">
+        <v>529</v>
+      </c>
+      <c r="I3" s="136" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="L3" s="141" t="s">
+        <v>543</v>
+      </c>
+      <c r="M3" s="139" t="s">
+        <v>544</v>
+      </c>
+      <c r="N3" s="139" t="s">
+        <v>545</v>
+      </c>
+      <c r="O3" s="81">
+        <v>10</v>
+      </c>
+      <c r="P3" s="141" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q3" s="141" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>527</v>
+      </c>
+      <c r="C4" s="132" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>522</v>
+      </c>
+      <c r="E4" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="137" t="s">
+        <v>531</v>
+      </c>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="136" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="L4" s="142" t="s">
+        <v>552</v>
+      </c>
+      <c r="M4" s="81" t="s">
+        <v>548</v>
+      </c>
+      <c r="N4" s="81" t="s">
+        <v>549</v>
+      </c>
+      <c r="O4" s="81">
+        <v>7</v>
+      </c>
+      <c r="P4" s="142" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q4" s="142" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="L5" s="143" t="s">
+        <v>553</v>
+      </c>
+      <c r="M5" s="100" t="s">
+        <v>554</v>
+      </c>
+      <c r="N5" s="100" t="s">
+        <v>555</v>
+      </c>
+      <c r="O5" s="81">
+        <v>8</v>
+      </c>
+      <c r="P5" s="143" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q5" s="143" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B6" s="138">
+        <f>2^128</f>
+        <v>3.4028236692093846E+38</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B8" s="114" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>563</v>
+      </c>
+      <c r="D9" s="130"/>
+      <c r="E9" s="80" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>561</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>565</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>566</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>568</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>565</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>566</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>569</v>
+      </c>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/network-models.xlsx
+++ b/docs/network-models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna1-lx19\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460D5D94-AF42-4845-9D5F-24AD5A585FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAFABA3-B296-4DA9-BEF4-75C351C767A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="8" xr2:uid="{3206E47C-665C-4ACC-B61B-5FA8F6150478}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="classic" sheetId="6" r:id="rId6"/>
     <sheet name="vlsm" sheetId="7" r:id="rId7"/>
     <sheet name="IPv6" sheetId="8" r:id="rId8"/>
+    <sheet name="transport" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="593">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -2312,6 +2313,75 @@
   </si>
   <si>
     <t>800:27FF:FE00:12</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>INICIO</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>CONOCIDO</t>
+  </si>
+  <si>
+    <t>DINAMICO</t>
+  </si>
+  <si>
+    <t>REGISTRADO</t>
+  </si>
+  <si>
+    <t>PROTOCOLO</t>
+  </si>
+  <si>
+    <t>USER DATAGRAM PROTOCOL</t>
+  </si>
+  <si>
+    <t>TRANSPORT CONTROL PROTOCOL</t>
+  </si>
+  <si>
+    <t>MAXIMO ESFUERZO</t>
+  </si>
+  <si>
+    <t>SIGNIFICADO</t>
+  </si>
+  <si>
+    <t>CARACTERISTICA</t>
+  </si>
+  <si>
+    <t>DATAGRAMA</t>
+  </si>
+  <si>
+    <t>SEGMENTO</t>
+  </si>
+  <si>
+    <t>CABECERA</t>
+  </si>
+  <si>
+    <t>8 BYTES</t>
+  </si>
+  <si>
+    <t>20 BYTES</t>
+  </si>
+  <si>
+    <t>CONFIABLE (ACK)</t>
+  </si>
+  <si>
+    <t>APLICACIONES</t>
+  </si>
+  <si>
+    <t>DNS - DHCP - TFTP</t>
+  </si>
+  <si>
+    <t>POP3 - IMAP - SMTP - SSH - HTTP - HTTPS - FTP - SFTP</t>
   </si>
 </sst>
 </file>
@@ -2958,72 +3028,6 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3031,16 +3035,7 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3057,6 +3052,81 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -3912,13 +3982,13 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="121" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3926,17 +3996,17 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="111"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="121"/>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="111"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="121"/>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3976,7 +4046,7 @@
       <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="120" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3990,7 +4060,7 @@
       <c r="C8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="110"/>
+      <c r="D8" s="120"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -4040,16 +4110,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="E3" s="114" t="s">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="E3" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4181,11 +4251,11 @@
       <c r="C10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -4353,10 +4423,10 @@
       <c r="G1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="119"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -4453,10 +4523,10 @@
       <c r="G5">
         <v>9</v>
       </c>
-      <c r="I5" s="116" t="s">
+      <c r="I5" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="117"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
@@ -4540,11 +4610,11 @@
       <c r="C9" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="114" t="s">
+      <c r="E9" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
       <c r="I9" s="54" t="s">
         <v>150</v>
       </c>
@@ -4556,17 +4626,17 @@
       <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="119"/>
+      <c r="C11" s="129"/>
       <c r="E11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="119"/>
+      <c r="G11" s="129"/>
       <c r="I11" t="s">
         <v>166</v>
       </c>
@@ -4578,17 +4648,17 @@
       <c r="A12" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="127"/>
+      <c r="C12" s="133"/>
       <c r="E12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="120" t="s">
+      <c r="F12" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="121"/>
+      <c r="G12" s="135"/>
       <c r="I12" t="s">
         <v>115</v>
       </c>
@@ -4600,17 +4670,17 @@
       <c r="A13" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="125"/>
+      <c r="C13" s="131"/>
       <c r="E13" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="123"/>
+      <c r="G13" s="127"/>
       <c r="I13" t="s">
         <v>117</v>
       </c>
@@ -4622,17 +4692,17 @@
       <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="127"/>
+      <c r="C14" s="133"/>
       <c r="E14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="121"/>
+      <c r="G14" s="135"/>
       <c r="I14" t="s">
         <v>118</v>
       </c>
@@ -4644,17 +4714,17 @@
       <c r="A15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="125"/>
+      <c r="C15" s="131"/>
       <c r="E15" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="122" t="s">
+      <c r="F15" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="123"/>
+      <c r="G15" s="127"/>
       <c r="I15" t="s">
         <v>119</v>
       </c>
@@ -4664,6 +4734,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B15:C15"/>
@@ -4672,11 +4747,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -4967,16 +5037,16 @@
       <c r="K6" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="118" t="s">
+      <c r="L6" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
       <c r="T6" s="20" t="s">
         <v>170</v>
       </c>
@@ -5748,13 +5818,13 @@
       <c r="E17" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="128">
+      <c r="F17" s="138">
         <f>SUM(F13:I16)</f>
         <v>46610</v>
       </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
       <c r="K17" s="70">
         <v>127</v>
       </c>
@@ -5947,24 +6017,24 @@
       <c r="A1" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="124" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114" t="s">
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114" t="s">
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8238,7 +8308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9F6B2B-D7E8-4457-964E-61A98C299E01}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:E12"/>
     </sheetView>
   </sheetViews>
@@ -8258,20 +8328,20 @@
       <c r="A1" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="142" t="s">
         <v>517</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="133" t="s">
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="111" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="143" t="s">
         <v>519</v>
       </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
       <c r="J1" t="s">
         <v>520</v>
       </c>
@@ -8298,49 +8368,49 @@
       <c r="A2" t="s">
         <v>525</v>
       </c>
-      <c r="B2" s="132">
+      <c r="B2" s="110">
         <v>2000</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="110" t="s">
         <v>521</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="110" t="s">
         <v>522</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="113" t="s">
         <v>523</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="113" t="s">
         <v>523</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="113" t="s">
         <v>523</v>
       </c>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="113" t="s">
         <v>239</v>
       </c>
       <c r="J2" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="L2" s="141" t="s">
+      <c r="L2" s="116" t="s">
         <v>538</v>
       </c>
-      <c r="M2" s="139" t="s">
+      <c r="M2" s="114" t="s">
         <v>539</v>
       </c>
-      <c r="N2" s="139" t="s">
+      <c r="N2" s="114" t="s">
         <v>540</v>
       </c>
       <c r="O2" s="81">
         <v>3</v>
       </c>
-      <c r="P2" s="141" t="s">
+      <c r="P2" s="116" t="s">
         <v>541</v>
       </c>
-      <c r="Q2" s="141" t="s">
+      <c r="Q2" s="116" t="s">
         <v>542</v>
       </c>
     </row>
@@ -8348,49 +8418,49 @@
       <c r="A3" t="s">
         <v>526</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="110" t="s">
         <v>527</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="110" t="s">
         <v>528</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="110" t="s">
         <v>522</v>
       </c>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="113" t="s">
         <v>529</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="113" t="s">
         <v>529</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="113" t="s">
         <v>529</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="113" t="s">
         <v>172</v>
       </c>
       <c r="J3" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="L3" s="141" t="s">
+      <c r="L3" s="116" t="s">
         <v>543</v>
       </c>
-      <c r="M3" s="139" t="s">
+      <c r="M3" s="114" t="s">
         <v>544</v>
       </c>
-      <c r="N3" s="139" t="s">
+      <c r="N3" s="114" t="s">
         <v>545</v>
       </c>
       <c r="O3" s="81">
         <v>10</v>
       </c>
-      <c r="P3" s="141" t="s">
+      <c r="P3" s="116" t="s">
         <v>546</v>
       </c>
-      <c r="Q3" s="141" t="s">
+      <c r="Q3" s="116" t="s">
         <v>547</v>
       </c>
     </row>
@@ -8398,30 +8468,30 @@
       <c r="A4" t="s">
         <v>530</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="110" t="s">
         <v>527</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="110" t="s">
         <v>528</v>
       </c>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="110" t="s">
         <v>522</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="144" t="s">
         <v>531</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="136" t="s">
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="113" t="s">
         <v>172</v>
       </c>
       <c r="J4" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="L4" s="142" t="s">
+      <c r="L4" s="117" t="s">
         <v>552</v>
       </c>
       <c r="M4" s="81" t="s">
@@ -8433,10 +8503,10 @@
       <c r="O4" s="81">
         <v>7</v>
       </c>
-      <c r="P4" s="142" t="s">
+      <c r="P4" s="117" t="s">
         <v>550</v>
       </c>
-      <c r="Q4" s="142" t="s">
+      <c r="Q4" s="117" t="s">
         <v>551</v>
       </c>
     </row>
@@ -8444,20 +8514,20 @@
       <c r="A5" t="s">
         <v>532</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="124" t="s">
         <v>533</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
       <c r="J5" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="L5" s="143" t="s">
+      <c r="L5" s="118" t="s">
         <v>553</v>
       </c>
       <c r="M5" s="100" t="s">
@@ -8469,10 +8539,10 @@
       <c r="O5" s="81">
         <v>8</v>
       </c>
-      <c r="P5" s="143" t="s">
+      <c r="P5" s="118" t="s">
         <v>556</v>
       </c>
-      <c r="Q5" s="143" t="s">
+      <c r="Q5" s="118" t="s">
         <v>557</v>
       </c>
     </row>
@@ -8480,44 +8550,44 @@
       <c r="A6" t="s">
         <v>534</v>
       </c>
-      <c r="B6" s="138">
+      <c r="B6" s="141">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>558</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="124" t="s">
         <v>559</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -8526,10 +8596,10 @@
       <c r="B9" s="80" t="s">
         <v>561</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="140" t="s">
         <v>563</v>
       </c>
-      <c r="D9" s="130"/>
+      <c r="D9" s="140"/>
       <c r="E9" s="80" t="s">
         <v>562</v>
       </c>
@@ -8572,12 +8642,12 @@
       <c r="A12" t="s">
         <v>544</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="140" t="s">
         <v>569</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="80"/>
@@ -8598,4 +8668,129 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48276C83-E08A-44AC-95D9-F71397A2B397}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F3">
+        <v>1024</v>
+      </c>
+      <c r="G3">
+        <v>49151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F4">
+        <v>49152</v>
+      </c>
+      <c r="G4">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>